--- a/LesszKaja_gantt_diagram.xlsx
+++ b/LesszKaja_gantt_diagram.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E544E9-03DD-4CF5-A3EE-84C2AFDDA33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98268BD3-CFAF-465B-826B-A139C8BEFFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="8055" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
   <si>
     <t>Projekt kezdete:</t>
   </si>
@@ -64,15 +64,6 @@
   </si>
   <si>
     <t>Mindenki</t>
-  </si>
-  <si>
-    <t>Teszt Elek</t>
-  </si>
-  <si>
-    <t>Lev Elek</t>
-  </si>
-  <si>
-    <t>Remek Elek</t>
   </si>
   <si>
     <t xml:space="preserve">3. Mérföldkő </t>
@@ -108,19 +99,7 @@
     <t>8.2.7. Bemutató elkészítése</t>
   </si>
   <si>
-    <t>8.3.1. Felhasználók kezelése (admin, raktáros, sofőr) (CR)</t>
-  </si>
-  <si>
-    <t>8.3.2. Felhasználók kezelése (admin, raktáros, sofőr) (UD)</t>
-  </si>
-  <si>
     <t>8.3.4. Felhasználói munkamenet megvalósítása több jogosultsági szinttel</t>
-  </si>
-  <si>
-    <t>8.3.5. Raktárak kezelése (CRUD)</t>
-  </si>
-  <si>
-    <t>8.3.6. Raktárkezeléshez szükséges adatok létrehozása az adatbázisban</t>
   </si>
   <si>
     <t>8.3.7. Árukészletek kezelése (C)</t>
@@ -132,33 +111,6 @@
     <t>8.3.9. Árukészletek kezelése (UD)</t>
   </si>
   <si>
-    <t>8.3.10. Árukészletek kezeléséhez szükséges adatok létrehozása az adatbázisban</t>
-  </si>
-  <si>
-    <t>8.3.12. Fuvarok/szállítmányok kezelése (CR)</t>
-  </si>
-  <si>
-    <t>8.3.13. Fuvarok/szállítmányok kezelése (UD)</t>
-  </si>
-  <si>
-    <t>8.3.14. Fuvarok/szállítmányok szükséges adatok létrehozása az adatbázisban</t>
-  </si>
-  <si>
-    <t>8.3.15. Email-es kiértesítés új szállítmány esetén az adott raktárosnak és sofőrnek</t>
-  </si>
-  <si>
-    <t>8.3.16. Fuvar útvonalának megjelenítése térképen a kezdő és a végponttal együtt</t>
-  </si>
-  <si>
-    <t>8.3.17. Biztonsági mentés automatikus létrehozása</t>
-  </si>
-  <si>
-    <t>8.3.18. Tesztelési dokumentum az összes funkcióhoz (TP, TC)</t>
-  </si>
-  <si>
-    <t>8.3.19. Bemutató elkészítése</t>
-  </si>
-  <si>
     <t>8.4.1. Javított minőségű prototípus új funkciókkal</t>
   </si>
   <si>
@@ -166,36 +118,6 @@
   </si>
   <si>
     <t>8.4.3. Javított minőségű prototípus a korábbi hiányzó funkciókkal</t>
-  </si>
-  <si>
-    <t>8.4.4. Felhasználói munkamenet tesztelése (TR)</t>
-  </si>
-  <si>
-    <t>8.4.5. Raktárak kezelésének tesztelése (TR)</t>
-  </si>
-  <si>
-    <t>8.4.6. Árukészletek kezelésének tesztelése (TR)</t>
-  </si>
-  <si>
-    <t>8.4.7. Járművek kezelésének tesztelése (TR)</t>
-  </si>
-  <si>
-    <t>8.4.8. Fuvarok kezelésének tesztelése (TR)</t>
-  </si>
-  <si>
-    <t>8.4.9. Email-es funkciók tesztelése (TR)</t>
-  </si>
-  <si>
-    <t>8.4.10. Térképes funkciók tesztelése (TR)</t>
-  </si>
-  <si>
-    <t>8.4.11. Biztonsági mentés tesztelése (TR)</t>
-  </si>
-  <si>
-    <t>8.4.12. Bemutató elkészítése</t>
-  </si>
-  <si>
-    <t>8.3.11. Járművek kezelése (CRUD) és a szükséges adatok létrehozása az adatbázisban</t>
   </si>
   <si>
     <r>
@@ -234,6 +156,90 @@
   <si>
     <t>Sánta Gábor</t>
   </si>
+  <si>
+    <t>8.3.1. Felhasználók kezelése (admin, étterem, felhasználó) (CR)</t>
+  </si>
+  <si>
+    <t>8.3.2. Felhasználók kezelése (admin, étterem, felhasználó) (UD)</t>
+  </si>
+  <si>
+    <t>8.3.5. Éttermek kezelése (CRUD)</t>
+  </si>
+  <si>
+    <t>8.3.6. Éttermek kezeléséhez szükséges adatok létrehozása az adatbázisban</t>
+  </si>
+  <si>
+    <t>8.3.10. Ételek részletezése és személyreszabása</t>
+  </si>
+  <si>
+    <t>8.3.11. Árukészletek kezeléséhez szükséges adatok létrehozása az adatbázisban</t>
+  </si>
+  <si>
+    <t>8.3.12. Éttermek keresése és szűrése</t>
+  </si>
+  <si>
+    <t>8.3.13. Fuvarok kezelése (CR)</t>
+  </si>
+  <si>
+    <t>8.3.14. Fuvarok kezelése (UD)</t>
+  </si>
+  <si>
+    <t>8.3.15. Fuvarok szükséges adatok létrehozása az adatbázisban</t>
+  </si>
+  <si>
+    <t>8.3.16. Kosár kezelése (CR)</t>
+  </si>
+  <si>
+    <t>8.3.17. Kosár kezelése (UD)</t>
+  </si>
+  <si>
+    <t>8.3.18. Fizetés folyamat megvalósítása</t>
+  </si>
+  <si>
+    <t>8.3.19.3. "Éttermek keresése és szűrése" és "Ételek részletezése és személyreszabása" tesztelése</t>
+  </si>
+  <si>
+    <t>8.3.19.1. "Felhasználók kezelése (admin, étterem, felhasználó) (CRUD)" és "Felhasználói munkamenet megvalósítása több jogosultsági szinttel" tesztelése</t>
+  </si>
+  <si>
+    <t>8.3.19.2. "Éttermek kezelése (CRUD)" tesztelése</t>
+  </si>
+  <si>
+    <t>8.3.19.4. "Árukészletek kezelése (CRUD)" tesztelése</t>
+  </si>
+  <si>
+    <t>8.3.19.5. "Kosár kezelése (CRUD)" tesztelése</t>
+  </si>
+  <si>
+    <t>8.3.19.6. "Fizetés folyamat megvalósítása" tesztelése</t>
+  </si>
+  <si>
+    <t>8.3.20. A prototípus kitelepítése éles környezetbe és bemutató elkészítése</t>
+  </si>
+  <si>
+    <t>8.4.4. "Felhasználók kezelése (admin, étterem, felhasználó) (CRUD)" és "Felhasználói munkamenet megvalósítása több jogosultsági szinttel " tesztelése (TR)</t>
+  </si>
+  <si>
+    <t>8.4.5. "Éttermek kezelése (CRUD)" tesztelése (TR)</t>
+  </si>
+  <si>
+    <t>8.4.6. "Éttermek keresése és szűrése" és "Ételek részletezése és személyreszabása" tesztelése (TR)</t>
+  </si>
+  <si>
+    <t>8.4.7. "Árukészletek kezelése (CRUD)" tesztelése (TR)</t>
+  </si>
+  <si>
+    <t>8.4.8. "Kosár kezelése (CRUD)" tesztelése (TR)</t>
+  </si>
+  <si>
+    <t>8.4.9. "Fizetés folyamat megvalósítása" tesztelése (TR)</t>
+  </si>
+  <si>
+    <t>8.4.10. A prototípus kitelepítésének frissítése</t>
+  </si>
+  <si>
+    <t>8.4.11. Bemutató elkészítése</t>
+  </si>
 </sst>
 </file>
 
@@ -247,12 +253,20 @@
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="169" formatCode="\ yyyy/\ mmm/\ d/"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -496,13 +510,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,210 +657,206 @@
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="3">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="11" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="3" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="11" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="4" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="11" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="11" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="168" fontId="7" fillId="11" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="11" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="10" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="168" fontId="7" fillId="10" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="3" xfId="8" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -856,15 +866,22 @@
     <xf numFmtId="169" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="8" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Cím" xfId="4" builtinId="15" customBuiltin="1"/>
@@ -880,14 +897,7 @@
     <cellStyle name="Task" xfId="11" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
     <cellStyle name="zHiddenText" xfId="2" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="224">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="202">
     <dxf>
       <fill>
         <patternFill>
@@ -898,6 +908,13 @@
         <left/>
         <right/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -912,6 +929,24 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -924,24 +959,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -972,24 +989,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1002,6 +1001,24 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1025,6 +1042,13 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1355,24 +1379,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1385,6 +1391,24 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1399,7 +1423,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
       <border>
@@ -1413,35 +1437,6 @@
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -1456,6 +1451,24 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1486,6 +1499,24 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1500,17 +1531,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
@@ -1518,14 +1538,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
@@ -1546,6 +1559,24 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1560,7 +1591,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
@@ -1583,20 +1621,20 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1613,20 +1651,20 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1643,20 +1681,20 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1673,20 +1711,20 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1703,17 +1741,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
@@ -1733,7 +1760,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
       <border>
@@ -1763,7 +1790,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
       <border>
@@ -1793,7 +1820,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
       <border>
@@ -1823,7 +1850,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
       <border>
@@ -1853,17 +1880,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
@@ -1883,24 +1899,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
@@ -1918,6 +1916,13 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1932,38 +1937,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -1978,6 +1954,13 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1992,17 +1975,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
@@ -2022,38 +1994,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -2068,6 +2011,13 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -2082,13 +2032,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -2105,7 +2051,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
       <border>
@@ -2135,17 +2081,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
@@ -2165,17 +2100,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
@@ -2195,17 +2119,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
@@ -2225,7 +2138,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
       <border>
@@ -2255,17 +2168,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
@@ -2285,7 +2187,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
       <border>
@@ -2315,17 +2217,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
@@ -2345,7 +2236,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
       <border>
@@ -2375,20 +2266,20 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -2405,38 +2296,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -2451,6 +2313,24 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -2465,32 +2345,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
       <border>
@@ -2511,6 +2366,17 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -2601,24 +2467,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -2631,6 +2479,24 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -2654,6 +2520,31 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -2684,6 +2575,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -2707,13 +2605,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -2767,13 +2658,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -2797,13 +2681,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -2818,20 +2695,13 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -2894,6 +2764,17 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -2908,17 +2789,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
@@ -2936,24 +2806,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -2968,80 +2820,13 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -3139,15 +2924,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="223"/>
-      <tableStyleElement type="headerRow" dxfId="222"/>
-      <tableStyleElement type="totalRow" dxfId="221"/>
-      <tableStyleElement type="firstColumn" dxfId="220"/>
-      <tableStyleElement type="lastColumn" dxfId="219"/>
-      <tableStyleElement type="firstRowStripe" dxfId="218"/>
-      <tableStyleElement type="secondRowStripe" dxfId="217"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="216"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="215"/>
+      <tableStyleElement type="wholeTable" dxfId="201"/>
+      <tableStyleElement type="headerRow" dxfId="200"/>
+      <tableStyleElement type="totalRow" dxfId="199"/>
+      <tableStyleElement type="firstColumn" dxfId="198"/>
+      <tableStyleElement type="lastColumn" dxfId="197"/>
+      <tableStyleElement type="firstRowStripe" dxfId="196"/>
+      <tableStyleElement type="secondRowStripe" dxfId="195"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="194"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="193"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3506,17 +3291,17 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CE54"/>
+  <dimension ref="A1:CE60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R13" sqref="R13"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ47" sqref="AJ47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.26953125" customWidth="1"/>
+    <col min="2" max="2" width="88.36328125" customWidth="1"/>
     <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
@@ -3525,184 +3310,184 @@
   <sheetData>
     <row r="1" spans="1:83" ht="25.5" customHeight="1">
       <c r="A1" s="17"/>
-      <c r="B1" s="35" t="s">
-        <v>54</v>
+      <c r="B1" s="33" t="s">
+        <v>28</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="3"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
-      <c r="I1" s="33"/>
+      <c r="I1" s="31"/>
       <c r="J1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="O1" s="34"/>
+      <c r="P1" s="31"/>
       <c r="Q1" t="s">
-        <v>57</v>
-      </c>
-      <c r="W1" s="73"/>
-      <c r="X1" s="33"/>
+        <v>31</v>
+      </c>
+      <c r="W1" s="64"/>
+      <c r="X1" s="31"/>
       <c r="Y1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33" t="s">
-        <v>60</v>
+        <v>32</v>
+      </c>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31" t="s">
+        <v>34</v>
       </c>
       <c r="AR1" s="28"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY1" s="74"/>
-      <c r="AZ1" s="33"/>
-      <c r="BA1" s="33" t="s">
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="31"/>
+      <c r="BA1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="BF1" s="75"/>
-      <c r="BG1" s="33"/>
+      <c r="BF1" s="65"/>
+      <c r="BG1" s="31"/>
     </row>
     <row r="2" spans="1:83" ht="25.5" customHeight="1">
-      <c r="B2" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="67" t="s">
+      <c r="B2" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="67"/>
+      <c r="E2" s="69"/>
       <c r="F2" s="15"/>
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:83" ht="25.5" customHeight="1">
       <c r="B3" s="26"/>
-      <c r="D3" s="67">
+      <c r="D3" s="69">
         <v>45572</v>
       </c>
-      <c r="E3" s="67"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:83" ht="25.5" customHeight="1">
       <c r="A4" s="17"/>
       <c r="D4"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="68">
+      <c r="F4" s="70"/>
+      <c r="G4" s="66">
         <f>G5</f>
         <v>45572</v>
       </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="68">
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="66">
         <f>N5</f>
         <v>45579</v>
       </c>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="68">
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="66">
         <f>U5</f>
         <v>45586</v>
       </c>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="68">
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67"/>
+      <c r="Z4" s="67"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="66">
         <f>AB5</f>
         <v>45593</v>
       </c>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="70"/>
-      <c r="AI4" s="68">
+      <c r="AC4" s="67"/>
+      <c r="AD4" s="67"/>
+      <c r="AE4" s="67"/>
+      <c r="AF4" s="67"/>
+      <c r="AG4" s="67"/>
+      <c r="AH4" s="68"/>
+      <c r="AI4" s="66">
         <f>AI5</f>
         <v>45600</v>
       </c>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="69"/>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="70"/>
-      <c r="AP4" s="68">
+      <c r="AJ4" s="67"/>
+      <c r="AK4" s="67"/>
+      <c r="AL4" s="67"/>
+      <c r="AM4" s="67"/>
+      <c r="AN4" s="67"/>
+      <c r="AO4" s="68"/>
+      <c r="AP4" s="66">
         <f>AP5</f>
         <v>45607</v>
       </c>
-      <c r="AQ4" s="69"/>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="69"/>
-      <c r="AV4" s="70"/>
-      <c r="AW4" s="68">
+      <c r="AQ4" s="67"/>
+      <c r="AR4" s="67"/>
+      <c r="AS4" s="67"/>
+      <c r="AT4" s="67"/>
+      <c r="AU4" s="67"/>
+      <c r="AV4" s="68"/>
+      <c r="AW4" s="66">
         <f>AW5</f>
         <v>45614</v>
       </c>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="69"/>
-      <c r="AZ4" s="69"/>
-      <c r="BA4" s="69"/>
-      <c r="BB4" s="69"/>
-      <c r="BC4" s="70"/>
-      <c r="BD4" s="68">
+      <c r="AX4" s="67"/>
+      <c r="AY4" s="67"/>
+      <c r="AZ4" s="67"/>
+      <c r="BA4" s="67"/>
+      <c r="BB4" s="67"/>
+      <c r="BC4" s="68"/>
+      <c r="BD4" s="66">
         <f>BD5</f>
         <v>45621</v>
       </c>
-      <c r="BE4" s="69"/>
-      <c r="BF4" s="69"/>
-      <c r="BG4" s="69"/>
-      <c r="BH4" s="69"/>
-      <c r="BI4" s="69"/>
-      <c r="BJ4" s="70"/>
-      <c r="BK4" s="68">
+      <c r="BE4" s="67"/>
+      <c r="BF4" s="67"/>
+      <c r="BG4" s="67"/>
+      <c r="BH4" s="67"/>
+      <c r="BI4" s="67"/>
+      <c r="BJ4" s="68"/>
+      <c r="BK4" s="66">
         <f>BK5</f>
         <v>45628</v>
       </c>
-      <c r="BL4" s="69"/>
-      <c r="BM4" s="69"/>
-      <c r="BN4" s="69"/>
-      <c r="BO4" s="69"/>
-      <c r="BP4" s="69"/>
-      <c r="BQ4" s="70"/>
-      <c r="BR4" s="68">
+      <c r="BL4" s="67"/>
+      <c r="BM4" s="67"/>
+      <c r="BN4" s="67"/>
+      <c r="BO4" s="67"/>
+      <c r="BP4" s="67"/>
+      <c r="BQ4" s="68"/>
+      <c r="BR4" s="66">
         <f>BR5</f>
         <v>45635</v>
       </c>
-      <c r="BS4" s="69"/>
-      <c r="BT4" s="69"/>
-      <c r="BU4" s="69"/>
-      <c r="BV4" s="69"/>
-      <c r="BW4" s="69"/>
-      <c r="BX4" s="70"/>
-      <c r="BY4" s="68">
+      <c r="BS4" s="67"/>
+      <c r="BT4" s="67"/>
+      <c r="BU4" s="67"/>
+      <c r="BV4" s="67"/>
+      <c r="BW4" s="67"/>
+      <c r="BX4" s="68"/>
+      <c r="BY4" s="66">
         <f>BY5</f>
         <v>45642</v>
       </c>
-      <c r="BZ4" s="69"/>
-      <c r="CA4" s="69"/>
-      <c r="CB4" s="69"/>
-      <c r="CC4" s="69"/>
-      <c r="CD4" s="69"/>
-      <c r="CE4" s="70"/>
+      <c r="BZ4" s="67"/>
+      <c r="CA4" s="67"/>
+      <c r="CB4" s="67"/>
+      <c r="CC4" s="67"/>
+      <c r="CD4" s="67"/>
+      <c r="CE4" s="68"/>
     </row>
     <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1">
       <c r="A5" s="17"/>
@@ -3718,7 +3503,7 @@
       <c r="E5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="72"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="6">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45572</v>
@@ -4112,11 +3897,11 @@
     </row>
     <row r="7" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="17"/>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="10"/>
       <c r="F7" s="22"/>
       <c r="G7" s="14"/>
@@ -4199,16 +3984,16 @@
     </row>
     <row r="8" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="17"/>
-      <c r="B8" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="43" t="s">
+      <c r="B8" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="41">
         <v>45572</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="41">
         <f>D8+1</f>
         <v>45573</v>
       </c>
@@ -4293,16 +4078,16 @@
     </row>
     <row r="9" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A9" s="17"/>
-      <c r="B9" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="44">
+      <c r="B9" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="41">
         <v>45575</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="41">
         <f>D9+2</f>
         <v>45577</v>
       </c>
@@ -4387,11 +4172,11 @@
     </row>
     <row r="10" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A10" s="17"/>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="11"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
@@ -4474,18 +4259,18 @@
     </row>
     <row r="11" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A11" s="17"/>
-      <c r="B11" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="50">
+      <c r="B11" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="47">
+        <v>45578</v>
+      </c>
+      <c r="E11" s="47">
+        <f>D11+2</f>
         <v>45580</v>
-      </c>
-      <c r="E11" s="50">
-        <f>D11+2</f>
-        <v>45582</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="14"/>
@@ -4568,18 +4353,18 @@
     </row>
     <row r="12" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="17"/>
-      <c r="B12" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="50">
-        <v>44474</v>
-      </c>
-      <c r="E12" s="50">
+      <c r="B12" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="47">
+        <v>45578</v>
+      </c>
+      <c r="E12" s="47">
         <f>D12+3</f>
-        <v>44477</v>
+        <v>45581</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="14"/>
@@ -4662,18 +4447,18 @@
     </row>
     <row r="13" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A13" s="17"/>
-      <c r="B13" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="50">
-        <v>44480</v>
-      </c>
-      <c r="E13" s="50">
+      <c r="B13" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="47">
+        <v>45581</v>
+      </c>
+      <c r="E13" s="47">
         <f>D13+2</f>
-        <v>44482</v>
+        <v>45583</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="14"/>
@@ -4756,18 +4541,18 @@
     </row>
     <row r="14" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="17"/>
-      <c r="B14" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="50">
-        <v>44480</v>
-      </c>
-      <c r="E14" s="50">
+      <c r="B14" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="47">
+        <v>45581</v>
+      </c>
+      <c r="E14" s="47">
         <f>D14+3</f>
-        <v>44483</v>
+        <v>45584</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="14"/>
@@ -4850,18 +4635,18 @@
     </row>
     <row r="15" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A15" s="17"/>
-      <c r="B15" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="50">
-        <v>44475</v>
-      </c>
-      <c r="E15" s="50">
+      <c r="B15" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="47">
+        <v>45584</v>
+      </c>
+      <c r="E15" s="47">
         <f>D15+2</f>
-        <v>44477</v>
+        <v>45586</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="14"/>
@@ -4944,18 +4729,18 @@
     </row>
     <row r="16" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A16" s="17"/>
-      <c r="B16" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="50">
-        <v>44478</v>
-      </c>
-      <c r="E16" s="50">
+      <c r="B16" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="47">
+        <v>45580</v>
+      </c>
+      <c r="E16" s="47">
         <f>D16+2</f>
-        <v>44480</v>
+        <v>45582</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="14"/>
@@ -5038,18 +4823,18 @@
     </row>
     <row r="17" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="17"/>
-      <c r="B17" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="50">
-        <v>44484</v>
-      </c>
-      <c r="E17" s="50">
+      <c r="B17" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="47">
+        <v>45586</v>
+      </c>
+      <c r="E17" s="47">
         <f>D17</f>
-        <v>44484</v>
+        <v>45586</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="14"/>
@@ -5132,107 +4917,107 @@
     </row>
     <row r="18" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A18" s="17"/>
-      <c r="B18" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
+      <c r="B18" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="12"/>
       <c r="F18" s="22"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="32"/>
-      <c r="AF18" s="32"/>
-      <c r="AG18" s="32"/>
-      <c r="AH18" s="32"/>
-      <c r="AI18" s="32"/>
-      <c r="AJ18" s="32"/>
-      <c r="AK18" s="32"/>
-      <c r="AL18" s="32"/>
-      <c r="AM18" s="32"/>
-      <c r="AN18" s="32"/>
-      <c r="AO18" s="32"/>
-      <c r="AP18" s="32"/>
-      <c r="AQ18" s="32"/>
-      <c r="AR18" s="32"/>
-      <c r="AS18" s="32"/>
-      <c r="AT18" s="32"/>
-      <c r="AU18" s="32"/>
-      <c r="AV18" s="32"/>
-      <c r="AW18" s="32"/>
-      <c r="AX18" s="32"/>
-      <c r="AY18" s="32"/>
-      <c r="AZ18" s="32"/>
-      <c r="BA18" s="32"/>
-      <c r="BB18" s="32"/>
-      <c r="BC18" s="32"/>
-      <c r="BD18" s="32"/>
-      <c r="BE18" s="32"/>
-      <c r="BF18" s="32"/>
-      <c r="BG18" s="32"/>
-      <c r="BH18" s="32"/>
-      <c r="BI18" s="32"/>
-      <c r="BJ18" s="32"/>
-      <c r="BK18" s="32"/>
-      <c r="BL18" s="32"/>
-      <c r="BM18" s="32"/>
-      <c r="BN18" s="32"/>
-      <c r="BO18" s="32"/>
-      <c r="BP18" s="32"/>
-      <c r="BQ18" s="32"/>
-      <c r="BR18" s="32"/>
-      <c r="BS18" s="32"/>
-      <c r="BT18" s="32"/>
-      <c r="BU18" s="32"/>
-      <c r="BV18" s="32"/>
-      <c r="BW18" s="32"/>
-      <c r="BX18" s="32"/>
-      <c r="BY18" s="32"/>
-      <c r="BZ18" s="32"/>
-      <c r="CA18" s="32"/>
-      <c r="CB18" s="32"/>
-      <c r="CC18" s="32"/>
-      <c r="CD18" s="32"/>
-      <c r="CE18" s="32"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="30"/>
+      <c r="AJ18" s="30"/>
+      <c r="AK18" s="30"/>
+      <c r="AL18" s="30"/>
+      <c r="AM18" s="30"/>
+      <c r="AN18" s="30"/>
+      <c r="AO18" s="30"/>
+      <c r="AP18" s="30"/>
+      <c r="AQ18" s="30"/>
+      <c r="AR18" s="30"/>
+      <c r="AS18" s="30"/>
+      <c r="AT18" s="30"/>
+      <c r="AU18" s="30"/>
+      <c r="AV18" s="30"/>
+      <c r="AW18" s="30"/>
+      <c r="AX18" s="30"/>
+      <c r="AY18" s="30"/>
+      <c r="AZ18" s="30"/>
+      <c r="BA18" s="30"/>
+      <c r="BB18" s="30"/>
+      <c r="BC18" s="30"/>
+      <c r="BD18" s="30"/>
+      <c r="BE18" s="30"/>
+      <c r="BF18" s="30"/>
+      <c r="BG18" s="30"/>
+      <c r="BH18" s="30"/>
+      <c r="BI18" s="30"/>
+      <c r="BJ18" s="30"/>
+      <c r="BK18" s="30"/>
+      <c r="BL18" s="30"/>
+      <c r="BM18" s="30"/>
+      <c r="BN18" s="30"/>
+      <c r="BO18" s="30"/>
+      <c r="BP18" s="30"/>
+      <c r="BQ18" s="30"/>
+      <c r="BR18" s="30"/>
+      <c r="BS18" s="30"/>
+      <c r="BT18" s="30"/>
+      <c r="BU18" s="30"/>
+      <c r="BV18" s="30"/>
+      <c r="BW18" s="30"/>
+      <c r="BX18" s="30"/>
+      <c r="BY18" s="30"/>
+      <c r="BZ18" s="30"/>
+      <c r="CA18" s="30"/>
+      <c r="CB18" s="30"/>
+      <c r="CC18" s="30"/>
+      <c r="CD18" s="30"/>
+      <c r="CE18" s="30"/>
     </row>
     <row r="19" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A19" s="17">
         <v>1</v>
       </c>
-      <c r="B19" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="56">
-        <v>44492</v>
-      </c>
-      <c r="E19" s="56">
+      <c r="B19" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="53">
+        <v>45588</v>
+      </c>
+      <c r="E19" s="53">
         <f>D19+4</f>
-        <v>44496</v>
+        <v>45592</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="14"/>
@@ -5268,11 +5053,11 @@
       <c r="AK19" s="14"/>
       <c r="AL19" s="14"/>
       <c r="AM19" s="14"/>
-      <c r="AN19" s="29"/>
-      <c r="AO19" s="29"/>
-      <c r="AP19" s="29"/>
-      <c r="AQ19" s="29"/>
-      <c r="AR19" s="29"/>
+      <c r="AN19" s="27"/>
+      <c r="AO19" s="27"/>
+      <c r="AP19" s="14"/>
+      <c r="AQ19" s="14"/>
+      <c r="AR19" s="14"/>
       <c r="AS19" s="14"/>
       <c r="AT19" s="14"/>
       <c r="AU19" s="27"/>
@@ -5315,18 +5100,18 @@
     </row>
     <row r="20" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A20" s="17"/>
-      <c r="B20" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="56">
-        <v>44489</v>
-      </c>
-      <c r="E20" s="56">
+      <c r="B20" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="53">
+        <v>45585</v>
+      </c>
+      <c r="E20" s="53">
         <f>D20+3</f>
-        <v>44492</v>
+        <v>45588</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="14"/>
@@ -5359,10 +5144,10 @@
       <c r="AH20" s="27"/>
       <c r="AI20" s="14"/>
       <c r="AJ20" s="14"/>
-      <c r="AK20" s="28"/>
-      <c r="AL20" s="28"/>
-      <c r="AM20" s="28"/>
-      <c r="AN20" s="28"/>
+      <c r="AK20" s="14"/>
+      <c r="AL20" s="14"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="27"/>
       <c r="AO20" s="27"/>
       <c r="AP20" s="14"/>
       <c r="AQ20" s="14"/>
@@ -5409,18 +5194,18 @@
     </row>
     <row r="21" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A21" s="17"/>
-      <c r="B21" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="56">
-        <v>44488</v>
-      </c>
-      <c r="E21" s="56">
+      <c r="B21" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="53">
+        <v>45584</v>
+      </c>
+      <c r="E21" s="53">
         <f>D21+2</f>
-        <v>44490</v>
+        <v>45586</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="14"/>
@@ -5452,9 +5237,9 @@
       <c r="AG21" s="27"/>
       <c r="AH21" s="27"/>
       <c r="AI21" s="14"/>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="30"/>
-      <c r="AL21" s="30"/>
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="14"/>
+      <c r="AL21" s="14"/>
       <c r="AM21" s="14"/>
       <c r="AN21" s="27"/>
       <c r="AO21" s="27"/>
@@ -5503,18 +5288,18 @@
     </row>
     <row r="22" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A22" s="17"/>
-      <c r="B22" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="56">
-        <v>44497</v>
-      </c>
-      <c r="E22" s="56">
-        <f>D22+9</f>
-        <v>44506</v>
+      <c r="B22" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="53">
+        <v>45593</v>
+      </c>
+      <c r="E22" s="53">
+        <f>D22+6</f>
+        <v>45599</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="14"/>
@@ -5555,16 +5340,16 @@
       <c r="AP22" s="14"/>
       <c r="AQ22" s="14"/>
       <c r="AR22" s="14"/>
-      <c r="AS22" s="29"/>
-      <c r="AT22" s="29"/>
-      <c r="AU22" s="29"/>
-      <c r="AV22" s="29"/>
-      <c r="AW22" s="29"/>
-      <c r="AX22" s="29"/>
-      <c r="AY22" s="29"/>
-      <c r="AZ22" s="29"/>
-      <c r="BA22" s="29"/>
-      <c r="BB22" s="29"/>
+      <c r="AS22" s="14"/>
+      <c r="AT22" s="14"/>
+      <c r="AU22" s="27"/>
+      <c r="AV22" s="27"/>
+      <c r="AW22" s="14"/>
+      <c r="AX22" s="14"/>
+      <c r="AY22" s="14"/>
+      <c r="AZ22" s="14"/>
+      <c r="BA22" s="14"/>
+      <c r="BB22" s="27"/>
       <c r="BC22" s="27"/>
       <c r="BD22" s="14"/>
       <c r="BE22" s="14"/>
@@ -5597,18 +5382,18 @@
     </row>
     <row r="23" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="17"/>
-      <c r="B23" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="56">
-        <v>44501</v>
-      </c>
-      <c r="E23" s="56">
-        <f>D23+2</f>
-        <v>44503</v>
+      <c r="B23" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="53">
+        <v>45588</v>
+      </c>
+      <c r="E23" s="53">
+        <f>D23+3</f>
+        <v>45591</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="14"/>
@@ -5653,9 +5438,9 @@
       <c r="AT23" s="14"/>
       <c r="AU23" s="27"/>
       <c r="AV23" s="27"/>
-      <c r="AW23" s="29"/>
-      <c r="AX23" s="29"/>
-      <c r="AY23" s="29"/>
+      <c r="AW23" s="14"/>
+      <c r="AX23" s="14"/>
+      <c r="AY23" s="14"/>
       <c r="AZ23" s="14"/>
       <c r="BA23" s="14"/>
       <c r="BB23" s="27"/>
@@ -5691,18 +5476,18 @@
     </row>
     <row r="24" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="17"/>
-      <c r="B24" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="56">
-        <v>44494</v>
-      </c>
-      <c r="E24" s="56">
+      <c r="B24" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="53">
+        <v>45590</v>
+      </c>
+      <c r="E24" s="53">
         <f>D24+3</f>
-        <v>44497</v>
+        <v>45593</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="14"/>
@@ -5740,10 +5525,10 @@
       <c r="AM24" s="14"/>
       <c r="AN24" s="27"/>
       <c r="AO24" s="27"/>
-      <c r="AP24" s="28"/>
-      <c r="AQ24" s="28"/>
-      <c r="AR24" s="28"/>
-      <c r="AS24" s="28"/>
+      <c r="AP24" s="14"/>
+      <c r="AQ24" s="14"/>
+      <c r="AR24" s="14"/>
+      <c r="AS24" s="14"/>
       <c r="AT24" s="14"/>
       <c r="AU24" s="27"/>
       <c r="AV24" s="27"/>
@@ -5785,18 +5570,18 @@
     </row>
     <row r="25" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A25" s="17"/>
-      <c r="B25" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="56">
-        <v>44497</v>
-      </c>
-      <c r="E25" s="56">
+      <c r="B25" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="53">
+        <v>45593</v>
+      </c>
+      <c r="E25" s="53">
         <f>D25+3</f>
-        <v>44500</v>
+        <v>45596</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="14"/>
@@ -5837,10 +5622,10 @@
       <c r="AP25" s="14"/>
       <c r="AQ25" s="14"/>
       <c r="AR25" s="14"/>
-      <c r="AS25" s="28"/>
-      <c r="AT25" s="28"/>
-      <c r="AU25" s="28"/>
-      <c r="AV25" s="28"/>
+      <c r="AS25" s="14"/>
+      <c r="AT25" s="14"/>
+      <c r="AU25" s="27"/>
+      <c r="AV25" s="27"/>
       <c r="AW25" s="14"/>
       <c r="AX25" s="14"/>
       <c r="AY25" s="14"/>
@@ -5879,18 +5664,18 @@
     </row>
     <row r="26" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A26" s="17"/>
-      <c r="B26" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="56">
-        <v>44495</v>
-      </c>
-      <c r="E26" s="56">
+      <c r="B26" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="53">
+        <v>45591</v>
+      </c>
+      <c r="E26" s="53">
         <f>D26+2</f>
-        <v>44497</v>
+        <v>45593</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="14"/>
@@ -5929,9 +5714,9 @@
       <c r="AN26" s="27"/>
       <c r="AO26" s="27"/>
       <c r="AP26" s="14"/>
-      <c r="AQ26" s="30"/>
-      <c r="AR26" s="30"/>
-      <c r="AS26" s="30"/>
+      <c r="AQ26" s="14"/>
+      <c r="AR26" s="14"/>
+      <c r="AS26" s="14"/>
       <c r="AT26" s="14"/>
       <c r="AU26" s="27"/>
       <c r="AV26" s="27"/>
@@ -5973,18 +5758,18 @@
     </row>
     <row r="27" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A27" s="17"/>
-      <c r="B27" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="56">
-        <v>44497</v>
-      </c>
-      <c r="E27" s="56">
+      <c r="B27" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="53">
+        <v>45593</v>
+      </c>
+      <c r="E27" s="53">
         <f>D27+4</f>
-        <v>44501</v>
+        <v>45597</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="14"/>
@@ -6025,11 +5810,11 @@
       <c r="AP27" s="14"/>
       <c r="AQ27" s="14"/>
       <c r="AR27" s="14"/>
-      <c r="AS27" s="30"/>
-      <c r="AT27" s="30"/>
-      <c r="AU27" s="30"/>
-      <c r="AV27" s="30"/>
-      <c r="AW27" s="30"/>
+      <c r="AS27" s="14"/>
+      <c r="AT27" s="14"/>
+      <c r="AU27" s="27"/>
+      <c r="AV27" s="27"/>
+      <c r="AW27" s="14"/>
       <c r="AX27" s="14"/>
       <c r="AY27" s="14"/>
       <c r="AZ27" s="14"/>
@@ -6067,18 +5852,18 @@
     </row>
     <row r="28" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A28" s="17"/>
-      <c r="B28" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="56">
-        <v>44494</v>
-      </c>
-      <c r="E28" s="56">
-        <f>D28+4</f>
-        <v>44498</v>
+      <c r="B28" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="53">
+        <v>45598</v>
+      </c>
+      <c r="E28" s="53">
+        <f>D28+3</f>
+        <v>45601</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="14"/>
@@ -6116,11 +5901,11 @@
       <c r="AM28" s="14"/>
       <c r="AN28" s="27"/>
       <c r="AO28" s="27"/>
-      <c r="AP28" s="30"/>
-      <c r="AQ28" s="30"/>
-      <c r="AR28" s="30"/>
-      <c r="AS28" s="30"/>
-      <c r="AT28" s="30"/>
+      <c r="AP28" s="14"/>
+      <c r="AQ28" s="14"/>
+      <c r="AR28" s="14"/>
+      <c r="AS28" s="14"/>
+      <c r="AT28" s="14"/>
       <c r="AU28" s="27"/>
       <c r="AV28" s="27"/>
       <c r="AW28" s="14"/>
@@ -6161,18 +5946,18 @@
     </row>
     <row r="29" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A29" s="17"/>
-      <c r="B29" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="56">
-        <v>44493</v>
-      </c>
-      <c r="E29" s="56">
-        <f>D29+2</f>
-        <v>44495</v>
+      <c r="B29" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="53">
+        <v>45590</v>
+      </c>
+      <c r="E29" s="53">
+        <f>D29+4</f>
+        <v>45594</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="14"/>
@@ -6209,9 +5994,9 @@
       <c r="AL29" s="14"/>
       <c r="AM29" s="14"/>
       <c r="AN29" s="27"/>
-      <c r="AO29" s="30"/>
-      <c r="AP29" s="30"/>
-      <c r="AQ29" s="30"/>
+      <c r="AO29" s="27"/>
+      <c r="AP29" s="14"/>
+      <c r="AQ29" s="14"/>
       <c r="AR29" s="14"/>
       <c r="AS29" s="14"/>
       <c r="AT29" s="14"/>
@@ -6255,18 +6040,18 @@
     </row>
     <row r="30" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A30" s="17"/>
-      <c r="B30" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="56">
-        <v>44502</v>
-      </c>
-      <c r="E30" s="56">
+      <c r="B30" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="53">
+        <v>45591</v>
+      </c>
+      <c r="E30" s="53">
         <f>D30+3</f>
-        <v>44505</v>
+        <v>45594</v>
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="14"/>
@@ -6312,10 +6097,10 @@
       <c r="AU30" s="27"/>
       <c r="AV30" s="27"/>
       <c r="AW30" s="14"/>
-      <c r="AX30" s="29"/>
-      <c r="AY30" s="29"/>
-      <c r="AZ30" s="29"/>
-      <c r="BA30" s="29"/>
+      <c r="AX30" s="14"/>
+      <c r="AY30" s="14"/>
+      <c r="AZ30" s="14"/>
+      <c r="BA30" s="14"/>
       <c r="BB30" s="27"/>
       <c r="BC30" s="27"/>
       <c r="BD30" s="14"/>
@@ -6349,18 +6134,18 @@
     </row>
     <row r="31" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="56">
-        <v>44501</v>
-      </c>
-      <c r="E31" s="56">
-        <f>D31+4</f>
-        <v>44505</v>
+      <c r="B31" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="53">
+        <v>45596</v>
+      </c>
+      <c r="E31" s="53">
+        <f>D31+3</f>
+        <v>45599</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="14"/>
@@ -6405,11 +6190,11 @@
       <c r="AT31" s="14"/>
       <c r="AU31" s="27"/>
       <c r="AV31" s="27"/>
-      <c r="AW31" s="29"/>
-      <c r="AX31" s="29"/>
-      <c r="AY31" s="29"/>
-      <c r="AZ31" s="29"/>
-      <c r="BA31" s="29"/>
+      <c r="AW31" s="14"/>
+      <c r="AX31" s="14"/>
+      <c r="AY31" s="14"/>
+      <c r="AZ31" s="14"/>
+      <c r="BA31" s="14"/>
       <c r="BB31" s="27"/>
       <c r="BC31" s="27"/>
       <c r="BD31" s="14"/>
@@ -6443,18 +6228,18 @@
     </row>
     <row r="32" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A32" s="17"/>
-      <c r="B32" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="56">
-        <v>44500</v>
-      </c>
-      <c r="E32" s="56">
-        <f>D32+2</f>
-        <v>44502</v>
+      <c r="B32" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="53">
+        <v>45597</v>
+      </c>
+      <c r="E32" s="53">
+        <f>D32+3</f>
+        <v>45600</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="14"/>
@@ -6498,9 +6283,9 @@
       <c r="AS32" s="14"/>
       <c r="AT32" s="14"/>
       <c r="AU32" s="27"/>
-      <c r="AV32" s="28"/>
-      <c r="AW32" s="28"/>
-      <c r="AX32" s="28"/>
+      <c r="AV32" s="27"/>
+      <c r="AW32" s="14"/>
+      <c r="AX32" s="14"/>
       <c r="AY32" s="14"/>
       <c r="AZ32" s="14"/>
       <c r="BA32" s="14"/>
@@ -6537,18 +6322,18 @@
     </row>
     <row r="33" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A33" s="17"/>
-      <c r="B33" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="56">
-        <v>44502</v>
-      </c>
-      <c r="E33" s="56">
-        <f>D33+3</f>
-        <v>44505</v>
+      <c r="B33" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="53">
+        <v>45599</v>
+      </c>
+      <c r="E33" s="53">
+        <f>D33+2</f>
+        <v>45601</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="14"/>
@@ -6594,10 +6379,10 @@
       <c r="AU33" s="27"/>
       <c r="AV33" s="27"/>
       <c r="AW33" s="14"/>
-      <c r="AX33" s="28"/>
-      <c r="AY33" s="28"/>
-      <c r="AZ33" s="28"/>
-      <c r="BA33" s="28"/>
+      <c r="AX33" s="14"/>
+      <c r="AY33" s="14"/>
+      <c r="AZ33" s="14"/>
+      <c r="BA33" s="14"/>
       <c r="BB33" s="27"/>
       <c r="BC33" s="27"/>
       <c r="BD33" s="14"/>
@@ -6631,18 +6416,18 @@
     </row>
     <row r="34" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A34" s="17"/>
-      <c r="B34" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="56">
-        <v>44502</v>
-      </c>
-      <c r="E34" s="56">
+      <c r="B34" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="53">
+        <v>45598</v>
+      </c>
+      <c r="E34" s="53">
         <f>D34+4</f>
-        <v>44506</v>
+        <v>45602</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="14"/>
@@ -6688,11 +6473,11 @@
       <c r="AU34" s="27"/>
       <c r="AV34" s="27"/>
       <c r="AW34" s="14"/>
-      <c r="AX34" s="28"/>
-      <c r="AY34" s="28"/>
-      <c r="AZ34" s="28"/>
-      <c r="BA34" s="28"/>
-      <c r="BB34" s="28"/>
+      <c r="AX34" s="14"/>
+      <c r="AY34" s="14"/>
+      <c r="AZ34" s="14"/>
+      <c r="BA34" s="14"/>
+      <c r="BB34" s="27"/>
       <c r="BC34" s="27"/>
       <c r="BD34" s="14"/>
       <c r="BE34" s="14"/>
@@ -6725,18 +6510,18 @@
     </row>
     <row r="35" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A35" s="17"/>
-      <c r="B35" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="56">
-        <v>44505</v>
-      </c>
-      <c r="E35" s="56">
-        <f>D35+2</f>
-        <v>44507</v>
+      <c r="B35" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="53">
+        <v>45598</v>
+      </c>
+      <c r="E35" s="53">
+        <f>D35+3</f>
+        <v>45601</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="14"/>
@@ -6785,9 +6570,9 @@
       <c r="AX35" s="14"/>
       <c r="AY35" s="14"/>
       <c r="AZ35" s="14"/>
-      <c r="BA35" s="30"/>
-      <c r="BB35" s="30"/>
-      <c r="BC35" s="30"/>
+      <c r="BA35" s="14"/>
+      <c r="BB35" s="27"/>
+      <c r="BC35" s="27"/>
       <c r="BD35" s="14"/>
       <c r="BE35" s="14"/>
       <c r="BF35" s="14"/>
@@ -6819,18 +6604,18 @@
     </row>
     <row r="36" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A36" s="17"/>
-      <c r="B36" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="56">
-        <v>44501</v>
-      </c>
-      <c r="E36" s="56">
-        <f>D36+6</f>
-        <v>44507</v>
+      <c r="B36" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="53">
+        <v>45601</v>
+      </c>
+      <c r="E36" s="53">
+        <f>D36+4</f>
+        <v>45605</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="14"/>
@@ -6875,13 +6660,13 @@
       <c r="AT36" s="14"/>
       <c r="AU36" s="27"/>
       <c r="AV36" s="27"/>
-      <c r="AW36" s="31"/>
-      <c r="AX36" s="31"/>
-      <c r="AY36" s="31"/>
-      <c r="AZ36" s="31"/>
-      <c r="BA36" s="31"/>
-      <c r="BB36" s="31"/>
-      <c r="BC36" s="31"/>
+      <c r="AW36" s="14"/>
+      <c r="AX36" s="14"/>
+      <c r="AY36" s="14"/>
+      <c r="AZ36" s="14"/>
+      <c r="BA36" s="14"/>
+      <c r="BB36" s="27"/>
+      <c r="BC36" s="27"/>
       <c r="BD36" s="14"/>
       <c r="BE36" s="14"/>
       <c r="BF36" s="14"/>
@@ -6913,18 +6698,18 @@
     </row>
     <row r="37" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="17"/>
-      <c r="B37" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="56">
-        <v>44507</v>
-      </c>
-      <c r="E37" s="56">
-        <f>D37+0</f>
-        <v>44507</v>
+      <c r="B37" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="53">
+        <v>45605</v>
+      </c>
+      <c r="E37" s="53">
+        <f>D37+1</f>
+        <v>45606</v>
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="14"/>
@@ -6975,7 +6760,7 @@
       <c r="AZ37" s="14"/>
       <c r="BA37" s="14"/>
       <c r="BB37" s="27"/>
-      <c r="BC37" s="30"/>
+      <c r="BC37" s="27"/>
       <c r="BD37" s="14"/>
       <c r="BE37" s="14"/>
       <c r="BF37" s="14"/>
@@ -7007,105 +6792,112 @@
     </row>
     <row r="38" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A38" s="17"/>
-      <c r="B38" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="13"/>
+      <c r="B38" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="53">
+        <v>45605</v>
+      </c>
+      <c r="E38" s="53">
+        <f>D38+1</f>
+        <v>45606</v>
+      </c>
       <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="22"/>
-      <c r="AB38" s="22"/>
-      <c r="AC38" s="22"/>
-      <c r="AD38" s="22"/>
-      <c r="AE38" s="22"/>
-      <c r="AF38" s="22"/>
-      <c r="AG38" s="22"/>
-      <c r="AH38" s="22"/>
-      <c r="AI38" s="22"/>
-      <c r="AJ38" s="22"/>
-      <c r="AK38" s="22"/>
-      <c r="AL38" s="22"/>
-      <c r="AM38" s="22"/>
-      <c r="AN38" s="22"/>
-      <c r="AO38" s="22"/>
-      <c r="AP38" s="22"/>
-      <c r="AQ38" s="22"/>
-      <c r="AR38" s="22"/>
-      <c r="AS38" s="22"/>
-      <c r="AT38" s="22"/>
-      <c r="AU38" s="22"/>
-      <c r="AV38" s="22"/>
-      <c r="AW38" s="22"/>
-      <c r="AX38" s="22"/>
-      <c r="AY38" s="22"/>
-      <c r="AZ38" s="22"/>
-      <c r="BA38" s="22"/>
-      <c r="BB38" s="22"/>
-      <c r="BC38" s="22"/>
-      <c r="BD38" s="22"/>
-      <c r="BE38" s="22"/>
-      <c r="BF38" s="22"/>
-      <c r="BG38" s="22"/>
-      <c r="BH38" s="22"/>
-      <c r="BI38" s="22"/>
-      <c r="BJ38" s="22"/>
-      <c r="BK38" s="22"/>
-      <c r="BL38" s="22"/>
-      <c r="BM38" s="22"/>
-      <c r="BN38" s="22"/>
-      <c r="BO38" s="22"/>
-      <c r="BP38" s="22"/>
-      <c r="BQ38" s="22"/>
-      <c r="BR38" s="22"/>
-      <c r="BS38" s="22"/>
-      <c r="BT38" s="22"/>
-      <c r="BU38" s="22"/>
-      <c r="BV38" s="22"/>
-      <c r="BW38" s="22"/>
-      <c r="BX38" s="22"/>
-      <c r="BY38" s="22"/>
-      <c r="BZ38" s="22"/>
-      <c r="CA38" s="22"/>
-      <c r="CB38" s="22"/>
-      <c r="CC38" s="22"/>
-      <c r="CD38" s="22"/>
-      <c r="CE38" s="22"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14"/>
+      <c r="AF38" s="14"/>
+      <c r="AG38" s="27"/>
+      <c r="AH38" s="27"/>
+      <c r="AI38" s="14"/>
+      <c r="AJ38" s="14"/>
+      <c r="AK38" s="14"/>
+      <c r="AL38" s="14"/>
+      <c r="AM38" s="14"/>
+      <c r="AN38" s="27"/>
+      <c r="AO38" s="27"/>
+      <c r="AP38" s="14"/>
+      <c r="AQ38" s="14"/>
+      <c r="AR38" s="14"/>
+      <c r="AS38" s="14"/>
+      <c r="AT38" s="14"/>
+      <c r="AU38" s="27"/>
+      <c r="AV38" s="27"/>
+      <c r="AW38" s="14"/>
+      <c r="AX38" s="14"/>
+      <c r="AY38" s="14"/>
+      <c r="AZ38" s="14"/>
+      <c r="BA38" s="14"/>
+      <c r="BB38" s="27"/>
+      <c r="BC38" s="27"/>
+      <c r="BD38" s="14"/>
+      <c r="BE38" s="14"/>
+      <c r="BF38" s="14"/>
+      <c r="BG38" s="14"/>
+      <c r="BH38" s="14"/>
+      <c r="BI38" s="27"/>
+      <c r="BJ38" s="27"/>
+      <c r="BK38" s="14"/>
+      <c r="BL38" s="14"/>
+      <c r="BM38" s="14"/>
+      <c r="BN38" s="14"/>
+      <c r="BO38" s="14"/>
+      <c r="BP38" s="27"/>
+      <c r="BQ38" s="27"/>
+      <c r="BR38" s="14"/>
+      <c r="BS38" s="14"/>
+      <c r="BT38" s="14"/>
+      <c r="BU38" s="14"/>
+      <c r="BV38" s="14"/>
+      <c r="BW38" s="27"/>
+      <c r="BX38" s="27"/>
+      <c r="BY38" s="14"/>
+      <c r="BZ38" s="14"/>
+      <c r="CA38" s="14"/>
+      <c r="CB38" s="14"/>
+      <c r="CC38" s="14"/>
+      <c r="CD38" s="27"/>
+      <c r="CE38" s="27"/>
     </row>
     <row r="39" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A39" s="17"/>
-      <c r="B39" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="63">
-        <v>44515</v>
-      </c>
-      <c r="E39" s="63">
-        <f>D39+4</f>
-        <v>44519</v>
+      <c r="B39" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="53">
+        <v>45605</v>
+      </c>
+      <c r="E39" s="53">
+        <f>D39+1</f>
+        <v>45606</v>
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="14"/>
@@ -7164,11 +6956,11 @@
       <c r="BH39" s="14"/>
       <c r="BI39" s="27"/>
       <c r="BJ39" s="27"/>
-      <c r="BK39" s="36"/>
-      <c r="BL39" s="36"/>
-      <c r="BM39" s="36"/>
-      <c r="BN39" s="36"/>
-      <c r="BO39" s="36"/>
+      <c r="BK39" s="14"/>
+      <c r="BL39" s="14"/>
+      <c r="BM39" s="14"/>
+      <c r="BN39" s="14"/>
+      <c r="BO39" s="14"/>
       <c r="BP39" s="27"/>
       <c r="BQ39" s="27"/>
       <c r="BR39" s="14"/>
@@ -7178,7 +6970,7 @@
       <c r="BV39" s="14"/>
       <c r="BW39" s="27"/>
       <c r="BX39" s="27"/>
-      <c r="BY39" s="27"/>
+      <c r="BY39" s="14"/>
       <c r="BZ39" s="14"/>
       <c r="CA39" s="14"/>
       <c r="CB39" s="14"/>
@@ -7188,18 +6980,18 @@
     </row>
     <row r="40" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A40" s="17"/>
-      <c r="B40" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="63">
-        <v>44515</v>
-      </c>
-      <c r="E40" s="63">
-        <f t="shared" ref="E40:E41" si="23">D40+4</f>
-        <v>44519</v>
+      <c r="B40" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="53">
+        <v>45605</v>
+      </c>
+      <c r="E40" s="53">
+        <f>D40+1</f>
+        <v>45606</v>
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="14"/>
@@ -7258,11 +7050,11 @@
       <c r="BH40" s="14"/>
       <c r="BI40" s="27"/>
       <c r="BJ40" s="27"/>
-      <c r="BK40" s="38"/>
-      <c r="BL40" s="38"/>
-      <c r="BM40" s="38"/>
-      <c r="BN40" s="38"/>
-      <c r="BO40" s="38"/>
+      <c r="BK40" s="14"/>
+      <c r="BL40" s="14"/>
+      <c r="BM40" s="14"/>
+      <c r="BN40" s="14"/>
+      <c r="BO40" s="14"/>
       <c r="BP40" s="27"/>
       <c r="BQ40" s="27"/>
       <c r="BR40" s="14"/>
@@ -7272,7 +7064,7 @@
       <c r="BV40" s="14"/>
       <c r="BW40" s="27"/>
       <c r="BX40" s="27"/>
-      <c r="BY40" s="27"/>
+      <c r="BY40" s="14"/>
       <c r="BZ40" s="14"/>
       <c r="CA40" s="14"/>
       <c r="CB40" s="14"/>
@@ -7282,18 +7074,18 @@
     </row>
     <row r="41" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A41" s="17"/>
-      <c r="B41" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="63">
-        <v>44515</v>
-      </c>
-      <c r="E41" s="63">
-        <f t="shared" si="23"/>
-        <v>44519</v>
+      <c r="B41" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="53">
+        <v>45605</v>
+      </c>
+      <c r="E41" s="53">
+        <f>D41+1</f>
+        <v>45606</v>
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="14"/>
@@ -7352,11 +7144,11 @@
       <c r="BH41" s="14"/>
       <c r="BI41" s="27"/>
       <c r="BJ41" s="27"/>
-      <c r="BK41" s="37"/>
-      <c r="BL41" s="37"/>
-      <c r="BM41" s="37"/>
-      <c r="BN41" s="37"/>
-      <c r="BO41" s="37"/>
+      <c r="BK41" s="14"/>
+      <c r="BL41" s="14"/>
+      <c r="BM41" s="14"/>
+      <c r="BN41" s="14"/>
+      <c r="BO41" s="14"/>
       <c r="BP41" s="27"/>
       <c r="BQ41" s="27"/>
       <c r="BR41" s="14"/>
@@ -7366,7 +7158,7 @@
       <c r="BV41" s="14"/>
       <c r="BW41" s="27"/>
       <c r="BX41" s="27"/>
-      <c r="BY41" s="27"/>
+      <c r="BY41" s="14"/>
       <c r="BZ41" s="14"/>
       <c r="CA41" s="14"/>
       <c r="CB41" s="14"/>
@@ -7376,17 +7168,18 @@
     </row>
     <row r="42" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A42" s="17"/>
-      <c r="B42" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="63">
-        <v>44522</v>
-      </c>
-      <c r="E42" s="63">
-        <v>44522</v>
+      <c r="B42" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="53">
+        <v>45605</v>
+      </c>
+      <c r="E42" s="53">
+        <f>D42+1</f>
+        <v>45606</v>
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="14"/>
@@ -7452,14 +7245,14 @@
       <c r="BO42" s="14"/>
       <c r="BP42" s="27"/>
       <c r="BQ42" s="27"/>
-      <c r="BR42" s="36"/>
+      <c r="BR42" s="14"/>
       <c r="BS42" s="14"/>
       <c r="BT42" s="14"/>
       <c r="BU42" s="14"/>
       <c r="BV42" s="14"/>
       <c r="BW42" s="27"/>
       <c r="BX42" s="27"/>
-      <c r="BY42" s="27"/>
+      <c r="BY42" s="14"/>
       <c r="BZ42" s="14"/>
       <c r="CA42" s="14"/>
       <c r="CB42" s="14"/>
@@ -7469,17 +7262,18 @@
     </row>
     <row r="43" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A43" s="17"/>
-      <c r="B43" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="63">
-        <v>44522</v>
-      </c>
-      <c r="E43" s="63">
-        <v>44522</v>
+      <c r="B43" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="53">
+        <v>45606</v>
+      </c>
+      <c r="E43" s="53">
+        <f>D43+2</f>
+        <v>45608</v>
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="14"/>
@@ -7545,14 +7339,14 @@
       <c r="BO43" s="14"/>
       <c r="BP43" s="27"/>
       <c r="BQ43" s="27"/>
-      <c r="BR43" s="37"/>
+      <c r="BR43" s="14"/>
       <c r="BS43" s="14"/>
       <c r="BT43" s="14"/>
       <c r="BU43" s="14"/>
       <c r="BV43" s="14"/>
       <c r="BW43" s="27"/>
       <c r="BX43" s="27"/>
-      <c r="BY43" s="27"/>
+      <c r="BY43" s="14"/>
       <c r="BZ43" s="14"/>
       <c r="CA43" s="14"/>
       <c r="CB43" s="14"/>
@@ -7562,110 +7356,105 @@
     </row>
     <row r="44" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A44" s="17"/>
-      <c r="B44" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="63">
-        <v>44523</v>
-      </c>
-      <c r="E44" s="63">
-        <v>44523</v>
-      </c>
+      <c r="B44" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="56"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="13"/>
       <c r="F44" s="22"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="27"/>
-      <c r="T44" s="27"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
-      <c r="Y44" s="14"/>
-      <c r="Z44" s="27"/>
-      <c r="AA44" s="27"/>
-      <c r="AB44" s="14"/>
-      <c r="AC44" s="14"/>
-      <c r="AD44" s="14"/>
-      <c r="AE44" s="14"/>
-      <c r="AF44" s="14"/>
-      <c r="AG44" s="27"/>
-      <c r="AH44" s="27"/>
-      <c r="AI44" s="14"/>
-      <c r="AJ44" s="14"/>
-      <c r="AK44" s="14"/>
-      <c r="AL44" s="14"/>
-      <c r="AM44" s="14"/>
-      <c r="AN44" s="27"/>
-      <c r="AO44" s="27"/>
-      <c r="AP44" s="14"/>
-      <c r="AQ44" s="14"/>
-      <c r="AR44" s="14"/>
-      <c r="AS44" s="14"/>
-      <c r="AT44" s="14"/>
-      <c r="AU44" s="27"/>
-      <c r="AV44" s="27"/>
-      <c r="AW44" s="14"/>
-      <c r="AX44" s="14"/>
-      <c r="AY44" s="14"/>
-      <c r="AZ44" s="14"/>
-      <c r="BA44" s="14"/>
-      <c r="BB44" s="27"/>
-      <c r="BC44" s="27"/>
-      <c r="BD44" s="14"/>
-      <c r="BE44" s="14"/>
-      <c r="BF44" s="14"/>
-      <c r="BG44" s="14"/>
-      <c r="BH44" s="14"/>
-      <c r="BI44" s="27"/>
-      <c r="BJ44" s="27"/>
-      <c r="BK44" s="14"/>
-      <c r="BL44" s="14"/>
-      <c r="BM44" s="14"/>
-      <c r="BN44" s="14"/>
-      <c r="BO44" s="14"/>
-      <c r="BP44" s="27"/>
-      <c r="BQ44" s="27"/>
-      <c r="BR44" s="14"/>
-      <c r="BS44" s="36"/>
-      <c r="BT44" s="14"/>
-      <c r="BU44" s="14"/>
-      <c r="BV44" s="14"/>
-      <c r="BW44" s="27"/>
-      <c r="BX44" s="27"/>
-      <c r="BY44" s="27"/>
-      <c r="BZ44" s="14"/>
-      <c r="CA44" s="14"/>
-      <c r="CB44" s="14"/>
-      <c r="CC44" s="14"/>
-      <c r="CD44" s="27"/>
-      <c r="CE44" s="27"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
+      <c r="W44" s="22"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="22"/>
+      <c r="AA44" s="22"/>
+      <c r="AB44" s="22"/>
+      <c r="AC44" s="22"/>
+      <c r="AD44" s="22"/>
+      <c r="AE44" s="22"/>
+      <c r="AF44" s="22"/>
+      <c r="AG44" s="22"/>
+      <c r="AH44" s="22"/>
+      <c r="AI44" s="22"/>
+      <c r="AJ44" s="22"/>
+      <c r="AK44" s="22"/>
+      <c r="AL44" s="22"/>
+      <c r="AM44" s="22"/>
+      <c r="AN44" s="22"/>
+      <c r="AO44" s="22"/>
+      <c r="AP44" s="22"/>
+      <c r="AQ44" s="22"/>
+      <c r="AR44" s="22"/>
+      <c r="AS44" s="22"/>
+      <c r="AT44" s="22"/>
+      <c r="AU44" s="22"/>
+      <c r="AV44" s="22"/>
+      <c r="AW44" s="22"/>
+      <c r="AX44" s="22"/>
+      <c r="AY44" s="22"/>
+      <c r="AZ44" s="22"/>
+      <c r="BA44" s="22"/>
+      <c r="BB44" s="22"/>
+      <c r="BC44" s="22"/>
+      <c r="BD44" s="22"/>
+      <c r="BE44" s="22"/>
+      <c r="BF44" s="22"/>
+      <c r="BG44" s="22"/>
+      <c r="BH44" s="22"/>
+      <c r="BI44" s="22"/>
+      <c r="BJ44" s="22"/>
+      <c r="BK44" s="22"/>
+      <c r="BL44" s="22"/>
+      <c r="BM44" s="22"/>
+      <c r="BN44" s="22"/>
+      <c r="BO44" s="22"/>
+      <c r="BP44" s="22"/>
+      <c r="BQ44" s="22"/>
+      <c r="BR44" s="22"/>
+      <c r="BS44" s="22"/>
+      <c r="BT44" s="22"/>
+      <c r="BU44" s="22"/>
+      <c r="BV44" s="22"/>
+      <c r="BW44" s="22"/>
+      <c r="BX44" s="22"/>
+      <c r="BY44" s="22"/>
+      <c r="BZ44" s="22"/>
+      <c r="CA44" s="22"/>
+      <c r="CB44" s="22"/>
+      <c r="CC44" s="22"/>
+      <c r="CD44" s="22"/>
+      <c r="CE44" s="22"/>
     </row>
     <row r="45" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A45" s="17"/>
-      <c r="B45" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="63">
-        <v>44525</v>
-      </c>
-      <c r="E45" s="63">
-        <v>44525</v>
+      <c r="B45" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="60">
+        <v>45611</v>
+      </c>
+      <c r="E45" s="60">
+        <f>D45+4</f>
+        <v>45615</v>
       </c>
       <c r="F45" s="22"/>
       <c r="G45" s="14"/>
@@ -7734,7 +7523,7 @@
       <c r="BR45" s="14"/>
       <c r="BS45" s="14"/>
       <c r="BT45" s="14"/>
-      <c r="BU45" s="37"/>
+      <c r="BU45" s="14"/>
       <c r="BV45" s="14"/>
       <c r="BW45" s="27"/>
       <c r="BX45" s="27"/>
@@ -7748,17 +7537,18 @@
     </row>
     <row r="46" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A46" s="17"/>
-      <c r="B46" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="63">
-        <v>44524</v>
-      </c>
-      <c r="E46" s="63">
-        <v>44524</v>
+      <c r="B46" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="60">
+        <v>45611</v>
+      </c>
+      <c r="E46" s="60">
+        <f t="shared" ref="E46:E47" si="23">D46+4</f>
+        <v>45615</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="14"/>
@@ -7826,7 +7616,7 @@
       <c r="BQ46" s="27"/>
       <c r="BR46" s="14"/>
       <c r="BS46" s="14"/>
-      <c r="BT46" s="36"/>
+      <c r="BT46" s="14"/>
       <c r="BU46" s="14"/>
       <c r="BV46" s="14"/>
       <c r="BW46" s="27"/>
@@ -7841,17 +7631,18 @@
     </row>
     <row r="47" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A47" s="17"/>
-      <c r="B47" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="63">
-        <v>44524</v>
-      </c>
-      <c r="E47" s="63">
-        <v>44524</v>
+      <c r="B47" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="60">
+        <v>45611</v>
+      </c>
+      <c r="E47" s="60">
+        <f t="shared" si="23"/>
+        <v>45615</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="14"/>
@@ -7919,7 +7710,7 @@
       <c r="BQ47" s="27"/>
       <c r="BR47" s="14"/>
       <c r="BS47" s="14"/>
-      <c r="BT47" s="37"/>
+      <c r="BT47" s="14"/>
       <c r="BU47" s="14"/>
       <c r="BV47" s="14"/>
       <c r="BW47" s="27"/>
@@ -7934,17 +7725,17 @@
     </row>
     <row r="48" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A48" s="17"/>
-      <c r="B48" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="63">
-        <v>44523</v>
-      </c>
-      <c r="E48" s="63">
-        <v>44523</v>
+      <c r="B48" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="60">
+        <v>45618</v>
+      </c>
+      <c r="E48" s="60">
+        <v>45618</v>
       </c>
       <c r="F48" s="22"/>
       <c r="G48" s="14"/>
@@ -8011,7 +7802,7 @@
       <c r="BP48" s="27"/>
       <c r="BQ48" s="27"/>
       <c r="BR48" s="14"/>
-      <c r="BS48" s="38"/>
+      <c r="BS48" s="14"/>
       <c r="BT48" s="14"/>
       <c r="BU48" s="14"/>
       <c r="BV48" s="14"/>
@@ -8027,17 +7818,17 @@
     </row>
     <row r="49" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A49" s="17"/>
-      <c r="B49" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="63">
-        <v>44524</v>
-      </c>
-      <c r="E49" s="63">
-        <v>44524</v>
+      <c r="B49" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="60">
+        <v>45618</v>
+      </c>
+      <c r="E49" s="60">
+        <v>45618</v>
       </c>
       <c r="F49" s="22"/>
       <c r="G49" s="14"/>
@@ -8105,7 +7896,7 @@
       <c r="BQ49" s="27"/>
       <c r="BR49" s="14"/>
       <c r="BS49" s="14"/>
-      <c r="BT49" s="38"/>
+      <c r="BT49" s="14"/>
       <c r="BU49" s="14"/>
       <c r="BV49" s="14"/>
       <c r="BW49" s="27"/>
@@ -8120,17 +7911,17 @@
     </row>
     <row r="50" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A50" s="17"/>
-      <c r="B50" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="63">
-        <v>44525</v>
-      </c>
-      <c r="E50" s="63">
-        <v>44525</v>
+      <c r="B50" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="60">
+        <v>45619</v>
+      </c>
+      <c r="E50" s="60">
+        <v>45619</v>
       </c>
       <c r="F50" s="22"/>
       <c r="G50" s="14"/>
@@ -8199,7 +7990,7 @@
       <c r="BR50" s="14"/>
       <c r="BS50" s="14"/>
       <c r="BT50" s="14"/>
-      <c r="BU50" s="38"/>
+      <c r="BU50" s="14"/>
       <c r="BV50" s="14"/>
       <c r="BW50" s="27"/>
       <c r="BX50" s="27"/>
@@ -8213,105 +8004,651 @@
     </row>
     <row r="51" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A51" s="17"/>
-      <c r="B51" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="23"/>
+      <c r="B51" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="60">
+        <v>45621</v>
+      </c>
+      <c r="E51" s="60">
+        <v>45621</v>
+      </c>
       <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="22"/>
-      <c r="T51" s="22"/>
-      <c r="U51" s="22"/>
-      <c r="V51" s="22"/>
-      <c r="W51" s="22"/>
-      <c r="X51" s="22"/>
-      <c r="Y51" s="22"/>
-      <c r="Z51" s="22"/>
-      <c r="AA51" s="22"/>
-      <c r="AB51" s="22"/>
-      <c r="AC51" s="22"/>
-      <c r="AD51" s="22"/>
-      <c r="AE51" s="22"/>
-      <c r="AF51" s="22"/>
-      <c r="AG51" s="22"/>
-      <c r="AH51" s="22"/>
-      <c r="AI51" s="22"/>
-      <c r="AJ51" s="22"/>
-      <c r="AK51" s="22"/>
-      <c r="AL51" s="22"/>
-      <c r="AM51" s="22"/>
-      <c r="AN51" s="22"/>
-      <c r="AO51" s="22"/>
-      <c r="AP51" s="22"/>
-      <c r="AQ51" s="22"/>
-      <c r="AR51" s="22"/>
-      <c r="AS51" s="22"/>
-      <c r="AT51" s="22"/>
-      <c r="AU51" s="22"/>
-      <c r="AV51" s="22"/>
-      <c r="AW51" s="22"/>
-      <c r="AX51" s="22"/>
-      <c r="AY51" s="22"/>
-      <c r="AZ51" s="22"/>
-      <c r="BA51" s="22"/>
-      <c r="BB51" s="22"/>
-      <c r="BC51" s="22"/>
-      <c r="BD51" s="22"/>
-      <c r="BE51" s="22"/>
-      <c r="BF51" s="22"/>
-      <c r="BG51" s="22"/>
-      <c r="BH51" s="22"/>
-      <c r="BI51" s="22"/>
-      <c r="BJ51" s="22"/>
-      <c r="BK51" s="22"/>
-      <c r="BL51" s="22"/>
-      <c r="BM51" s="22"/>
-      <c r="BN51" s="22"/>
-      <c r="BO51" s="22"/>
-      <c r="BP51" s="22"/>
-      <c r="BQ51" s="22"/>
-      <c r="BR51" s="22"/>
-      <c r="BS51" s="22"/>
-      <c r="BT51" s="22"/>
-      <c r="BU51" s="22"/>
-      <c r="BV51" s="22"/>
-      <c r="BW51" s="22"/>
-      <c r="BX51" s="22"/>
-      <c r="BY51" s="22"/>
-      <c r="BZ51" s="22"/>
-      <c r="CA51" s="22"/>
-      <c r="CB51" s="22"/>
-      <c r="CC51" s="22"/>
-      <c r="CD51" s="22"/>
-      <c r="CE51" s="22"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="27"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="14"/>
+      <c r="W51" s="14"/>
+      <c r="X51" s="14"/>
+      <c r="Y51" s="14"/>
+      <c r="Z51" s="27"/>
+      <c r="AA51" s="27"/>
+      <c r="AB51" s="14"/>
+      <c r="AC51" s="14"/>
+      <c r="AD51" s="14"/>
+      <c r="AE51" s="14"/>
+      <c r="AF51" s="14"/>
+      <c r="AG51" s="27"/>
+      <c r="AH51" s="27"/>
+      <c r="AI51" s="14"/>
+      <c r="AJ51" s="14"/>
+      <c r="AK51" s="14"/>
+      <c r="AL51" s="14"/>
+      <c r="AM51" s="14"/>
+      <c r="AN51" s="27"/>
+      <c r="AO51" s="27"/>
+      <c r="AP51" s="14"/>
+      <c r="AQ51" s="14"/>
+      <c r="AR51" s="14"/>
+      <c r="AS51" s="14"/>
+      <c r="AT51" s="14"/>
+      <c r="AU51" s="27"/>
+      <c r="AV51" s="27"/>
+      <c r="AW51" s="14"/>
+      <c r="AX51" s="14"/>
+      <c r="AY51" s="14"/>
+      <c r="AZ51" s="14"/>
+      <c r="BA51" s="14"/>
+      <c r="BB51" s="27"/>
+      <c r="BC51" s="27"/>
+      <c r="BD51" s="14"/>
+      <c r="BE51" s="14"/>
+      <c r="BF51" s="14"/>
+      <c r="BG51" s="14"/>
+      <c r="BH51" s="14"/>
+      <c r="BI51" s="27"/>
+      <c r="BJ51" s="27"/>
+      <c r="BK51" s="14"/>
+      <c r="BL51" s="14"/>
+      <c r="BM51" s="14"/>
+      <c r="BN51" s="14"/>
+      <c r="BO51" s="14"/>
+      <c r="BP51" s="27"/>
+      <c r="BQ51" s="27"/>
+      <c r="BR51" s="14"/>
+      <c r="BS51" s="14"/>
+      <c r="BT51" s="14"/>
+      <c r="BU51" s="14"/>
+      <c r="BV51" s="14"/>
+      <c r="BW51" s="27"/>
+      <c r="BX51" s="27"/>
+      <c r="BY51" s="27"/>
+      <c r="BZ51" s="14"/>
+      <c r="CA51" s="14"/>
+      <c r="CB51" s="14"/>
+      <c r="CC51" s="14"/>
+      <c r="CD51" s="27"/>
+      <c r="CE51" s="27"/>
     </row>
-    <row r="53" spans="1:83" ht="30" customHeight="1">
-      <c r="C53" s="8"/>
-      <c r="E53" s="18"/>
+    <row r="52" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A52" s="17"/>
+      <c r="B52" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="60">
+        <v>45620</v>
+      </c>
+      <c r="E52" s="60">
+        <v>45620</v>
+      </c>
+      <c r="F52" s="22"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="27"/>
+      <c r="T52" s="27"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="14"/>
+      <c r="W52" s="14"/>
+      <c r="X52" s="14"/>
+      <c r="Y52" s="14"/>
+      <c r="Z52" s="27"/>
+      <c r="AA52" s="27"/>
+      <c r="AB52" s="14"/>
+      <c r="AC52" s="14"/>
+      <c r="AD52" s="14"/>
+      <c r="AE52" s="14"/>
+      <c r="AF52" s="14"/>
+      <c r="AG52" s="27"/>
+      <c r="AH52" s="27"/>
+      <c r="AI52" s="14"/>
+      <c r="AJ52" s="14"/>
+      <c r="AK52" s="14"/>
+      <c r="AL52" s="14"/>
+      <c r="AM52" s="14"/>
+      <c r="AN52" s="27"/>
+      <c r="AO52" s="27"/>
+      <c r="AP52" s="14"/>
+      <c r="AQ52" s="14"/>
+      <c r="AR52" s="14"/>
+      <c r="AS52" s="14"/>
+      <c r="AT52" s="14"/>
+      <c r="AU52" s="27"/>
+      <c r="AV52" s="27"/>
+      <c r="AW52" s="14"/>
+      <c r="AX52" s="14"/>
+      <c r="AY52" s="14"/>
+      <c r="AZ52" s="14"/>
+      <c r="BA52" s="14"/>
+      <c r="BB52" s="27"/>
+      <c r="BC52" s="27"/>
+      <c r="BD52" s="14"/>
+      <c r="BE52" s="14"/>
+      <c r="BF52" s="14"/>
+      <c r="BG52" s="14"/>
+      <c r="BH52" s="14"/>
+      <c r="BI52" s="27"/>
+      <c r="BJ52" s="27"/>
+      <c r="BK52" s="14"/>
+      <c r="BL52" s="14"/>
+      <c r="BM52" s="14"/>
+      <c r="BN52" s="14"/>
+      <c r="BO52" s="14"/>
+      <c r="BP52" s="27"/>
+      <c r="BQ52" s="27"/>
+      <c r="BR52" s="14"/>
+      <c r="BS52" s="14"/>
+      <c r="BT52" s="14"/>
+      <c r="BU52" s="14"/>
+      <c r="BV52" s="14"/>
+      <c r="BW52" s="27"/>
+      <c r="BX52" s="27"/>
+      <c r="BY52" s="27"/>
+      <c r="BZ52" s="14"/>
+      <c r="CA52" s="14"/>
+      <c r="CB52" s="14"/>
+      <c r="CC52" s="14"/>
+      <c r="CD52" s="27"/>
+      <c r="CE52" s="27"/>
     </row>
-    <row r="54" spans="1:83" ht="30" customHeight="1">
-      <c r="C54" s="9"/>
+    <row r="53" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A53" s="17"/>
+      <c r="B53" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="60">
+        <v>45620</v>
+      </c>
+      <c r="E53" s="60">
+        <v>45620</v>
+      </c>
+      <c r="F53" s="22"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="27"/>
+      <c r="T53" s="27"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="14"/>
+      <c r="W53" s="14"/>
+      <c r="X53" s="14"/>
+      <c r="Y53" s="14"/>
+      <c r="Z53" s="27"/>
+      <c r="AA53" s="27"/>
+      <c r="AB53" s="14"/>
+      <c r="AC53" s="14"/>
+      <c r="AD53" s="14"/>
+      <c r="AE53" s="14"/>
+      <c r="AF53" s="14"/>
+      <c r="AG53" s="27"/>
+      <c r="AH53" s="27"/>
+      <c r="AI53" s="14"/>
+      <c r="AJ53" s="14"/>
+      <c r="AK53" s="14"/>
+      <c r="AL53" s="14"/>
+      <c r="AM53" s="14"/>
+      <c r="AN53" s="27"/>
+      <c r="AO53" s="27"/>
+      <c r="AP53" s="14"/>
+      <c r="AQ53" s="14"/>
+      <c r="AR53" s="14"/>
+      <c r="AS53" s="14"/>
+      <c r="AT53" s="14"/>
+      <c r="AU53" s="27"/>
+      <c r="AV53" s="27"/>
+      <c r="AW53" s="14"/>
+      <c r="AX53" s="14"/>
+      <c r="AY53" s="14"/>
+      <c r="AZ53" s="14"/>
+      <c r="BA53" s="14"/>
+      <c r="BB53" s="27"/>
+      <c r="BC53" s="27"/>
+      <c r="BD53" s="14"/>
+      <c r="BE53" s="14"/>
+      <c r="BF53" s="14"/>
+      <c r="BG53" s="14"/>
+      <c r="BH53" s="14"/>
+      <c r="BI53" s="27"/>
+      <c r="BJ53" s="27"/>
+      <c r="BK53" s="14"/>
+      <c r="BL53" s="14"/>
+      <c r="BM53" s="14"/>
+      <c r="BN53" s="14"/>
+      <c r="BO53" s="14"/>
+      <c r="BP53" s="27"/>
+      <c r="BQ53" s="27"/>
+      <c r="BR53" s="14"/>
+      <c r="BS53" s="14"/>
+      <c r="BT53" s="14"/>
+      <c r="BU53" s="14"/>
+      <c r="BV53" s="14"/>
+      <c r="BW53" s="27"/>
+      <c r="BX53" s="27"/>
+      <c r="BY53" s="27"/>
+      <c r="BZ53" s="14"/>
+      <c r="CA53" s="14"/>
+      <c r="CB53" s="14"/>
+      <c r="CC53" s="14"/>
+      <c r="CD53" s="27"/>
+      <c r="CE53" s="27"/>
+    </row>
+    <row r="54" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A54" s="17"/>
+      <c r="B54" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="60">
+        <v>45621</v>
+      </c>
+      <c r="E54" s="60">
+        <f>D54+1</f>
+        <v>45622</v>
+      </c>
+      <c r="F54" s="22"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="27"/>
+      <c r="T54" s="27"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="14"/>
+      <c r="W54" s="14"/>
+      <c r="X54" s="14"/>
+      <c r="Y54" s="14"/>
+      <c r="Z54" s="27"/>
+      <c r="AA54" s="27"/>
+      <c r="AB54" s="14"/>
+      <c r="AC54" s="14"/>
+      <c r="AD54" s="14"/>
+      <c r="AE54" s="14"/>
+      <c r="AF54" s="14"/>
+      <c r="AG54" s="27"/>
+      <c r="AH54" s="27"/>
+      <c r="AI54" s="14"/>
+      <c r="AJ54" s="14"/>
+      <c r="AK54" s="14"/>
+      <c r="AL54" s="14"/>
+      <c r="AM54" s="14"/>
+      <c r="AN54" s="27"/>
+      <c r="AO54" s="27"/>
+      <c r="AP54" s="14"/>
+      <c r="AQ54" s="14"/>
+      <c r="AR54" s="14"/>
+      <c r="AS54" s="14"/>
+      <c r="AT54" s="14"/>
+      <c r="AU54" s="27"/>
+      <c r="AV54" s="27"/>
+      <c r="AW54" s="14"/>
+      <c r="AX54" s="14"/>
+      <c r="AY54" s="14"/>
+      <c r="AZ54" s="14"/>
+      <c r="BA54" s="14"/>
+      <c r="BB54" s="27"/>
+      <c r="BC54" s="27"/>
+      <c r="BD54" s="14"/>
+      <c r="BE54" s="14"/>
+      <c r="BF54" s="14"/>
+      <c r="BG54" s="14"/>
+      <c r="BH54" s="14"/>
+      <c r="BI54" s="27"/>
+      <c r="BJ54" s="27"/>
+      <c r="BK54" s="14"/>
+      <c r="BL54" s="14"/>
+      <c r="BM54" s="14"/>
+      <c r="BN54" s="14"/>
+      <c r="BO54" s="14"/>
+      <c r="BP54" s="27"/>
+      <c r="BQ54" s="27"/>
+      <c r="BR54" s="14"/>
+      <c r="BS54" s="14"/>
+      <c r="BT54" s="14"/>
+      <c r="BU54" s="14"/>
+      <c r="BV54" s="14"/>
+      <c r="BW54" s="27"/>
+      <c r="BX54" s="27"/>
+      <c r="BY54" s="27"/>
+      <c r="BZ54" s="14"/>
+      <c r="CA54" s="14"/>
+      <c r="CB54" s="14"/>
+      <c r="CC54" s="14"/>
+      <c r="CD54" s="27"/>
+      <c r="CE54" s="27"/>
+    </row>
+    <row r="55" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A55" s="17"/>
+      <c r="B55" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="60">
+        <v>45623</v>
+      </c>
+      <c r="E55" s="60">
+        <v>45623</v>
+      </c>
+      <c r="F55" s="22"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="27"/>
+      <c r="T55" s="27"/>
+      <c r="U55" s="14"/>
+      <c r="V55" s="14"/>
+      <c r="W55" s="14"/>
+      <c r="X55" s="14"/>
+      <c r="Y55" s="14"/>
+      <c r="Z55" s="27"/>
+      <c r="AA55" s="27"/>
+      <c r="AB55" s="14"/>
+      <c r="AC55" s="14"/>
+      <c r="AD55" s="14"/>
+      <c r="AE55" s="14"/>
+      <c r="AF55" s="14"/>
+      <c r="AG55" s="27"/>
+      <c r="AH55" s="27"/>
+      <c r="AI55" s="14"/>
+      <c r="AJ55" s="14"/>
+      <c r="AK55" s="14"/>
+      <c r="AL55" s="14"/>
+      <c r="AM55" s="14"/>
+      <c r="AN55" s="27"/>
+      <c r="AO55" s="27"/>
+      <c r="AP55" s="14"/>
+      <c r="AQ55" s="14"/>
+      <c r="AR55" s="14"/>
+      <c r="AS55" s="14"/>
+      <c r="AT55" s="14"/>
+      <c r="AU55" s="27"/>
+      <c r="AV55" s="27"/>
+      <c r="AW55" s="14"/>
+      <c r="AX55" s="14"/>
+      <c r="AY55" s="14"/>
+      <c r="AZ55" s="14"/>
+      <c r="BA55" s="14"/>
+      <c r="BB55" s="27"/>
+      <c r="BC55" s="27"/>
+      <c r="BD55" s="14"/>
+      <c r="BE55" s="14"/>
+      <c r="BF55" s="14"/>
+      <c r="BG55" s="14"/>
+      <c r="BH55" s="14"/>
+      <c r="BI55" s="27"/>
+      <c r="BJ55" s="27"/>
+      <c r="BK55" s="14"/>
+      <c r="BL55" s="14"/>
+      <c r="BM55" s="14"/>
+      <c r="BN55" s="14"/>
+      <c r="BO55" s="14"/>
+      <c r="BP55" s="27"/>
+      <c r="BQ55" s="27"/>
+      <c r="BR55" s="14"/>
+      <c r="BS55" s="14"/>
+      <c r="BT55" s="14"/>
+      <c r="BU55" s="14"/>
+      <c r="BV55" s="14"/>
+      <c r="BW55" s="27"/>
+      <c r="BX55" s="27"/>
+      <c r="BY55" s="27"/>
+      <c r="BZ55" s="14"/>
+      <c r="CA55" s="14"/>
+      <c r="CB55" s="14"/>
+      <c r="CC55" s="14"/>
+      <c r="CD55" s="27"/>
+      <c r="CE55" s="27"/>
+    </row>
+    <row r="56" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A56" s="17"/>
+      <c r="B56" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="62"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="22"/>
+      <c r="Z56" s="22"/>
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="22"/>
+      <c r="AC56" s="22"/>
+      <c r="AD56" s="22"/>
+      <c r="AE56" s="22"/>
+      <c r="AF56" s="22"/>
+      <c r="AG56" s="22"/>
+      <c r="AH56" s="22"/>
+      <c r="AI56" s="22"/>
+      <c r="AJ56" s="22"/>
+      <c r="AK56" s="22"/>
+      <c r="AL56" s="22"/>
+      <c r="AM56" s="22"/>
+      <c r="AN56" s="22"/>
+      <c r="AO56" s="22"/>
+      <c r="AP56" s="22"/>
+      <c r="AQ56" s="22"/>
+      <c r="AR56" s="22"/>
+      <c r="AS56" s="22"/>
+      <c r="AT56" s="22"/>
+      <c r="AU56" s="22"/>
+      <c r="AV56" s="22"/>
+      <c r="AW56" s="22"/>
+      <c r="AX56" s="22"/>
+      <c r="AY56" s="22"/>
+      <c r="AZ56" s="22"/>
+      <c r="BA56" s="22"/>
+      <c r="BB56" s="22"/>
+      <c r="BC56" s="22"/>
+      <c r="BD56" s="22"/>
+      <c r="BE56" s="22"/>
+      <c r="BF56" s="22"/>
+      <c r="BG56" s="22"/>
+      <c r="BH56" s="22"/>
+      <c r="BI56" s="22"/>
+      <c r="BJ56" s="22"/>
+      <c r="BK56" s="22"/>
+      <c r="BL56" s="22"/>
+      <c r="BM56" s="22"/>
+      <c r="BN56" s="22"/>
+      <c r="BO56" s="22"/>
+      <c r="BP56" s="22"/>
+      <c r="BQ56" s="22"/>
+      <c r="BR56" s="22"/>
+      <c r="BS56" s="22"/>
+      <c r="BT56" s="22"/>
+      <c r="BU56" s="22"/>
+      <c r="BV56" s="22"/>
+      <c r="BW56" s="22"/>
+      <c r="BX56" s="22"/>
+      <c r="BY56" s="22"/>
+      <c r="BZ56" s="22"/>
+      <c r="CA56" s="22"/>
+      <c r="CB56" s="22"/>
+      <c r="CC56" s="22"/>
+      <c r="CD56" s="22"/>
+      <c r="CE56" s="22"/>
+    </row>
+    <row r="57" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A57" s="17"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57" s="4"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+      <c r="AE57"/>
+      <c r="AF57"/>
+      <c r="AG57"/>
+      <c r="AH57"/>
+      <c r="AI57"/>
+      <c r="AJ57"/>
+      <c r="AK57"/>
+      <c r="AL57"/>
+      <c r="AM57"/>
+      <c r="AN57"/>
+      <c r="AO57"/>
+      <c r="AP57"/>
+      <c r="AQ57"/>
+      <c r="AR57"/>
+      <c r="AS57"/>
+      <c r="AT57"/>
+      <c r="AU57"/>
+      <c r="AV57"/>
+      <c r="AW57"/>
+      <c r="AX57"/>
+      <c r="AY57"/>
+      <c r="AZ57"/>
+      <c r="BA57"/>
+      <c r="BB57"/>
+      <c r="BC57"/>
+      <c r="BD57"/>
+      <c r="BE57"/>
+      <c r="BF57"/>
+      <c r="BG57"/>
+      <c r="BH57"/>
+      <c r="BI57"/>
+      <c r="BJ57"/>
+      <c r="BK57"/>
+      <c r="BL57"/>
+      <c r="BM57"/>
+      <c r="BN57"/>
+      <c r="BO57"/>
+      <c r="BP57"/>
+      <c r="BQ57"/>
+      <c r="BR57"/>
+      <c r="BS57"/>
+      <c r="BT57"/>
+      <c r="BU57"/>
+      <c r="BV57"/>
+      <c r="BW57"/>
+      <c r="BX57"/>
+      <c r="BY57"/>
+      <c r="BZ57"/>
+      <c r="CA57"/>
+      <c r="CB57"/>
+      <c r="CC57"/>
+      <c r="CD57"/>
+      <c r="CE57"/>
+    </row>
+    <row r="59" spans="1:83" ht="30" customHeight="1">
+      <c r="C59" s="8"/>
+      <c r="E59" s="18"/>
+    </row>
+    <row r="60" spans="1:83" ht="30" customHeight="1">
+      <c r="C60" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AV4"/>
@@ -8321,214 +8658,827 @@
     <mergeCell ref="U4:AA4"/>
     <mergeCell ref="AB4:AH4"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="G10:R51 AN30:AT51 AW37:BA51 U39:AM51 BY39:CC51 BD51:BX51">
-    <cfRule type="expression" dxfId="105" priority="16">
+  <conditionalFormatting sqref="G7:R9">
+    <cfRule type="expression" dxfId="192" priority="158" stopIfTrue="1">
+      <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="191" priority="159">
+      <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN31:AT56 U45:AM56 G10:R56 AW43:BA56 U55:AT56 BY45:CC56 BD56:BX56 AP22:AT25 AP27:AT27">
+    <cfRule type="expression" dxfId="190" priority="165">
+      <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:T56 AP22:AT25 AP27:AT27">
+    <cfRule type="expression" dxfId="189" priority="157">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="17" stopIfTrue="1">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:BW6 BY6:CD6 AG7:AH44 AP19:AT20 AW24:BA26 AP27:AR27 AW29:BA30 BD45:BJ47 BP45:BX47 BD48:BQ49 BS48:BX49 BD51:BT51 BV51:BX51 BD52:BS53 BU52:BX53 BD54:BR54 BT54:BX54 S7:T56 CD7:CE56 BD55:BT56 BV55:BX56 BD50:BX50">
+    <cfRule type="expression" dxfId="188" priority="302">
+      <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:BW6 BY6:CD6 AP19:AT20 BD45:BJ47 BP45:BX47 BD48:BQ49 BS48:BX49 BD51:BT51 BV51:BX51 BD52:BS53 BU52:BX53 BD54:BR54 BT54:BX54 AG7:AH44 CD7:CE56 BD55:BT56 BV55:BX56 S7:T56 AP22:AT25 AP27:AT28 AP30:AT30 AW23:BA31 AW33:BA41 BD50:BX50">
+    <cfRule type="expression" dxfId="187" priority="297" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="18">
-      <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:BW6 BY6:CD6 G7:R7 AG7:AH38 S7:T51 CD7:CE51 Q8:R8 AS19:AT19 AI20:AJ20 AP20:AT21 AI21 AM21 AP22:AR22 AP23:AT23 AZ23:BA23 AT24 AW24:BA26 AP25:AR25 AP26 AP27:AR27 AX27:BA27 AW28:BA29 AR29:AT29 AW30 AY32:BA32 AW33:AW34 AW35:AZ35 BD39:BJ41 BP39:BX41 BD42:BQ43 BS42:BX43 BD44:BR44 BT44:BX44 BD45:BT45 BV45:BX45 BD46:BS47 BU46:BX47 BD48:BR48 BT48:BX48 BD49:BS49 BU49:BX49 BD50:BT50 BV50:BX50 G8:P9">
-    <cfRule type="expression" dxfId="102" priority="155">
-      <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:BW6 BY6:CD6 G7:R7 AG7:AH38 S7:T51 CD7:CE51 Q8:R8 AS19:AT19 AI20:AJ20 AP20:AT21 AI21 AM21 AP22:AR22 AP23:AT23 AZ23:BA23 AT24 AW24:BA26 AP25:AR25 AP26 AP27:AR27 AX27:BA27 AW28:BA29 AR29:AT29 AW30 AY32:BA32 AW33:AW34 AW35:AZ35 BD39:BJ41 BP39:BX41 BD42:BQ43 BS42:BX43 BD44:BR44 BT44:BX44 BD45:BT45 BV45:BX45 BD46:BS47 BU46:BX47 BD48:BR48 BT48:BX48 BD49:BS49 BU49:BX49 BD50:BT50 BV50:BX50 G8:P9">
-    <cfRule type="expression" dxfId="53" priority="150" stopIfTrue="1">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:CE6 AP19:AT20 AW24:BA26 AP27:AR27 AW29:BA30 BD45:BJ47 BP45:BX47 BD48:BQ49 BS48:BX49 BD51:BT51 BV51:BX51 BD52:BS53 BU52:BX53 BD54:BR54 BT54:BX54 CD7:CE56 BD55:BT56 BV55:BX56 BD50:BX50">
+    <cfRule type="expression" dxfId="186" priority="296">
+      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U7:Y43">
+    <cfRule type="expression" dxfId="185" priority="155" stopIfTrue="1">
+      <formula>AND(task_end&gt;=U$5,task_start&lt;V$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="156">
+      <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U7:AH44">
+    <cfRule type="expression" dxfId="183" priority="148">
+      <formula>AND(task_start&lt;=U$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=U$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z7:AA15">
+    <cfRule type="expression" dxfId="182" priority="210" stopIfTrue="1">
+      <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="181" priority="211">
+      <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z16:AA16">
+    <cfRule type="expression" dxfId="180" priority="149" stopIfTrue="1">
+      <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="179" priority="150">
+      <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z17:AA43">
+    <cfRule type="expression" dxfId="178" priority="176" stopIfTrue="1">
+      <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="177" priority="177">
+      <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB7:AF44">
+    <cfRule type="expression" dxfId="176" priority="152" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AB$5,task_start&lt;AC$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="175" priority="153">
+      <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;AC$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI7:AM19">
+    <cfRule type="expression" dxfId="174" priority="239">
+      <formula>AND(task_start&lt;=AI$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AI$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="173" priority="240" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AI$5,task_start&lt;AJ$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="241">
+      <formula>AND(TODAY()&gt;=AI$5,TODAY()&lt;AJ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI22:AM44 U44:AA44">
+    <cfRule type="expression" dxfId="171" priority="234" stopIfTrue="1">
+      <formula>AND(task_end&gt;=U$5,task_start&lt;V$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="235">
+      <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI22:AM44">
+    <cfRule type="expression" dxfId="169" priority="233">
+      <formula>AND(task_start&lt;=AI$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AI$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN7:AT18 AN21:AO29">
+    <cfRule type="expression" dxfId="168" priority="203">
+      <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="167" priority="204" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AN$5,task_start&lt;AO$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="205">
+      <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN31:AT56 U45:AM56 AW43:BA56 U55:AT56 BY45:CC56 BD56:BX56 G10:R56">
+    <cfRule type="expression" dxfId="165" priority="164" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:CE6 G7:R7 AG7:AH38 S7:T51 CD7:CE51 Q8:R8 AS19:AT19 AI20:AJ20 AP20:AT21 AI21 AM21 AP22:AR22 AP23:AT23 AZ23:BA23 AT24 AW24:BA26 AP25:AR25 AP26 AP27:AR27 AX27:BA27 AW28:BA29 AR29:AT29 AW30 AY32:BA32 AW33:AW34 AW35:AZ35 BD39:BJ41 BP39:BX41 BD42:BQ43 BS42:BX43 BD44:BR44 BT44:BX44 BD45:BT45 BV45:BX45 BD46:BS47 BU46:BX47 BD48:BR48 BT48:BX48 BD49:BS49 BU49:BX49 BD50:BT50 BV50:BX50 G8:P9">
-    <cfRule type="expression" dxfId="101" priority="149">
-      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U7:Y10 AB7:AF10">
-    <cfRule type="expression" dxfId="100" priority="104">
+  <conditionalFormatting sqref="AN31:AT56 U45:AM56 AW43:BA56 U55:AT56 BY45:CC56 BD56:BX56">
+    <cfRule type="expression" dxfId="164" priority="163">
       <formula>AND(task_start&lt;=U$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=U$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="105" stopIfTrue="1">
-      <formula>AND(task_end&gt;=U$5,task_start&lt;V$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="106">
-      <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z7:AA15">
-    <cfRule type="expression" dxfId="97" priority="62">
-      <formula>AND(task_start&lt;=Z$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Z$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="63" stopIfTrue="1">
-      <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="64">
-      <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z17:AA37">
-    <cfRule type="expression" dxfId="94" priority="28">
-      <formula>AND(task_start&lt;=Z$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Z$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="29" stopIfTrue="1">
-      <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="30">
-      <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB18:AF38 AI22:AM38 U38:AA38">
-    <cfRule type="expression" dxfId="91" priority="86">
-      <formula>AND(task_start&lt;=U$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=U$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="87" stopIfTrue="1">
-      <formula>AND(task_end&gt;=U$5,task_start&lt;V$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="88">
-      <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI7:AM19">
-    <cfRule type="expression" dxfId="88" priority="92">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU23:AV24 AU26:AV26 AU29:AV32">
+    <cfRule type="expression" dxfId="163" priority="200">
+      <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="201" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="202">
+      <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU34:AV56">
+    <cfRule type="expression" dxfId="160" priority="169">
+      <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="170" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="171">
+      <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU7:BC21 BB23:BC34 BB43">
+    <cfRule type="expression" dxfId="157" priority="197">
+      <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="198" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="155" priority="199">
+      <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB44:BC56">
+    <cfRule type="expression" dxfId="154" priority="160">
+      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="161" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="162">
+      <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD7:CC44">
+    <cfRule type="expression" dxfId="151" priority="227">
+      <formula>AND(task_start&lt;=BD$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BD$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="228" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BD$5,task_start&lt;BE$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="149" priority="229">
+      <formula>AND(TODAY()&gt;=BD$5,TODAY()&lt;BE$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BX6 CE6">
+    <cfRule type="expression" dxfId="148" priority="308" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BX$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BY5:CE5 BX5:BX6 CE6">
+    <cfRule type="expression" dxfId="147" priority="304">
+      <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI21:AM21">
+    <cfRule type="expression" dxfId="146" priority="146" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AI$5,task_start&lt;AJ$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="147">
+      <formula>AND(TODAY()&gt;=AI$5,TODAY()&lt;AJ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI21:AM21">
+    <cfRule type="expression" dxfId="144" priority="145">
       <formula>AND(task_start&lt;=AI$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AI$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="93" stopIfTrue="1">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI19:AM19">
+    <cfRule type="expression" dxfId="143" priority="143" stopIfTrue="1">
       <formula>AND(task_end&gt;=AI$5,task_start&lt;AJ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="94">
+    <cfRule type="expression" dxfId="142" priority="144">
       <formula>AND(TODAY()&gt;=AI$5,TODAY()&lt;AJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN7:AT18 AO20 AN21:AO28 AN29">
-    <cfRule type="expression" dxfId="85" priority="56">
+  <conditionalFormatting sqref="AI19:AM19">
+    <cfRule type="expression" dxfId="141" priority="142">
+      <formula>AND(task_start&lt;=AI$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AI$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP21:AT21">
+    <cfRule type="expression" dxfId="140" priority="141">
+      <formula>AND(TODAY()&gt;=AP$5,TODAY()&lt;AQ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP21:AT21">
+    <cfRule type="expression" dxfId="139" priority="140" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AP$5,task_start&lt;AQ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP21:AT21">
+    <cfRule type="expression" dxfId="138" priority="139">
+      <formula>AND(task_start&lt;=AP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AP$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP26:AT26">
+    <cfRule type="expression" dxfId="137" priority="137">
+      <formula>AND(TODAY()&gt;=AP$5,TODAY()&lt;AQ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP26:AT26">
+    <cfRule type="expression" dxfId="136" priority="136">
+      <formula>AND(task_start&lt;=AP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AP$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP26:AT26">
+    <cfRule type="expression" dxfId="135" priority="138" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AP$5,task_start&lt;AQ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP28:AT28">
+    <cfRule type="expression" dxfId="134" priority="135">
+      <formula>AND(TODAY()&gt;=AP$5,TODAY()&lt;AQ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP28:AT28">
+    <cfRule type="expression" dxfId="133" priority="134">
+      <formula>AND(task_start&lt;=AP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AP$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP29:AT29">
+    <cfRule type="expression" dxfId="132" priority="132">
+      <formula>AND(TODAY()&gt;=AP$5,TODAY()&lt;AQ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP29:AT29">
+    <cfRule type="expression" dxfId="131" priority="131">
+      <formula>AND(task_start&lt;=AP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AP$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP29:AT29">
+    <cfRule type="expression" dxfId="130" priority="133" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AP$5,task_start&lt;AQ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP30:AT30">
+    <cfRule type="expression" dxfId="129" priority="130">
+      <formula>AND(TODAY()&gt;=AP$5,TODAY()&lt;AQ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP30:AT30">
+    <cfRule type="expression" dxfId="128" priority="129">
+      <formula>AND(task_start&lt;=AP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AP$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW22:BA22">
+    <cfRule type="expression" dxfId="127" priority="127">
+      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW22:BA22">
+    <cfRule type="expression" dxfId="126" priority="126">
+      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW22:BA22">
+    <cfRule type="expression" dxfId="125" priority="128" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AW$5,task_start&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW23:BA23">
+    <cfRule type="expression" dxfId="124" priority="125">
+      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW23:BA23">
+    <cfRule type="expression" dxfId="123" priority="124">
+      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW27:BA27">
+    <cfRule type="expression" dxfId="122" priority="123">
+      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW27:BA27">
+    <cfRule type="expression" dxfId="121" priority="122">
+      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW28:BA28">
+    <cfRule type="expression" dxfId="120" priority="121">
+      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW28:BA28">
+    <cfRule type="expression" dxfId="119" priority="120">
+      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW31:BA31">
+    <cfRule type="expression" dxfId="118" priority="119">
+      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW31:BA31">
+    <cfRule type="expression" dxfId="117" priority="118">
+      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW32:BA32">
+    <cfRule type="expression" dxfId="116" priority="117" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AW$5,task_start&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW32:BA32">
+    <cfRule type="expression" dxfId="115" priority="116">
+      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW32:BA32">
+    <cfRule type="expression" dxfId="114" priority="115">
+      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW33:BA33">
+    <cfRule type="expression" dxfId="113" priority="114">
+      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW33:BA33">
+    <cfRule type="expression" dxfId="112" priority="113">
+      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW34:BA34">
+    <cfRule type="expression" dxfId="111" priority="112">
+      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW34:BA34">
+    <cfRule type="expression" dxfId="110" priority="111">
+      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW35:BA35">
+    <cfRule type="expression" dxfId="109" priority="110">
+      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW35:BA35">
+    <cfRule type="expression" dxfId="108" priority="109">
+      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW36:BA36">
+    <cfRule type="expression" dxfId="107" priority="108">
+      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW36:BA36">
+    <cfRule type="expression" dxfId="106" priority="107">
+      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW37:BA37">
+    <cfRule type="expression" dxfId="105" priority="106">
+      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW37:BA37">
+    <cfRule type="expression" dxfId="104" priority="105">
+      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW38:BA38">
+    <cfRule type="expression" dxfId="103" priority="104">
+      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW38:BA38">
+    <cfRule type="expression" dxfId="102" priority="103">
+      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW39:BA39">
+    <cfRule type="expression" dxfId="101" priority="102">
+      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW39:BA39">
+    <cfRule type="expression" dxfId="100" priority="101">
+      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW40:BA40">
+    <cfRule type="expression" dxfId="99" priority="100">
+      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW40:BA40">
+    <cfRule type="expression" dxfId="98" priority="99">
+      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW41:BA41">
+    <cfRule type="expression" dxfId="97" priority="98">
+      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW41:BA41">
+    <cfRule type="expression" dxfId="96" priority="97">
+      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW42:BA42">
+    <cfRule type="expression" dxfId="95" priority="96" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AW$5,task_start&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW42:BA42">
+    <cfRule type="expression" dxfId="94" priority="95">
+      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW42:BA42">
+    <cfRule type="expression" dxfId="93" priority="94">
+      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK45:BO45">
+    <cfRule type="expression" dxfId="92" priority="93" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BK$5,task_start&lt;BL$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK45:BO45">
+    <cfRule type="expression" dxfId="91" priority="92">
+      <formula>AND(TODAY()&gt;=BK$5,TODAY()&lt;BL$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK45:BO45">
+    <cfRule type="expression" dxfId="90" priority="91">
+      <formula>AND(task_start&lt;=BK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BK$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK46:BO46">
+    <cfRule type="expression" dxfId="89" priority="90" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BK$5,task_start&lt;BL$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK46:BO46">
+    <cfRule type="expression" dxfId="88" priority="89">
+      <formula>AND(TODAY()&gt;=BK$5,TODAY()&lt;BL$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK46:BO46">
+    <cfRule type="expression" dxfId="87" priority="88">
+      <formula>AND(task_start&lt;=BK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BK$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK47:BO47">
+    <cfRule type="expression" dxfId="86" priority="87" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BK$5,task_start&lt;BL$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK47:BO47">
+    <cfRule type="expression" dxfId="85" priority="86">
+      <formula>AND(TODAY()&gt;=BK$5,TODAY()&lt;BL$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK47:BO47">
+    <cfRule type="expression" dxfId="84" priority="85">
+      <formula>AND(task_start&lt;=BK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BK$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR48">
+    <cfRule type="expression" dxfId="83" priority="84">
+      <formula>AND(TODAY()&gt;=BR$5,TODAY()&lt;BS$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR48">
+    <cfRule type="expression" dxfId="82" priority="83" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BR$5,task_start&lt;BS$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR48">
+    <cfRule type="expression" dxfId="81" priority="82">
+      <formula>AND(task_start&lt;=BR$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BR$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR49">
+    <cfRule type="expression" dxfId="80" priority="81">
+      <formula>AND(TODAY()&gt;=BR$5,TODAY()&lt;BS$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR49">
+    <cfRule type="expression" dxfId="79" priority="80" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BR$5,task_start&lt;BS$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR49">
+    <cfRule type="expression" dxfId="78" priority="79">
+      <formula>AND(task_start&lt;=BR$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BR$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU55">
+    <cfRule type="expression" dxfId="77" priority="78">
+      <formula>AND(TODAY()&gt;=BU$5,TODAY()&lt;BV$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU55">
+    <cfRule type="expression" dxfId="76" priority="77" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BU$5,task_start&lt;BV$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU55">
+    <cfRule type="expression" dxfId="75" priority="76">
+      <formula>AND(task_start&lt;=BU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BU$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS54">
+    <cfRule type="expression" dxfId="74" priority="75">
+      <formula>AND(TODAY()&gt;=BS$5,TODAY()&lt;BT$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS54">
+    <cfRule type="expression" dxfId="73" priority="74" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BS$5,task_start&lt;BT$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS54">
+    <cfRule type="expression" dxfId="72" priority="73">
+      <formula>AND(task_start&lt;=BS$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BS$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BT53">
+    <cfRule type="expression" dxfId="71" priority="72">
+      <formula>AND(TODAY()&gt;=BT$5,TODAY()&lt;BU$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BT53">
+    <cfRule type="expression" dxfId="70" priority="71" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BT$5,task_start&lt;BU$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BT53">
+    <cfRule type="expression" dxfId="69" priority="70">
+      <formula>AND(task_start&lt;=BT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BT$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BT52">
+    <cfRule type="expression" dxfId="65" priority="66">
+      <formula>AND(TODAY()&gt;=BT$5,TODAY()&lt;BU$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BT52">
+    <cfRule type="expression" dxfId="64" priority="65" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BT$5,task_start&lt;BU$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BT52">
+    <cfRule type="expression" dxfId="63" priority="64">
+      <formula>AND(task_start&lt;=BT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BT$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU51">
+    <cfRule type="expression" dxfId="62" priority="63">
+      <formula>AND(TODAY()&gt;=BU$5,TODAY()&lt;BV$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU51">
+    <cfRule type="expression" dxfId="61" priority="62" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BU$5,task_start&lt;BV$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU51">
+    <cfRule type="expression" dxfId="60" priority="61">
+      <formula>AND(task_start&lt;=BU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BU$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC43">
+    <cfRule type="expression" dxfId="59" priority="58">
+      <formula>AND(task_start&lt;=BC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BC$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="59" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BC$5,task_start&lt;BD$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="60">
+      <formula>AND(TODAY()&gt;=BC$5,TODAY()&lt;BD$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB42:BC42">
+    <cfRule type="expression" dxfId="56" priority="55">
+      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="56" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="57">
+      <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB40:BC40">
+    <cfRule type="expression" dxfId="53" priority="52">
+      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="53" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="54">
+      <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB41:BC41">
+    <cfRule type="expression" dxfId="50" priority="49">
+      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="50" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="51">
+      <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB39:BC39">
+    <cfRule type="expression" dxfId="47" priority="46">
+      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="48">
+      <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB38:BC38">
+    <cfRule type="expression" dxfId="44" priority="43">
+      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="44" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="45">
+      <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB37:BC37">
+    <cfRule type="expression" dxfId="41" priority="40">
+      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="42">
+      <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB36:BC36">
+    <cfRule type="expression" dxfId="38" priority="37">
+      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="39">
+      <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB35:BC35">
+    <cfRule type="expression" dxfId="35" priority="34">
+      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="35" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="36">
+      <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU33:AV33">
+    <cfRule type="expression" dxfId="32" priority="31">
+      <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="33">
+      <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN30:AO30">
+    <cfRule type="expression" dxfId="29" priority="28">
       <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
       <formula>AND(task_end&gt;=AN$5,task_start&lt;AO$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="58">
+    <cfRule type="expression" dxfId="27" priority="30">
       <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU23:AV24 AT26:AV26 AU28:AV31 AU32">
-    <cfRule type="expression" dxfId="82" priority="53">
-      <formula>AND(task_start&lt;=AT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AT$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="54" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AT$5,task_start&lt;AU$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="55">
-      <formula>AND(TODAY()&gt;=AT$5,TODAY()&lt;AU$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU33:AV51">
-    <cfRule type="expression" dxfId="79" priority="22">
+  <conditionalFormatting sqref="AU28:AV28">
+    <cfRule type="expression" dxfId="26" priority="25">
       <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
       <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="24">
+    <cfRule type="expression" dxfId="24" priority="27">
       <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU7:BC21 BC22 BB23:BC33 BC34 BB37">
-    <cfRule type="expression" dxfId="76" priority="50">
+  <conditionalFormatting sqref="AU27:AV27">
+    <cfRule type="expression" dxfId="23" priority="22">
       <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
       <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="52">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB38:BC51">
-    <cfRule type="expression" dxfId="73" priority="13">
+  <conditionalFormatting sqref="AU25:AV25">
+    <cfRule type="expression" dxfId="20" priority="19">
+      <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="21">
+      <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU22:AV22">
+    <cfRule type="expression" dxfId="17" priority="16">
+      <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="18">
+      <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB22:BC22">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="15">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD7:CC38 U18:Y37">
-    <cfRule type="expression" dxfId="70" priority="80">
-      <formula>AND(task_start&lt;=U$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=U$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="81" stopIfTrue="1">
-      <formula>AND(task_end&gt;=U$5,task_start&lt;V$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="82">
-      <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BX6 CE6">
-    <cfRule type="expression" dxfId="67" priority="161" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BX$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BY5:CE5 BX5:BX6 CE6">
-    <cfRule type="expression" dxfId="66" priority="157">
-      <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q9:R9">
-    <cfRule type="expression" dxfId="65" priority="12">
-      <formula>AND(TODAY()&gt;=Q$5,TODAY()&lt;R$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q9:R9">
-    <cfRule type="expression" dxfId="64" priority="11" stopIfTrue="1">
-      <formula>AND(task_end&gt;=Q$5,task_start&lt;R$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q9:R9">
-    <cfRule type="expression" dxfId="63" priority="10">
-      <formula>AND(task_start&lt;=Q$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Q$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U11:Y17">
-    <cfRule type="expression" dxfId="62" priority="7">
-      <formula>AND(task_start&lt;=U$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=U$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="8" stopIfTrue="1">
-      <formula>AND(task_end&gt;=U$5,task_start&lt;V$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="9">
-      <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB11:AF17">
-    <cfRule type="expression" dxfId="59" priority="4">
-      <formula>AND(task_start&lt;=AB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AB$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="5" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AB$5,task_start&lt;AC$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="6">
-      <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;AC$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z16:AA16">
-    <cfRule type="expression" dxfId="56" priority="3">
-      <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z16:AA16">
-    <cfRule type="expression" dxfId="55" priority="2" stopIfTrue="1">
-      <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z16:AA16">
-    <cfRule type="expression" dxfId="54" priority="1">
-      <formula>AND(task_start&lt;=Z$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Z$5)</formula>
+  <conditionalFormatting sqref="AN19:AO19">
+    <cfRule type="expression" dxfId="11" priority="10">
+      <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AN$5,task_start&lt;AO$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN20:AO20">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AN$5,task_start&lt;AO$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI20:AM20">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>AND(TODAY()&gt;=AI$5,TODAY()&lt;AJ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI20:AM20">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(task_start&lt;=AI$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AI$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI20:AM20">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AI$5,task_start&lt;AJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -8538,7 +9488,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="E13 E21" formula="1"/>
+    <ignoredError sqref="E21" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/LesszKaja_gantt_diagram.xlsx
+++ b/LesszKaja_gantt_diagram.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98268BD3-CFAF-465B-826B-A139C8BEFFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2BA768-1946-E94B-8A05-B2F878B34EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="8055" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="11" r:id="rId1"/>
@@ -253,7 +253,7 @@
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="169" formatCode="\ yyyy/\ mmm/\ d/"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,8 +404,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,6 +524,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,7 +697,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -857,6 +870,16 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="8" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -866,22 +889,14 @@
     <xf numFmtId="169" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="8" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Cím" xfId="4" builtinId="15" customBuiltin="1"/>
@@ -897,25 +912,7 @@
     <cellStyle name="Task" xfId="11" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
     <cellStyle name="zHiddenText" xfId="2" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="202">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="84">
     <dxf>
       <border>
         <left style="thin">
@@ -931,14 +928,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
       <border>
@@ -959,6 +949,24 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -973,20 +981,13 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1003,20 +1004,13 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1033,20 +1027,13 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1061,24 +1048,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1123,7 +1092,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
       <border>
@@ -1164,9 +1151,13 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1181,24 +1172,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1213,20 +1186,13 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1243,17 +1209,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
@@ -1282,13 +1237,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1314,9 +1262,13 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1333,17 +1285,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
@@ -1363,7 +1304,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
       <border>
@@ -1377,6 +1318,17 @@
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1501,14 +1453,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
       <border>
@@ -1529,24 +1474,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1561,20 +1488,20 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1591,14 +1518,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
       <border>
@@ -1621,14 +1541,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
       <border>
@@ -1651,14 +1564,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
       <border>
@@ -1681,20 +1587,20 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1711,14 +1617,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
       <border>
@@ -1741,580 +1640,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7"/>
         </patternFill>
       </fill>
@@ -2322,446 +1647,6 @@
         <left/>
         <right/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2924,15 +1809,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="201"/>
-      <tableStyleElement type="headerRow" dxfId="200"/>
-      <tableStyleElement type="totalRow" dxfId="199"/>
-      <tableStyleElement type="firstColumn" dxfId="198"/>
-      <tableStyleElement type="lastColumn" dxfId="197"/>
-      <tableStyleElement type="firstRowStripe" dxfId="196"/>
-      <tableStyleElement type="secondRowStripe" dxfId="195"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="194"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="193"/>
+      <tableStyleElement type="wholeTable" dxfId="83"/>
+      <tableStyleElement type="headerRow" dxfId="82"/>
+      <tableStyleElement type="totalRow" dxfId="81"/>
+      <tableStyleElement type="firstColumn" dxfId="80"/>
+      <tableStyleElement type="lastColumn" dxfId="79"/>
+      <tableStyleElement type="firstRowStripe" dxfId="78"/>
+      <tableStyleElement type="secondRowStripe" dxfId="77"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="76"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="75"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3293,22 +2178,22 @@
   </sheetPr>
   <dimension ref="A1:CE60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ47" sqref="AJ47"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BI37" sqref="BI37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="88.36328125" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="83" width="2.54296875" customWidth="1"/>
+    <col min="1" max="1" width="2.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="83" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" ht="25.5" customHeight="1">
+    <row r="1" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17"/>
       <c r="B1" s="33" t="s">
         <v>28</v>
@@ -3347,7 +2232,7 @@
       <c r="AT1" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="AY1" s="72"/>
+      <c r="AY1" s="66"/>
       <c r="AZ1" s="31"/>
       <c r="BA1" s="31" t="s">
         <v>8</v>
@@ -3355,7 +2240,7 @@
       <c r="BF1" s="65"/>
       <c r="BG1" s="31"/>
     </row>
-    <row r="2" spans="1:83" ht="25.5" customHeight="1">
+    <row r="2" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="32" t="s">
         <v>29</v>
       </c>
@@ -3366,7 +2251,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:83" ht="25.5" customHeight="1">
+    <row r="3" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="26"/>
       <c r="D3" s="69">
         <v>45572</v>
@@ -3374,122 +2259,122 @@
       <c r="E3" s="69"/>
       <c r="F3" s="15"/>
     </row>
-    <row r="4" spans="1:83" ht="25.5" customHeight="1">
+    <row r="4" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="D4"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="66">
+      <c r="F4" s="73"/>
+      <c r="G4" s="70">
         <f>G5</f>
         <v>45572</v>
       </c>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="66">
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="70">
         <f>N5</f>
         <v>45579</v>
       </c>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="66">
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="70">
         <f>U5</f>
         <v>45586</v>
       </c>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="68"/>
-      <c r="AB4" s="66">
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="70">
         <f>AB5</f>
         <v>45593</v>
       </c>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="67"/>
-      <c r="AE4" s="67"/>
-      <c r="AF4" s="67"/>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="68"/>
-      <c r="AI4" s="66">
+      <c r="AC4" s="71"/>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="71"/>
+      <c r="AF4" s="71"/>
+      <c r="AG4" s="71"/>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="70">
         <f>AI5</f>
         <v>45600</v>
       </c>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="67"/>
-      <c r="AL4" s="67"/>
-      <c r="AM4" s="67"/>
-      <c r="AN4" s="67"/>
-      <c r="AO4" s="68"/>
-      <c r="AP4" s="66">
+      <c r="AJ4" s="71"/>
+      <c r="AK4" s="71"/>
+      <c r="AL4" s="71"/>
+      <c r="AM4" s="71"/>
+      <c r="AN4" s="71"/>
+      <c r="AO4" s="72"/>
+      <c r="AP4" s="70">
         <f>AP5</f>
         <v>45607</v>
       </c>
-      <c r="AQ4" s="67"/>
-      <c r="AR4" s="67"/>
-      <c r="AS4" s="67"/>
-      <c r="AT4" s="67"/>
-      <c r="AU4" s="67"/>
-      <c r="AV4" s="68"/>
-      <c r="AW4" s="66">
+      <c r="AQ4" s="71"/>
+      <c r="AR4" s="71"/>
+      <c r="AS4" s="71"/>
+      <c r="AT4" s="71"/>
+      <c r="AU4" s="71"/>
+      <c r="AV4" s="72"/>
+      <c r="AW4" s="70">
         <f>AW5</f>
         <v>45614</v>
       </c>
-      <c r="AX4" s="67"/>
-      <c r="AY4" s="67"/>
-      <c r="AZ4" s="67"/>
-      <c r="BA4" s="67"/>
-      <c r="BB4" s="67"/>
-      <c r="BC4" s="68"/>
-      <c r="BD4" s="66">
+      <c r="AX4" s="71"/>
+      <c r="AY4" s="71"/>
+      <c r="AZ4" s="71"/>
+      <c r="BA4" s="71"/>
+      <c r="BB4" s="71"/>
+      <c r="BC4" s="72"/>
+      <c r="BD4" s="70">
         <f>BD5</f>
         <v>45621</v>
       </c>
-      <c r="BE4" s="67"/>
-      <c r="BF4" s="67"/>
-      <c r="BG4" s="67"/>
-      <c r="BH4" s="67"/>
-      <c r="BI4" s="67"/>
-      <c r="BJ4" s="68"/>
-      <c r="BK4" s="66">
+      <c r="BE4" s="71"/>
+      <c r="BF4" s="71"/>
+      <c r="BG4" s="71"/>
+      <c r="BH4" s="71"/>
+      <c r="BI4" s="71"/>
+      <c r="BJ4" s="72"/>
+      <c r="BK4" s="70">
         <f>BK5</f>
         <v>45628</v>
       </c>
-      <c r="BL4" s="67"/>
-      <c r="BM4" s="67"/>
-      <c r="BN4" s="67"/>
-      <c r="BO4" s="67"/>
-      <c r="BP4" s="67"/>
-      <c r="BQ4" s="68"/>
-      <c r="BR4" s="66">
+      <c r="BL4" s="71"/>
+      <c r="BM4" s="71"/>
+      <c r="BN4" s="71"/>
+      <c r="BO4" s="71"/>
+      <c r="BP4" s="71"/>
+      <c r="BQ4" s="72"/>
+      <c r="BR4" s="70">
         <f>BR5</f>
         <v>45635</v>
       </c>
-      <c r="BS4" s="67"/>
-      <c r="BT4" s="67"/>
-      <c r="BU4" s="67"/>
-      <c r="BV4" s="67"/>
-      <c r="BW4" s="67"/>
-      <c r="BX4" s="68"/>
-      <c r="BY4" s="66">
+      <c r="BS4" s="71"/>
+      <c r="BT4" s="71"/>
+      <c r="BU4" s="71"/>
+      <c r="BV4" s="71"/>
+      <c r="BW4" s="71"/>
+      <c r="BX4" s="72"/>
+      <c r="BY4" s="70">
         <f>BY5</f>
         <v>45642</v>
       </c>
-      <c r="BZ4" s="67"/>
-      <c r="CA4" s="67"/>
-      <c r="CB4" s="67"/>
-      <c r="CC4" s="67"/>
-      <c r="CD4" s="67"/>
-      <c r="CE4" s="68"/>
+      <c r="BZ4" s="71"/>
+      <c r="CA4" s="71"/>
+      <c r="CB4" s="71"/>
+      <c r="CC4" s="71"/>
+      <c r="CD4" s="71"/>
+      <c r="CE4" s="72"/>
     </row>
-    <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="24" t="s">
         <v>1</v>
@@ -3503,7 +2388,7 @@
       <c r="E5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="71"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="6">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45572</v>
@@ -3813,7 +2698,7 @@
         <v>45648</v>
       </c>
     </row>
-    <row r="6" spans="1:83" ht="30" hidden="1" customHeight="1" thickBot="1">
+    <row r="6" spans="1:83" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="20"/>
       <c r="D6"/>
       <c r="F6" s="21"/>
@@ -3895,7 +2780,7 @@
       <c r="CD6" s="14"/>
       <c r="CE6" s="14"/>
     </row>
-    <row r="7" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="36" t="s">
         <v>5</v>
@@ -3982,7 +2867,7 @@
       <c r="CD7" s="27"/>
       <c r="CE7" s="27"/>
     </row>
-    <row r="8" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="8" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="39" t="s">
         <v>11</v>
@@ -4076,7 +2961,7 @@
       <c r="CD8" s="27"/>
       <c r="CE8" s="27"/>
     </row>
-    <row r="9" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="9" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="39" t="s">
         <v>12</v>
@@ -4095,9 +2980,9 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="27"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
       <c r="M9" s="27"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
@@ -4170,7 +3055,7 @@
       <c r="CD9" s="27"/>
       <c r="CE9" s="27"/>
     </row>
-    <row r="10" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="10" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="42" t="s">
         <v>6</v>
@@ -4257,7 +3142,7 @@
       <c r="CD10" s="22"/>
       <c r="CE10" s="22"/>
     </row>
-    <row r="11" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="11" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="45" t="s">
         <v>13</v>
@@ -4279,9 +3164,9 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
@@ -4351,7 +3236,7 @@
       <c r="CD11" s="27"/>
       <c r="CE11" s="27"/>
     </row>
-    <row r="12" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="12" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="45" t="s">
         <v>14</v>
@@ -4373,10 +3258,10 @@
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
       <c r="S12" s="27"/>
@@ -4445,7 +3330,7 @@
       <c r="CD12" s="27"/>
       <c r="CE12" s="27"/>
     </row>
-    <row r="13" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="13" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="45" t="s">
         <v>15</v>
@@ -4539,7 +3424,7 @@
       <c r="CD13" s="27"/>
       <c r="CE13" s="27"/>
     </row>
-    <row r="14" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="14" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="45" t="s">
         <v>16</v>
@@ -4564,10 +3449,10 @@
       <c r="M14" s="27"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="27"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
       <c r="T14" s="27"/>
       <c r="U14" s="14"/>
       <c r="V14" s="14"/>
@@ -4633,7 +3518,7 @@
       <c r="CD14" s="27"/>
       <c r="CE14" s="27"/>
     </row>
-    <row r="15" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="15" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="45" t="s">
         <v>17</v>
@@ -4661,9 +3546,9 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="14"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
       <c r="V15" s="14"/>
       <c r="W15" s="14"/>
       <c r="X15" s="14"/>
@@ -4727,7 +3612,7 @@
       <c r="CD15" s="27"/>
       <c r="CE15" s="27"/>
     </row>
-    <row r="16" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="16" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="45" t="s">
         <v>18</v>
@@ -4751,9 +3636,9 @@
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
       <c r="R16" s="14"/>
       <c r="S16" s="27"/>
       <c r="T16" s="27"/>
@@ -4821,7 +3706,7 @@
       <c r="CD16" s="27"/>
       <c r="CE16" s="27"/>
     </row>
-    <row r="17" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="17" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="45" t="s">
         <v>19</v>
@@ -4851,7 +3736,7 @@
       <c r="R17" s="14"/>
       <c r="S17" s="27"/>
       <c r="T17" s="27"/>
-      <c r="U17" s="14"/>
+      <c r="U17" s="34"/>
       <c r="V17" s="14"/>
       <c r="W17" s="14"/>
       <c r="X17" s="14"/>
@@ -4915,7 +3800,7 @@
       <c r="CD17" s="27"/>
       <c r="CE17" s="27"/>
     </row>
-    <row r="18" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="18" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="48" t="s">
         <v>9</v>
@@ -5002,7 +3887,7 @@
       <c r="CD18" s="30"/>
       <c r="CE18" s="30"/>
     </row>
-    <row r="19" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="19" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>1</v>
       </c>
@@ -5036,11 +3921,11 @@
       <c r="T19" s="27"/>
       <c r="U19" s="14"/>
       <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
       <c r="AB19" s="14"/>
       <c r="AC19" s="14"/>
       <c r="AD19" s="14"/>
@@ -5098,7 +3983,7 @@
       <c r="CD19" s="27"/>
       <c r="CE19" s="27"/>
     </row>
-    <row r="20" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="20" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="51" t="s">
         <v>37</v>
@@ -5127,10 +4012,10 @@
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
       <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
       <c r="Z20" s="27"/>
@@ -5192,9 +4077,9 @@
       <c r="CD20" s="27"/>
       <c r="CE20" s="27"/>
     </row>
-    <row r="21" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="21" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="67" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="52" t="s">
@@ -5220,9 +4105,9 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="14"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
       <c r="V21" s="14"/>
       <c r="W21" s="14"/>
       <c r="X21" s="14"/>
@@ -5286,7 +4171,7 @@
       <c r="CD21" s="27"/>
       <c r="CE21" s="27"/>
     </row>
-    <row r="22" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="22" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="51" t="s">
         <v>20</v>
@@ -5323,14 +4208,14 @@
       <c r="Y22" s="14"/>
       <c r="Z22" s="27"/>
       <c r="AA22" s="27"/>
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="14"/>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="14"/>
+      <c r="AB22" s="66"/>
+      <c r="AC22" s="66"/>
+      <c r="AD22" s="66"/>
+      <c r="AE22" s="66"/>
+      <c r="AF22" s="66"/>
+      <c r="AG22" s="66"/>
+      <c r="AH22" s="66"/>
+      <c r="AI22" s="75"/>
       <c r="AJ22" s="14"/>
       <c r="AK22" s="14"/>
       <c r="AL22" s="14"/>
@@ -5380,7 +4265,7 @@
       <c r="CD22" s="27"/>
       <c r="CE22" s="27"/>
     </row>
-    <row r="23" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="23" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="51" t="s">
         <v>38</v>
@@ -5412,10 +4297,10 @@
       <c r="T23" s="27"/>
       <c r="U23" s="14"/>
       <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="27"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
       <c r="AA23" s="27"/>
       <c r="AB23" s="14"/>
       <c r="AC23" s="14"/>
@@ -5474,7 +4359,7 @@
       <c r="CD23" s="27"/>
       <c r="CE23" s="27"/>
     </row>
-    <row r="24" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="24" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="51" t="s">
         <v>39</v>
@@ -5508,10 +4393,10 @@
       <c r="V24" s="14"/>
       <c r="W24" s="14"/>
       <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="14"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
       <c r="AC24" s="14"/>
       <c r="AD24" s="14"/>
       <c r="AE24" s="14"/>
@@ -5568,7 +4453,7 @@
       <c r="CD24" s="27"/>
       <c r="CE24" s="27"/>
     </row>
-    <row r="25" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="25" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="54" t="s">
         <v>21</v>
@@ -5605,10 +4490,10 @@
       <c r="Y25" s="14"/>
       <c r="Z25" s="27"/>
       <c r="AA25" s="27"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14"/>
-      <c r="AE25" s="14"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
+      <c r="AD25" s="34"/>
+      <c r="AE25" s="34"/>
       <c r="AF25" s="14"/>
       <c r="AG25" s="27"/>
       <c r="AH25" s="27"/>
@@ -5662,7 +4547,7 @@
       <c r="CD25" s="27"/>
       <c r="CE25" s="27"/>
     </row>
-    <row r="26" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="26" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="54" t="s">
         <v>22</v>
@@ -5697,9 +4582,9 @@
       <c r="W26" s="14"/>
       <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="14"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="64"/>
+      <c r="AB26" s="64"/>
       <c r="AC26" s="14"/>
       <c r="AD26" s="14"/>
       <c r="AE26" s="14"/>
@@ -5756,7 +4641,7 @@
       <c r="CD26" s="27"/>
       <c r="CE26" s="27"/>
     </row>
-    <row r="27" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="27" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="54" t="s">
         <v>23</v>
@@ -5793,11 +4678,11 @@
       <c r="Y27" s="14"/>
       <c r="Z27" s="27"/>
       <c r="AA27" s="27"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="14"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="14"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="28"/>
       <c r="AG27" s="27"/>
       <c r="AH27" s="27"/>
       <c r="AI27" s="14"/>
@@ -5850,9 +4735,9 @@
       <c r="CD27" s="27"/>
       <c r="CE27" s="27"/>
     </row>
-    <row r="28" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="28" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="68" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="52" t="s">
@@ -5892,10 +4777,10 @@
       <c r="AD28" s="14"/>
       <c r="AE28" s="14"/>
       <c r="AF28" s="14"/>
-      <c r="AG28" s="27"/>
-      <c r="AH28" s="27"/>
-      <c r="AI28" s="14"/>
-      <c r="AJ28" s="14"/>
+      <c r="AG28" s="35"/>
+      <c r="AH28" s="35"/>
+      <c r="AI28" s="35"/>
+      <c r="AJ28" s="35"/>
       <c r="AK28" s="14"/>
       <c r="AL28" s="14"/>
       <c r="AM28" s="14"/>
@@ -5944,9 +4829,9 @@
       <c r="CD28" s="27"/>
       <c r="CE28" s="27"/>
     </row>
-    <row r="29" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="29" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="68" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="52" t="s">
@@ -5978,11 +4863,11 @@
       <c r="V29" s="14"/>
       <c r="W29" s="14"/>
       <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="14"/>
-      <c r="AC29" s="14"/>
+      <c r="Y29" s="66"/>
+      <c r="Z29" s="66"/>
+      <c r="AA29" s="66"/>
+      <c r="AB29" s="66"/>
+      <c r="AC29" s="66"/>
       <c r="AD29" s="14"/>
       <c r="AE29" s="14"/>
       <c r="AF29" s="14"/>
@@ -6038,9 +4923,9 @@
       <c r="CD29" s="27"/>
       <c r="CE29" s="27"/>
     </row>
-    <row r="30" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="30" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
-      <c r="B30" s="74" t="s">
+      <c r="B30" s="68" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="52" t="s">
@@ -6073,10 +4958,10 @@
       <c r="W30" s="14"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="14"/>
-      <c r="AC30" s="14"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
       <c r="AD30" s="14"/>
       <c r="AE30" s="14"/>
       <c r="AF30" s="14"/>
@@ -6132,9 +5017,9 @@
       <c r="CD30" s="27"/>
       <c r="CE30" s="27"/>
     </row>
-    <row r="31" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="31" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
-      <c r="B31" s="74" t="s">
+      <c r="B31" s="68" t="s">
         <v>43</v>
       </c>
       <c r="C31" s="52" t="s">
@@ -6172,11 +5057,11 @@
       <c r="AB31" s="14"/>
       <c r="AC31" s="14"/>
       <c r="AD31" s="14"/>
-      <c r="AE31" s="14"/>
-      <c r="AF31" s="14"/>
-      <c r="AG31" s="27"/>
-      <c r="AH31" s="27"/>
-      <c r="AI31" s="14"/>
+      <c r="AE31" s="35"/>
+      <c r="AF31" s="35"/>
+      <c r="AG31" s="35"/>
+      <c r="AH31" s="35"/>
+      <c r="AI31" s="35"/>
       <c r="AJ31" s="14"/>
       <c r="AK31" s="14"/>
       <c r="AL31" s="14"/>
@@ -6226,9 +5111,9 @@
       <c r="CD31" s="27"/>
       <c r="CE31" s="27"/>
     </row>
-    <row r="32" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="32" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="68" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="52" t="s">
@@ -6267,10 +5152,10 @@
       <c r="AC32" s="14"/>
       <c r="AD32" s="14"/>
       <c r="AE32" s="14"/>
-      <c r="AF32" s="14"/>
-      <c r="AG32" s="27"/>
-      <c r="AH32" s="27"/>
-      <c r="AI32" s="14"/>
+      <c r="AF32" s="64"/>
+      <c r="AG32" s="64"/>
+      <c r="AH32" s="64"/>
+      <c r="AI32" s="64"/>
       <c r="AJ32" s="14"/>
       <c r="AK32" s="14"/>
       <c r="AL32" s="14"/>
@@ -6320,9 +5205,9 @@
       <c r="CD32" s="27"/>
       <c r="CE32" s="27"/>
     </row>
-    <row r="33" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="33" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="68" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="52" t="s">
@@ -6363,9 +5248,9 @@
       <c r="AE33" s="14"/>
       <c r="AF33" s="14"/>
       <c r="AG33" s="27"/>
-      <c r="AH33" s="27"/>
-      <c r="AI33" s="14"/>
-      <c r="AJ33" s="14"/>
+      <c r="AH33" s="64"/>
+      <c r="AI33" s="64"/>
+      <c r="AJ33" s="64"/>
       <c r="AK33" s="14"/>
       <c r="AL33" s="14"/>
       <c r="AM33" s="14"/>
@@ -6414,9 +5299,9 @@
       <c r="CD33" s="27"/>
       <c r="CE33" s="27"/>
     </row>
-    <row r="34" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="34" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="68" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="52" t="s">
@@ -6456,11 +5341,11 @@
       <c r="AD34" s="14"/>
       <c r="AE34" s="14"/>
       <c r="AF34" s="14"/>
-      <c r="AG34" s="27"/>
-      <c r="AH34" s="27"/>
-      <c r="AI34" s="14"/>
-      <c r="AJ34" s="14"/>
-      <c r="AK34" s="14"/>
+      <c r="AG34" s="28"/>
+      <c r="AH34" s="28"/>
+      <c r="AI34" s="28"/>
+      <c r="AJ34" s="28"/>
+      <c r="AK34" s="28"/>
       <c r="AL34" s="14"/>
       <c r="AM34" s="14"/>
       <c r="AN34" s="27"/>
@@ -6508,9 +5393,9 @@
       <c r="CD34" s="27"/>
       <c r="CE34" s="27"/>
     </row>
-    <row r="35" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="35" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="68" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="52" t="s">
@@ -6550,10 +5435,10 @@
       <c r="AD35" s="14"/>
       <c r="AE35" s="14"/>
       <c r="AF35" s="14"/>
-      <c r="AG35" s="27"/>
-      <c r="AH35" s="27"/>
-      <c r="AI35" s="14"/>
-      <c r="AJ35" s="14"/>
+      <c r="AG35" s="66"/>
+      <c r="AH35" s="66"/>
+      <c r="AI35" s="66"/>
+      <c r="AJ35" s="66"/>
       <c r="AK35" s="14"/>
       <c r="AL35" s="14"/>
       <c r="AM35" s="14"/>
@@ -6602,9 +5487,9 @@
       <c r="CD35" s="27"/>
       <c r="CE35" s="27"/>
     </row>
-    <row r="36" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="36" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
-      <c r="B36" s="74" t="s">
+      <c r="B36" s="68" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="52" t="s">
@@ -6647,11 +5532,11 @@
       <c r="AG36" s="27"/>
       <c r="AH36" s="27"/>
       <c r="AI36" s="14"/>
-      <c r="AJ36" s="14"/>
-      <c r="AK36" s="14"/>
-      <c r="AL36" s="14"/>
-      <c r="AM36" s="14"/>
-      <c r="AN36" s="27"/>
+      <c r="AJ36" s="29"/>
+      <c r="AK36" s="29"/>
+      <c r="AL36" s="29"/>
+      <c r="AM36" s="29"/>
+      <c r="AN36" s="29"/>
       <c r="AO36" s="27"/>
       <c r="AP36" s="14"/>
       <c r="AQ36" s="14"/>
@@ -6696,9 +5581,9 @@
       <c r="CD36" s="27"/>
       <c r="CE36" s="27"/>
     </row>
-    <row r="37" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="37" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="68" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="52" t="s">
@@ -6708,7 +5593,7 @@
         <v>45605</v>
       </c>
       <c r="E37" s="53">
-        <f>D37+1</f>
+        <f t="shared" ref="E37:E42" si="23">D37+1</f>
         <v>45606</v>
       </c>
       <c r="F37" s="22"/>
@@ -6745,8 +5630,8 @@
       <c r="AK37" s="14"/>
       <c r="AL37" s="14"/>
       <c r="AM37" s="14"/>
-      <c r="AN37" s="27"/>
-      <c r="AO37" s="27"/>
+      <c r="AN37" s="34"/>
+      <c r="AO37" s="34"/>
       <c r="AP37" s="14"/>
       <c r="AQ37" s="14"/>
       <c r="AR37" s="14"/>
@@ -6790,9 +5675,9 @@
       <c r="CD37" s="27"/>
       <c r="CE37" s="27"/>
     </row>
-    <row r="38" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="38" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
-      <c r="B38" s="74" t="s">
+      <c r="B38" s="68" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="52" t="s">
@@ -6802,7 +5687,7 @@
         <v>45605</v>
       </c>
       <c r="E38" s="53">
-        <f>D38+1</f>
+        <f t="shared" si="23"/>
         <v>45606</v>
       </c>
       <c r="F38" s="22"/>
@@ -6839,8 +5724,8 @@
       <c r="AK38" s="14"/>
       <c r="AL38" s="14"/>
       <c r="AM38" s="14"/>
-      <c r="AN38" s="27"/>
-      <c r="AO38" s="27"/>
+      <c r="AN38" s="28"/>
+      <c r="AO38" s="28"/>
       <c r="AP38" s="14"/>
       <c r="AQ38" s="14"/>
       <c r="AR38" s="14"/>
@@ -6884,9 +5769,9 @@
       <c r="CD38" s="27"/>
       <c r="CE38" s="27"/>
     </row>
-    <row r="39" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="39" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="68" t="s">
         <v>49</v>
       </c>
       <c r="C39" s="52" t="s">
@@ -6896,7 +5781,7 @@
         <v>45605</v>
       </c>
       <c r="E39" s="53">
-        <f>D39+1</f>
+        <f t="shared" si="23"/>
         <v>45606</v>
       </c>
       <c r="F39" s="22"/>
@@ -6933,8 +5818,8 @@
       <c r="AK39" s="14"/>
       <c r="AL39" s="14"/>
       <c r="AM39" s="14"/>
-      <c r="AN39" s="27"/>
-      <c r="AO39" s="27"/>
+      <c r="AN39" s="64"/>
+      <c r="AO39" s="64"/>
       <c r="AP39" s="14"/>
       <c r="AQ39" s="14"/>
       <c r="AR39" s="14"/>
@@ -6978,9 +5863,9 @@
       <c r="CD39" s="27"/>
       <c r="CE39" s="27"/>
     </row>
-    <row r="40" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="40" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
-      <c r="B40" s="74" t="s">
+      <c r="B40" s="68" t="s">
         <v>52</v>
       </c>
       <c r="C40" s="52" t="s">
@@ -6990,7 +5875,7 @@
         <v>45605</v>
       </c>
       <c r="E40" s="53">
-        <f>D40+1</f>
+        <f t="shared" si="23"/>
         <v>45606</v>
       </c>
       <c r="F40" s="22"/>
@@ -7027,8 +5912,8 @@
       <c r="AK40" s="14"/>
       <c r="AL40" s="14"/>
       <c r="AM40" s="14"/>
-      <c r="AN40" s="27"/>
-      <c r="AO40" s="27"/>
+      <c r="AN40" s="35"/>
+      <c r="AO40" s="35"/>
       <c r="AP40" s="14"/>
       <c r="AQ40" s="14"/>
       <c r="AR40" s="14"/>
@@ -7072,9 +5957,9 @@
       <c r="CD40" s="27"/>
       <c r="CE40" s="27"/>
     </row>
-    <row r="41" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="41" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
-      <c r="B41" s="74" t="s">
+      <c r="B41" s="68" t="s">
         <v>53</v>
       </c>
       <c r="C41" s="52" t="s">
@@ -7084,7 +5969,7 @@
         <v>45605</v>
       </c>
       <c r="E41" s="53">
-        <f>D41+1</f>
+        <f t="shared" si="23"/>
         <v>45606</v>
       </c>
       <c r="F41" s="22"/>
@@ -7121,8 +6006,8 @@
       <c r="AK41" s="14"/>
       <c r="AL41" s="14"/>
       <c r="AM41" s="14"/>
-      <c r="AN41" s="27"/>
-      <c r="AO41" s="27"/>
+      <c r="AN41" s="29"/>
+      <c r="AO41" s="29"/>
       <c r="AP41" s="14"/>
       <c r="AQ41" s="14"/>
       <c r="AR41" s="14"/>
@@ -7166,9 +6051,9 @@
       <c r="CD41" s="27"/>
       <c r="CE41" s="27"/>
     </row>
-    <row r="42" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="42" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
-      <c r="B42" s="74" t="s">
+      <c r="B42" s="68" t="s">
         <v>54</v>
       </c>
       <c r="C42" s="52" t="s">
@@ -7178,7 +6063,7 @@
         <v>45605</v>
       </c>
       <c r="E42" s="53">
-        <f>D42+1</f>
+        <f t="shared" si="23"/>
         <v>45606</v>
       </c>
       <c r="F42" s="22"/>
@@ -7215,8 +6100,8 @@
       <c r="AK42" s="14"/>
       <c r="AL42" s="14"/>
       <c r="AM42" s="14"/>
-      <c r="AN42" s="27"/>
-      <c r="AO42" s="27"/>
+      <c r="AN42" s="66"/>
+      <c r="AO42" s="66"/>
       <c r="AP42" s="14"/>
       <c r="AQ42" s="14"/>
       <c r="AR42" s="14"/>
@@ -7260,9 +6145,9 @@
       <c r="CD42" s="27"/>
       <c r="CE42" s="27"/>
     </row>
-    <row r="43" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="43" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
-      <c r="B43" s="74" t="s">
+      <c r="B43" s="68" t="s">
         <v>55</v>
       </c>
       <c r="C43" s="52" t="s">
@@ -7310,9 +6195,9 @@
       <c r="AL43" s="14"/>
       <c r="AM43" s="14"/>
       <c r="AN43" s="27"/>
-      <c r="AO43" s="27"/>
-      <c r="AP43" s="14"/>
-      <c r="AQ43" s="14"/>
+      <c r="AO43" s="66"/>
+      <c r="AP43" s="66"/>
+      <c r="AQ43" s="66"/>
       <c r="AR43" s="14"/>
       <c r="AS43" s="14"/>
       <c r="AT43" s="14"/>
@@ -7354,7 +6239,7 @@
       <c r="CD43" s="27"/>
       <c r="CE43" s="27"/>
     </row>
-    <row r="44" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="44" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="55" t="s">
         <v>7</v>
@@ -7441,7 +6326,7 @@
       <c r="CD44" s="22"/>
       <c r="CE44" s="22"/>
     </row>
-    <row r="45" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="45" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="58" t="s">
         <v>24</v>
@@ -7496,11 +6381,11 @@
       <c r="AQ45" s="14"/>
       <c r="AR45" s="14"/>
       <c r="AS45" s="14"/>
-      <c r="AT45" s="14"/>
-      <c r="AU45" s="27"/>
-      <c r="AV45" s="27"/>
-      <c r="AW45" s="14"/>
-      <c r="AX45" s="14"/>
+      <c r="AT45" s="34"/>
+      <c r="AU45" s="34"/>
+      <c r="AV45" s="34"/>
+      <c r="AW45" s="34"/>
+      <c r="AX45" s="34"/>
       <c r="AY45" s="14"/>
       <c r="AZ45" s="14"/>
       <c r="BA45" s="14"/>
@@ -7535,7 +6420,7 @@
       <c r="CD45" s="27"/>
       <c r="CE45" s="27"/>
     </row>
-    <row r="46" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="46" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="58" t="s">
         <v>25</v>
@@ -7547,7 +6432,7 @@
         <v>45611</v>
       </c>
       <c r="E46" s="60">
-        <f t="shared" ref="E46:E47" si="23">D46+4</f>
+        <f t="shared" ref="E46:E47" si="24">D46+4</f>
         <v>45615</v>
       </c>
       <c r="F46" s="22"/>
@@ -7590,11 +6475,11 @@
       <c r="AQ46" s="14"/>
       <c r="AR46" s="14"/>
       <c r="AS46" s="14"/>
-      <c r="AT46" s="14"/>
-      <c r="AU46" s="27"/>
-      <c r="AV46" s="27"/>
-      <c r="AW46" s="14"/>
-      <c r="AX46" s="14"/>
+      <c r="AT46" s="28"/>
+      <c r="AU46" s="28"/>
+      <c r="AV46" s="28"/>
+      <c r="AW46" s="28"/>
+      <c r="AX46" s="28"/>
       <c r="AY46" s="14"/>
       <c r="AZ46" s="14"/>
       <c r="BA46" s="14"/>
@@ -7629,7 +6514,7 @@
       <c r="CD46" s="27"/>
       <c r="CE46" s="27"/>
     </row>
-    <row r="47" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="47" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="58" t="s">
         <v>26</v>
@@ -7641,7 +6526,7 @@
         <v>45611</v>
       </c>
       <c r="E47" s="60">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>45615</v>
       </c>
       <c r="F47" s="22"/>
@@ -7685,10 +6570,10 @@
       <c r="AR47" s="14"/>
       <c r="AS47" s="14"/>
       <c r="AT47" s="14"/>
-      <c r="AU47" s="27"/>
-      <c r="AV47" s="27"/>
-      <c r="AW47" s="14"/>
-      <c r="AX47" s="14"/>
+      <c r="AU47" s="64"/>
+      <c r="AV47" s="64"/>
+      <c r="AW47" s="64"/>
+      <c r="AX47" s="64"/>
       <c r="AY47" s="14"/>
       <c r="AZ47" s="14"/>
       <c r="BA47" s="14"/>
@@ -7723,7 +6608,7 @@
       <c r="CD47" s="27"/>
       <c r="CE47" s="27"/>
     </row>
-    <row r="48" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="48" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="B48" s="58" t="s">
         <v>56</v>
@@ -7784,7 +6669,7 @@
       <c r="AX48" s="14"/>
       <c r="AY48" s="14"/>
       <c r="AZ48" s="14"/>
-      <c r="BA48" s="14"/>
+      <c r="BA48" s="66"/>
       <c r="BB48" s="27"/>
       <c r="BC48" s="27"/>
       <c r="BD48" s="14"/>
@@ -7816,7 +6701,7 @@
       <c r="CD48" s="27"/>
       <c r="CE48" s="27"/>
     </row>
-    <row r="49" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="49" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="58" t="s">
         <v>57</v>
@@ -7877,7 +6762,7 @@
       <c r="AX49" s="14"/>
       <c r="AY49" s="14"/>
       <c r="AZ49" s="14"/>
-      <c r="BA49" s="14"/>
+      <c r="BA49" s="29"/>
       <c r="BB49" s="27"/>
       <c r="BC49" s="27"/>
       <c r="BD49" s="14"/>
@@ -7909,7 +6794,7 @@
       <c r="CD49" s="27"/>
       <c r="CE49" s="27"/>
     </row>
-    <row r="50" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="50" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="58" t="s">
         <v>58</v>
@@ -7971,7 +6856,7 @@
       <c r="AY50" s="14"/>
       <c r="AZ50" s="14"/>
       <c r="BA50" s="14"/>
-      <c r="BB50" s="27"/>
+      <c r="BB50" s="35"/>
       <c r="BC50" s="27"/>
       <c r="BD50" s="14"/>
       <c r="BE50" s="14"/>
@@ -8002,7 +6887,7 @@
       <c r="CD50" s="27"/>
       <c r="CE50" s="27"/>
     </row>
-    <row r="51" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="51" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="B51" s="58" t="s">
         <v>59</v>
@@ -8066,8 +6951,8 @@
       <c r="BA51" s="14"/>
       <c r="BB51" s="27"/>
       <c r="BC51" s="27"/>
-      <c r="BD51" s="14"/>
-      <c r="BE51" s="14"/>
+      <c r="BD51" s="66"/>
+      <c r="BE51" s="76"/>
       <c r="BF51" s="14"/>
       <c r="BG51" s="14"/>
       <c r="BH51" s="14"/>
@@ -8095,7 +6980,7 @@
       <c r="CD51" s="27"/>
       <c r="CE51" s="27"/>
     </row>
-    <row r="52" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="52" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
       <c r="B52" s="58" t="s">
         <v>60</v>
@@ -8158,7 +7043,7 @@
       <c r="AZ52" s="14"/>
       <c r="BA52" s="14"/>
       <c r="BB52" s="27"/>
-      <c r="BC52" s="27"/>
+      <c r="BC52" s="29"/>
       <c r="BD52" s="14"/>
       <c r="BE52" s="14"/>
       <c r="BF52" s="14"/>
@@ -8188,7 +7073,7 @@
       <c r="CD52" s="27"/>
       <c r="CE52" s="27"/>
     </row>
-    <row r="53" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="53" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="58" t="s">
         <v>61</v>
@@ -8251,7 +7136,7 @@
       <c r="AZ53" s="14"/>
       <c r="BA53" s="14"/>
       <c r="BB53" s="27"/>
-      <c r="BC53" s="27"/>
+      <c r="BC53" s="35"/>
       <c r="BD53" s="14"/>
       <c r="BE53" s="14"/>
       <c r="BF53" s="14"/>
@@ -8281,7 +7166,7 @@
       <c r="CD53" s="27"/>
       <c r="CE53" s="27"/>
     </row>
-    <row r="54" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="54" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="B54" s="58" t="s">
         <v>62</v>
@@ -8346,8 +7231,8 @@
       <c r="BA54" s="14"/>
       <c r="BB54" s="27"/>
       <c r="BC54" s="27"/>
-      <c r="BD54" s="14"/>
-      <c r="BE54" s="14"/>
+      <c r="BD54" s="34"/>
+      <c r="BE54" s="34"/>
       <c r="BF54" s="14"/>
       <c r="BG54" s="14"/>
       <c r="BH54" s="14"/>
@@ -8375,7 +7260,7 @@
       <c r="CD54" s="27"/>
       <c r="CE54" s="27"/>
     </row>
-    <row r="55" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="55" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="58" t="s">
         <v>63</v>
@@ -8441,7 +7326,7 @@
       <c r="BC55" s="27"/>
       <c r="BD55" s="14"/>
       <c r="BE55" s="14"/>
-      <c r="BF55" s="14"/>
+      <c r="BF55" s="34"/>
       <c r="BG55" s="14"/>
       <c r="BH55" s="14"/>
       <c r="BI55" s="27"/>
@@ -8468,7 +7353,7 @@
       <c r="CD55" s="27"/>
       <c r="CE55" s="27"/>
     </row>
-    <row r="56" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="56" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="B56" s="61" t="s">
         <v>10</v>
@@ -8555,7 +7440,7 @@
       <c r="CD56" s="22"/>
       <c r="CE56" s="22"/>
     </row>
-    <row r="57" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="57" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -8640,15 +7525,20 @@
       <c r="CD57"/>
       <c r="CE57"/>
     </row>
-    <row r="59" spans="1:83" ht="30" customHeight="1">
+    <row r="59" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="8"/>
       <c r="E59" s="18"/>
     </row>
-    <row r="60" spans="1:83" ht="30" customHeight="1">
+    <row r="60" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AV4"/>
@@ -8658,827 +7548,322 @@
     <mergeCell ref="U4:AA4"/>
     <mergeCell ref="AB4:AH4"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="G7:R9">
-    <cfRule type="expression" dxfId="192" priority="158" stopIfTrue="1">
+  <conditionalFormatting sqref="G7:R8 G9:I9 M9:R9">
+    <cfRule type="expression" dxfId="74" priority="158" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="159">
+    <cfRule type="expression" dxfId="73" priority="159">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN31:AT56 U45:AM56 G10:R56 AW43:BA56 U55:AT56 BY45:CC56 BD56:BX56 AP22:AT25 AP27:AT27">
-    <cfRule type="expression" dxfId="190" priority="165">
+  <conditionalFormatting sqref="G10:R10 AN31:AT35 AW43:BA44 U45:AM56 BY45:CC56 U55:AT56 BD56:BX56 G17:R56 G16:N16 R16 AN47:AT56 AN44:AT44 AY45:BA47 G15:R15 G14:O14 G13:R13 Q12:R12 AO36:AT36 AW50:BA56 AW48:AZ49 AN45:AS46 G11:L12 P11:R11 AP37:AT42 AN43 AR43:AT43">
+    <cfRule type="expression" dxfId="72" priority="165">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:T56 AP22:AT25 AP27:AT27">
-    <cfRule type="expression" dxfId="189" priority="157">
+  <conditionalFormatting sqref="G7:T8 G10:T10 G9:I9 M9:T9 G17:T19 G16:N16 R16:T16 G22:T56 G21:R21 G15:R15 G14:O14 T14 G13:T13 Q12:T12 G20:S20 G11:L12 P11:T11">
+    <cfRule type="expression" dxfId="71" priority="157">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:BW6 BY6:CD6 AG7:AH44 AP19:AT20 AW24:BA26 AP27:AR27 AW29:BA30 BD45:BJ47 BP45:BX47 BD48:BQ49 BS48:BX49 BD51:BT51 BV51:BX51 BD52:BS53 BU52:BX53 BD54:BR54 BT54:BX54 S7:T56 CD7:CE56 BD55:BT56 BV55:BX56 BD50:BX50">
-    <cfRule type="expression" dxfId="188" priority="302">
+  <conditionalFormatting sqref="G5:BW6 BY6:CD6 AG7:AH21 S7:T13 CD7:CE56 BV51:BX51 BU52:BX53 BF54:BR54 BT54:BX54 BD56:BT56 BV55:BX56 AP27:AR27 AW24:BA26 AW29:BA30 BD45:BJ47 BP45:BX47 BD55:BE55 BG55:BT55 S22:T56 AG36:AH44 AG33 S16:T19 T14 AG29:AH30 BD52:BS53 S20 AG23:AH27 BF51:BT51">
+    <cfRule type="expression" dxfId="70" priority="302">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:BW6 BY6:CD6 AP19:AT20 BD45:BJ47 BP45:BX47 BD48:BQ49 BS48:BX49 BD51:BT51 BV51:BX51 BD52:BS53 BU52:BX53 BD54:BR54 BT54:BX54 AG7:AH44 CD7:CE56 BD55:BT56 BV55:BX56 S7:T56 AP22:AT25 AP27:AT28 AP30:AT30 AW23:BA31 AW33:BA41 BD50:BX50">
-    <cfRule type="expression" dxfId="187" priority="297" stopIfTrue="1">
+  <conditionalFormatting sqref="G6:BW6 BY6:CD6 CD7:CE56 BD56:BT56 BV55:BX56 S7:T13 AG7:AH21 AP22:AT25 BV51:BX51 BU52:BX53 BF54:BR54 BT54:BX54 BD55:BE55 BG55:BT55 S22:T56 AG36:AH44 AG33 S16:T19 T14 AG29:AH30 BD52:BS53 S20 AG23:AH27 BF51:BT51">
+    <cfRule type="expression" dxfId="69" priority="297" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:CE6 AP19:AT20 AW24:BA26 AP27:AR27 AW29:BA30 BD45:BJ47 BP45:BX47 BD48:BQ49 BS48:BX49 BD51:BT51 BV51:BX51 BD52:BS53 BU52:BX53 BD54:BR54 BT54:BX54 CD7:CE56 BD55:BT56 BV55:BX56 BD50:BX50">
-    <cfRule type="expression" dxfId="186" priority="296">
-      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U7:Y43">
-    <cfRule type="expression" dxfId="185" priority="155" stopIfTrue="1">
+  <conditionalFormatting sqref="U7:Y14 U18:Y18 V17:Y17 X20:Y20 U19:V19 U22:Y22 V21:Y21 U25:Y28 U24:X24 U23:V23 U16:Y16 V15:Y15 U30:Y43 U29:X29">
+    <cfRule type="expression" dxfId="68" priority="155" stopIfTrue="1">
       <formula>AND(task_end&gt;=U$5,task_start&lt;V$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="156">
+    <cfRule type="expression" dxfId="67" priority="156">
       <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U7:AH44">
-    <cfRule type="expression" dxfId="183" priority="148">
+  <conditionalFormatting sqref="U44:AA44">
+    <cfRule type="expression" dxfId="66" priority="234" stopIfTrue="1">
+      <formula>AND(task_end&gt;=U$5,task_start&lt;V$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="235">
+      <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U7:AH14 U18:AH18 V17:AH17 X20:AH20 U19:V19 AB19:AH19 U27:AA27 U25:AA25 AF25:AH25 U22:AA22 V21:AH21 U26:Y26 AC26:AH26 U36:AH44 U32:AE32 U33:AG33 U24:X24 AC24:AH24 U29:X29 U28:AF28 U31:AD31 U23:V23 AA23:AH23 U30:Y30 U16:AH16 V15:AH15 AG27:AH27 AD29:AH30 U34:AF35">
+    <cfRule type="expression" dxfId="64" priority="148">
       <formula>AND(task_start&lt;=U$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=U$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z7:AA15">
-    <cfRule type="expression" dxfId="182" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="210" stopIfTrue="1">
       <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="211">
+    <cfRule type="expression" dxfId="62" priority="211">
       <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z16:AA16">
-    <cfRule type="expression" dxfId="180" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="149" stopIfTrue="1">
       <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="150">
+    <cfRule type="expression" dxfId="60" priority="150">
       <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z17:AA43">
-    <cfRule type="expression" dxfId="178" priority="176" stopIfTrue="1">
+  <conditionalFormatting sqref="Z17:AA18 Z20:AA22 Z27:AA28 Z25:AA25 AA23 Z31:AA43">
+    <cfRule type="expression" dxfId="59" priority="176" stopIfTrue="1">
       <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="177">
+    <cfRule type="expression" dxfId="58" priority="177">
       <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB7:AF44">
-    <cfRule type="expression" dxfId="176" priority="152" stopIfTrue="1">
+  <conditionalFormatting sqref="AB7:AF21 AB28:AF28 AF25 AC26:AF26 AB33:AF44 AB32:AE32 AC24:AF24 AB31:AD31 AB23:AF23 AD29:AF30">
+    <cfRule type="expression" dxfId="57" priority="152" stopIfTrue="1">
       <formula>AND(task_end&gt;=AB$5,task_start&lt;AC$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="153">
+    <cfRule type="expression" dxfId="56" priority="153">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;AC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI7:AM19">
-    <cfRule type="expression" dxfId="174" priority="239">
+    <cfRule type="expression" dxfId="55" priority="239">
       <formula>AND(task_start&lt;=AI$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AI$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="240" stopIfTrue="1">
       <formula>AND(task_end&gt;=AI$5,task_start&lt;AJ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="241">
+    <cfRule type="expression" dxfId="53" priority="241">
       <formula>AND(TODAY()&gt;=AI$5,TODAY()&lt;AJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI22:AM44 U44:AA44">
-    <cfRule type="expression" dxfId="171" priority="234" stopIfTrue="1">
-      <formula>AND(task_end&gt;=U$5,task_start&lt;V$5)</formula>
+  <conditionalFormatting sqref="AI20:AM20">
+    <cfRule type="expression" dxfId="52" priority="2">
+      <formula>AND(TODAY()&gt;=AI$5,TODAY()&lt;AJ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="235">
-      <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
+    <cfRule type="expression" dxfId="51" priority="3" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AI$5,task_start&lt;AJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI22:AM44">
-    <cfRule type="expression" dxfId="169" priority="233">
+  <conditionalFormatting sqref="AI20:AM21 AK35:AM35 AK33:AM33 AI29:AM30 AK28:AM28 AI37:AM44 AI36 AL34:AM34 AI23:AM27 AJ22:AM22 AJ31:AM32">
+    <cfRule type="expression" dxfId="50" priority="1">
       <formula>AND(task_start&lt;=AI$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AI$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN7:AT18 AN21:AO29">
-    <cfRule type="expression" dxfId="168" priority="203">
+  <conditionalFormatting sqref="AI21:AM21 AK35:AM35 AK33:AM33 AI29:AM30 AK28:AM28 AI37:AM44 AI36 AL34:AM34 AI23:AM27 AJ22:AM22 AJ31:AM32">
+    <cfRule type="expression" dxfId="49" priority="146" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AI$5,task_start&lt;AJ$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="147">
+      <formula>AND(TODAY()&gt;=AI$5,TODAY()&lt;AJ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI19:AO19">
+    <cfRule type="expression" dxfId="47" priority="10">
+      <formula>AND(task_start&lt;=AI$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AI$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="11" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AI$5,task_start&lt;AJ$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="12">
+      <formula>AND(TODAY()&gt;=AI$5,TODAY()&lt;AJ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN20:AO30">
+    <cfRule type="expression" dxfId="44" priority="7">
       <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="8" stopIfTrue="1">
       <formula>AND(task_end&gt;=AN$5,task_start&lt;AO$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="205">
+    <cfRule type="expression" dxfId="42" priority="9">
       <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN31:AT56 U45:AM56 AW43:BA56 U55:AT56 BY45:CC56 BD56:BX56 G10:R56">
-    <cfRule type="expression" dxfId="165" priority="164" stopIfTrue="1">
+  <conditionalFormatting sqref="AN7:AT18">
+    <cfRule type="expression" dxfId="41" priority="203">
+      <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="204" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AN$5,task_start&lt;AO$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="205">
+      <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN31:AT35 U45:AM56 BY45:CC56 U55:AT56 BD56:BX56 G10:R10 AW43:BA44 G17:R56 G16:N16 R16 AN47:AT56 AN44:AT44 AY45:BA47 G15:R15 G14:O14 G13:R13 Q12:R12 AO36:AT36 AW50:BA56 AW48:AZ49 AN45:AS46 G11:L12 P11:R11 AP37:AT42 AN43 AR43:AT43">
+    <cfRule type="expression" dxfId="38" priority="164" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN31:AT56 U45:AM56 AW43:BA56 U55:AT56 BY45:CC56 BD56:BX56">
-    <cfRule type="expression" dxfId="164" priority="163">
+  <conditionalFormatting sqref="AN31:AT35 U45:AM56 BY45:CC56 U55:AT56 BD56:BX56 AN47:AT56 AN44:AT44 AO36:AT36 AN45:AS46 AP37:AT42 AN43 AR43:AT43">
+    <cfRule type="expression" dxfId="37" priority="163">
       <formula>AND(task_start&lt;=U$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=U$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU23:AV24 AU26:AV26 AU29:AV32">
-    <cfRule type="expression" dxfId="163" priority="200">
-      <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
+  <conditionalFormatting sqref="AP19:AT21">
+    <cfRule type="expression" dxfId="36" priority="140" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AP$5,task_start&lt;AQ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="201" stopIfTrue="1">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP19:AT25">
+    <cfRule type="expression" dxfId="35" priority="141">
+      <formula>AND(TODAY()&gt;=AP$5,TODAY()&lt;AQ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP19:AT30">
+    <cfRule type="expression" dxfId="34" priority="129">
+      <formula>AND(task_start&lt;=AP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AP$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP26:AT30">
+    <cfRule type="expression" dxfId="33" priority="130">
+      <formula>AND(TODAY()&gt;=AP$5,TODAY()&lt;AQ$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="133" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AP$5,task_start&lt;AQ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU22:AV44 AU48:AV56">
+    <cfRule type="expression" dxfId="31" priority="17" stopIfTrue="1">
       <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="202">
+    <cfRule type="expression" dxfId="30" priority="18">
       <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU34:AV56">
-    <cfRule type="expression" dxfId="160" priority="169">
-      <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="159" priority="170" stopIfTrue="1">
+  <conditionalFormatting sqref="AU7:BC21">
+    <cfRule type="expression" dxfId="29" priority="198" stopIfTrue="1">
       <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="171">
+    <cfRule type="expression" dxfId="28" priority="199">
       <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU7:BC21 BB23:BC34 BB43">
-    <cfRule type="expression" dxfId="157" priority="197">
+  <conditionalFormatting sqref="AU7:BC44 AY45:BC47 AU51:BC51 AU50:BA50 BC50 AU54:BC56 AU48:AZ49 AU52:BB53 BB48:BC49">
+    <cfRule type="expression" dxfId="27" priority="13">
       <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="198" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="155" priority="199">
-      <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW22:BA23">
+    <cfRule type="expression" dxfId="26" priority="125">
+      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB44:BC56">
-    <cfRule type="expression" dxfId="154" priority="160">
-      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
+  <conditionalFormatting sqref="AW22:BA31">
+    <cfRule type="expression" dxfId="25" priority="128" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AW$5,task_start&lt;AX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="161" stopIfTrue="1">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW27:BA28">
+    <cfRule type="expression" dxfId="24" priority="121">
+      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW31:BA42">
+    <cfRule type="expression" dxfId="23" priority="95">
+      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW32:BA42">
+    <cfRule type="expression" dxfId="22" priority="96" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AW$5,task_start&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB22:BC49 BB51:BC51 BC50 BB54:BC56 BB52:BB53">
+    <cfRule type="expression" dxfId="21" priority="14" stopIfTrue="1">
       <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="162">
+    <cfRule type="expression" dxfId="20" priority="15">
       <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD7:CC44">
-    <cfRule type="expression" dxfId="151" priority="227">
+  <conditionalFormatting sqref="BD56:BT56 BV55:BX56 G6:CE6 CD7:CE56 BD55:BE55 BG55:BT55">
+    <cfRule type="expression" dxfId="19" priority="296">
+      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD45:BX47">
+    <cfRule type="expression" dxfId="18" priority="87" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BD$5,task_start&lt;BE$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF54:BX54 BD45:BX50 BD52:BX53 BF51:BX51">
+    <cfRule type="expression" dxfId="17" priority="61">
       <formula>AND(task_start&lt;=BD$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BD$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="228" stopIfTrue="1">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD48:BX50">
+    <cfRule type="expression" dxfId="16" priority="80" stopIfTrue="1">
       <formula>AND(task_end&gt;=BD$5,task_start&lt;BE$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="229">
+    <cfRule type="expression" dxfId="15" priority="81">
       <formula>AND(TODAY()&gt;=BD$5,TODAY()&lt;BE$5)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="BD7:CC44">
+    <cfRule type="expression" dxfId="14" priority="227">
+      <formula>AND(task_start&lt;=BD$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BD$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="228" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BD$5,task_start&lt;BE$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="229">
+      <formula>AND(TODAY()&gt;=BD$5,TODAY()&lt;BE$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK45:BO47">
+    <cfRule type="expression" dxfId="11" priority="86">
+      <formula>AND(TODAY()&gt;=BK$5,TODAY()&lt;BL$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS54">
+    <cfRule type="expression" dxfId="10" priority="74" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BS$5,task_start&lt;BT$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="75">
+      <formula>AND(TODAY()&gt;=BS$5,TODAY()&lt;BT$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BT52:BT53">
+    <cfRule type="expression" dxfId="8" priority="65" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BT$5,task_start&lt;BU$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="66">
+      <formula>AND(TODAY()&gt;=BT$5,TODAY()&lt;BU$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU51">
+    <cfRule type="expression" dxfId="6" priority="62" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BU$5,task_start&lt;BV$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="63">
+      <formula>AND(TODAY()&gt;=BU$5,TODAY()&lt;BV$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU55">
+    <cfRule type="expression" dxfId="4" priority="76">
+      <formula>AND(task_start&lt;=BU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BU$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="77" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BU$5,task_start&lt;BV$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="78">
+      <formula>AND(TODAY()&gt;=BU$5,TODAY()&lt;BV$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="BX6 CE6">
-    <cfRule type="expression" dxfId="148" priority="308" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="308" stopIfTrue="1">
       <formula>AND(task_end&gt;=BX$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY5:CE5 BX5:BX6 CE6">
-    <cfRule type="expression" dxfId="147" priority="304">
+    <cfRule type="expression" dxfId="0" priority="304">
       <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI21:AM21">
-    <cfRule type="expression" dxfId="146" priority="146" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AI$5,task_start&lt;AJ$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="145" priority="147">
-      <formula>AND(TODAY()&gt;=AI$5,TODAY()&lt;AJ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI21:AM21">
-    <cfRule type="expression" dxfId="144" priority="145">
-      <formula>AND(task_start&lt;=AI$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AI$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI19:AM19">
-    <cfRule type="expression" dxfId="143" priority="143" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AI$5,task_start&lt;AJ$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="144">
-      <formula>AND(TODAY()&gt;=AI$5,TODAY()&lt;AJ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI19:AM19">
-    <cfRule type="expression" dxfId="141" priority="142">
-      <formula>AND(task_start&lt;=AI$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AI$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP21:AT21">
-    <cfRule type="expression" dxfId="140" priority="141">
-      <formula>AND(TODAY()&gt;=AP$5,TODAY()&lt;AQ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP21:AT21">
-    <cfRule type="expression" dxfId="139" priority="140" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AP$5,task_start&lt;AQ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP21:AT21">
-    <cfRule type="expression" dxfId="138" priority="139">
-      <formula>AND(task_start&lt;=AP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP26:AT26">
-    <cfRule type="expression" dxfId="137" priority="137">
-      <formula>AND(TODAY()&gt;=AP$5,TODAY()&lt;AQ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP26:AT26">
-    <cfRule type="expression" dxfId="136" priority="136">
-      <formula>AND(task_start&lt;=AP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP26:AT26">
-    <cfRule type="expression" dxfId="135" priority="138" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AP$5,task_start&lt;AQ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP28:AT28">
-    <cfRule type="expression" dxfId="134" priority="135">
-      <formula>AND(TODAY()&gt;=AP$5,TODAY()&lt;AQ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP28:AT28">
-    <cfRule type="expression" dxfId="133" priority="134">
-      <formula>AND(task_start&lt;=AP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP29:AT29">
-    <cfRule type="expression" dxfId="132" priority="132">
-      <formula>AND(TODAY()&gt;=AP$5,TODAY()&lt;AQ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP29:AT29">
-    <cfRule type="expression" dxfId="131" priority="131">
-      <formula>AND(task_start&lt;=AP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP29:AT29">
-    <cfRule type="expression" dxfId="130" priority="133" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AP$5,task_start&lt;AQ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP30:AT30">
-    <cfRule type="expression" dxfId="129" priority="130">
-      <formula>AND(TODAY()&gt;=AP$5,TODAY()&lt;AQ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP30:AT30">
-    <cfRule type="expression" dxfId="128" priority="129">
-      <formula>AND(task_start&lt;=AP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW22:BA22">
-    <cfRule type="expression" dxfId="127" priority="127">
-      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW22:BA22">
-    <cfRule type="expression" dxfId="126" priority="126">
-      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW22:BA22">
-    <cfRule type="expression" dxfId="125" priority="128" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AW$5,task_start&lt;AX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW23:BA23">
-    <cfRule type="expression" dxfId="124" priority="125">
-      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW23:BA23">
-    <cfRule type="expression" dxfId="123" priority="124">
-      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW27:BA27">
-    <cfRule type="expression" dxfId="122" priority="123">
-      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW27:BA27">
-    <cfRule type="expression" dxfId="121" priority="122">
-      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW28:BA28">
-    <cfRule type="expression" dxfId="120" priority="121">
-      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW28:BA28">
-    <cfRule type="expression" dxfId="119" priority="120">
-      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW31:BA31">
-    <cfRule type="expression" dxfId="118" priority="119">
-      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW31:BA31">
-    <cfRule type="expression" dxfId="117" priority="118">
-      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW32:BA32">
-    <cfRule type="expression" dxfId="116" priority="117" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AW$5,task_start&lt;AX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW32:BA32">
-    <cfRule type="expression" dxfId="115" priority="116">
-      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW32:BA32">
-    <cfRule type="expression" dxfId="114" priority="115">
-      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW33:BA33">
-    <cfRule type="expression" dxfId="113" priority="114">
-      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW33:BA33">
-    <cfRule type="expression" dxfId="112" priority="113">
-      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW34:BA34">
-    <cfRule type="expression" dxfId="111" priority="112">
-      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW34:BA34">
-    <cfRule type="expression" dxfId="110" priority="111">
-      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW35:BA35">
-    <cfRule type="expression" dxfId="109" priority="110">
-      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW35:BA35">
-    <cfRule type="expression" dxfId="108" priority="109">
-      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW36:BA36">
-    <cfRule type="expression" dxfId="107" priority="108">
-      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW36:BA36">
-    <cfRule type="expression" dxfId="106" priority="107">
-      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW37:BA37">
-    <cfRule type="expression" dxfId="105" priority="106">
-      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW37:BA37">
-    <cfRule type="expression" dxfId="104" priority="105">
-      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW38:BA38">
-    <cfRule type="expression" dxfId="103" priority="104">
-      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW38:BA38">
-    <cfRule type="expression" dxfId="102" priority="103">
-      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW39:BA39">
-    <cfRule type="expression" dxfId="101" priority="102">
-      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW39:BA39">
-    <cfRule type="expression" dxfId="100" priority="101">
-      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW40:BA40">
-    <cfRule type="expression" dxfId="99" priority="100">
-      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW40:BA40">
-    <cfRule type="expression" dxfId="98" priority="99">
-      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW41:BA41">
-    <cfRule type="expression" dxfId="97" priority="98">
-      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW41:BA41">
-    <cfRule type="expression" dxfId="96" priority="97">
-      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW42:BA42">
-    <cfRule type="expression" dxfId="95" priority="96" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AW$5,task_start&lt;AX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW42:BA42">
-    <cfRule type="expression" dxfId="94" priority="95">
-      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW42:BA42">
-    <cfRule type="expression" dxfId="93" priority="94">
-      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK45:BO45">
-    <cfRule type="expression" dxfId="92" priority="93" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BK$5,task_start&lt;BL$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK45:BO45">
-    <cfRule type="expression" dxfId="91" priority="92">
-      <formula>AND(TODAY()&gt;=BK$5,TODAY()&lt;BL$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK45:BO45">
-    <cfRule type="expression" dxfId="90" priority="91">
-      <formula>AND(task_start&lt;=BK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BK$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK46:BO46">
-    <cfRule type="expression" dxfId="89" priority="90" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BK$5,task_start&lt;BL$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK46:BO46">
-    <cfRule type="expression" dxfId="88" priority="89">
-      <formula>AND(TODAY()&gt;=BK$5,TODAY()&lt;BL$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK46:BO46">
-    <cfRule type="expression" dxfId="87" priority="88">
-      <formula>AND(task_start&lt;=BK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BK$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK47:BO47">
-    <cfRule type="expression" dxfId="86" priority="87" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BK$5,task_start&lt;BL$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK47:BO47">
-    <cfRule type="expression" dxfId="85" priority="86">
-      <formula>AND(TODAY()&gt;=BK$5,TODAY()&lt;BL$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK47:BO47">
-    <cfRule type="expression" dxfId="84" priority="85">
-      <formula>AND(task_start&lt;=BK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BK$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR48">
-    <cfRule type="expression" dxfId="83" priority="84">
-      <formula>AND(TODAY()&gt;=BR$5,TODAY()&lt;BS$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR48">
-    <cfRule type="expression" dxfId="82" priority="83" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BR$5,task_start&lt;BS$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR48">
-    <cfRule type="expression" dxfId="81" priority="82">
-      <formula>AND(task_start&lt;=BR$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BR$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR49">
-    <cfRule type="expression" dxfId="80" priority="81">
-      <formula>AND(TODAY()&gt;=BR$5,TODAY()&lt;BS$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR49">
-    <cfRule type="expression" dxfId="79" priority="80" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BR$5,task_start&lt;BS$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR49">
-    <cfRule type="expression" dxfId="78" priority="79">
-      <formula>AND(task_start&lt;=BR$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BR$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BU55">
-    <cfRule type="expression" dxfId="77" priority="78">
-      <formula>AND(TODAY()&gt;=BU$5,TODAY()&lt;BV$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BU55">
-    <cfRule type="expression" dxfId="76" priority="77" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BU$5,task_start&lt;BV$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BU55">
-    <cfRule type="expression" dxfId="75" priority="76">
-      <formula>AND(task_start&lt;=BU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BU$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BS54">
-    <cfRule type="expression" dxfId="74" priority="75">
-      <formula>AND(TODAY()&gt;=BS$5,TODAY()&lt;BT$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BS54">
-    <cfRule type="expression" dxfId="73" priority="74" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BS$5,task_start&lt;BT$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BS54">
-    <cfRule type="expression" dxfId="72" priority="73">
-      <formula>AND(task_start&lt;=BS$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BS$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT53">
-    <cfRule type="expression" dxfId="71" priority="72">
-      <formula>AND(TODAY()&gt;=BT$5,TODAY()&lt;BU$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT53">
-    <cfRule type="expression" dxfId="70" priority="71" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BT$5,task_start&lt;BU$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT53">
-    <cfRule type="expression" dxfId="69" priority="70">
-      <formula>AND(task_start&lt;=BT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BT$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT52">
-    <cfRule type="expression" dxfId="65" priority="66">
-      <formula>AND(TODAY()&gt;=BT$5,TODAY()&lt;BU$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT52">
-    <cfRule type="expression" dxfId="64" priority="65" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BT$5,task_start&lt;BU$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT52">
-    <cfRule type="expression" dxfId="63" priority="64">
-      <formula>AND(task_start&lt;=BT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BT$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BU51">
-    <cfRule type="expression" dxfId="62" priority="63">
-      <formula>AND(TODAY()&gt;=BU$5,TODAY()&lt;BV$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BU51">
-    <cfRule type="expression" dxfId="61" priority="62" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BU$5,task_start&lt;BV$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BU51">
-    <cfRule type="expression" dxfId="60" priority="61">
-      <formula>AND(task_start&lt;=BU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BU$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC43">
-    <cfRule type="expression" dxfId="59" priority="58">
-      <formula>AND(task_start&lt;=BC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BC$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="59" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BC$5,task_start&lt;BD$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="60">
-      <formula>AND(TODAY()&gt;=BC$5,TODAY()&lt;BD$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB42:BC42">
-    <cfRule type="expression" dxfId="56" priority="55">
-      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="56" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="57">
-      <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB40:BC40">
-    <cfRule type="expression" dxfId="53" priority="52">
-      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="53" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="54">
-      <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB41:BC41">
-    <cfRule type="expression" dxfId="50" priority="49">
-      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="50" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="51">
-      <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB39:BC39">
-    <cfRule type="expression" dxfId="47" priority="46">
-      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="48">
-      <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB38:BC38">
-    <cfRule type="expression" dxfId="44" priority="43">
-      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="44" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="45">
-      <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB37:BC37">
-    <cfRule type="expression" dxfId="41" priority="40">
-      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="42">
-      <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB36:BC36">
-    <cfRule type="expression" dxfId="38" priority="37">
-      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="39">
-      <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB35:BC35">
-    <cfRule type="expression" dxfId="35" priority="34">
-      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="35" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="36">
-      <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU33:AV33">
-    <cfRule type="expression" dxfId="32" priority="31">
-      <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="33">
-      <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN30:AO30">
-    <cfRule type="expression" dxfId="29" priority="28">
-      <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AN$5,task_start&lt;AO$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="30">
-      <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU28:AV28">
-    <cfRule type="expression" dxfId="26" priority="25">
-      <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="27">
-      <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU27:AV27">
-    <cfRule type="expression" dxfId="23" priority="22">
-      <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24">
-      <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU25:AV25">
-    <cfRule type="expression" dxfId="20" priority="19">
-      <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="21">
-      <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU22:AV22">
-    <cfRule type="expression" dxfId="17" priority="16">
-      <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18">
-      <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB22:BC22">
-    <cfRule type="expression" dxfId="14" priority="13">
-      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15">
-      <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN19:AO19">
-    <cfRule type="expression" dxfId="11" priority="10">
-      <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AN$5,task_start&lt;AO$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
-      <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN20:AO20">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AN$5,task_start&lt;AO$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
-      <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI20:AM20">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>AND(TODAY()&gt;=AI$5,TODAY()&lt;AJ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI20:AM20">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(task_start&lt;=AI$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AI$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI20:AM20">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AI$5,task_start&lt;AJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>

--- a/LesszKaja_gantt_diagram.xlsx
+++ b/LesszKaja_gantt_diagram.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8D4DF8-BBAB-D44C-9211-CFDE5139F4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32F2A6E-090A-48B1-9874-A2ECDF1C0900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="11" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="Display_Week">'Gantt-diagram'!$D$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Gantt-diagram'!$4:$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Gantt-diagram'!$B$1:$CE$61</definedName>
     <definedName name="Project_Start">'Gantt-diagram'!$D$3</definedName>
     <definedName name="task_end" localSheetId="0">'Gantt-diagram'!$E1</definedName>
     <definedName name="task_progress" localSheetId="0">'Gantt-diagram'!#REF!</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
   <si>
     <t>Projekt kezdete:</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ha szükséges, e fölött szúrj be új sort! </t>
-  </si>
-  <si>
-    <t>8.1.1. Projektterv kitöltése</t>
   </si>
   <si>
     <t>8.1.2. Bemutató elkészítése</t>
@@ -240,6 +237,30 @@
   <si>
     <t>8.4.11. Bemutató elkészítése</t>
   </si>
+  <si>
+    <t>8.1.1_1 Szervezeti felépítés adatainak felvitele</t>
+  </si>
+  <si>
+    <t>8.1.1_2 Munkaállomások és projekthez használt technológiák felvitele, pontok és részfeladatok felvitele</t>
+  </si>
+  <si>
+    <t>8.1.1_3 Rizikómenedzsment felvitele</t>
+  </si>
+  <si>
+    <t>Kelemen Bálint Péter</t>
+  </si>
+  <si>
+    <t>Gál Gergő Károly</t>
+  </si>
+  <si>
+    <t>8.1.1_4 Funkcionális és nem funkcionális követelmények felvitele</t>
+  </si>
+  <si>
+    <t>8.1.1_5 Jelentések felvitele</t>
+  </si>
+  <si>
+    <t>8.1.1_6 Feladatlista felvitele és Gantt diagram kitöltése</t>
+  </si>
 </sst>
 </file>
 
@@ -253,7 +274,7 @@
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="169" formatCode="\ yyyy/\ mmm/\ d/"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,7 +718,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -877,6 +898,8 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="8" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -895,24 +918,28 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="10" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="Cím" xfId="4" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Címsor 1" xfId="5" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Címsor 2" xfId="6" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Címsor 3" xfId="7" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="3" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Date" xfId="9" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
-    <cellStyle name="Ezres" xfId="3" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Hivatkozás" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="5" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="6" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="7" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Name" xfId="10" xr:uid="{B2D3C1EE-6B41-4801-AAFC-C2274E49E503}"/>
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Project Start" xfId="8" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
     <cellStyle name="Task" xfId="11" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
+    <cellStyle name="Title" xfId="4" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="2" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="84">
+  <dxfs count="85">
     <dxf>
       <border>
         <left style="thin">
@@ -937,46 +964,11 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1062,20 +1054,13 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1087,35 +1072,6 @@
         </right>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
       </border>
     </dxf>
     <dxf>
@@ -1146,6 +1102,70 @@
       <border>
         <left/>
         <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1331,29 +1351,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
@@ -1391,6 +1388,17 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1411,6 +1419,101 @@
       <border>
         <left/>
         <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1446,9 +1549,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1527,18 +1646,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7"/>
@@ -1587,17 +1694,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
@@ -1617,40 +1713,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
@@ -1658,25 +1720,6 @@
         <left/>
         <right/>
       </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1705,7 +1748,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
@@ -1809,15 +1852,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="83"/>
-      <tableStyleElement type="headerRow" dxfId="82"/>
-      <tableStyleElement type="totalRow" dxfId="81"/>
-      <tableStyleElement type="firstColumn" dxfId="80"/>
-      <tableStyleElement type="lastColumn" dxfId="79"/>
-      <tableStyleElement type="firstRowStripe" dxfId="78"/>
-      <tableStyleElement type="secondRowStripe" dxfId="77"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="76"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="75"/>
+      <tableStyleElement type="wholeTable" dxfId="84"/>
+      <tableStyleElement type="headerRow" dxfId="83"/>
+      <tableStyleElement type="totalRow" dxfId="82"/>
+      <tableStyleElement type="firstColumn" dxfId="81"/>
+      <tableStyleElement type="lastColumn" dxfId="80"/>
+      <tableStyleElement type="firstRowStripe" dxfId="79"/>
+      <tableStyleElement type="secondRowStripe" dxfId="78"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="77"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="76"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2176,27 +2219,27 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CE60"/>
+  <dimension ref="A1:CE65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AZ33" sqref="AZ33"/>
+      <selection pane="bottomLeft" activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="88.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="83" width="2.5" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="83" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:83" ht="25.5" customHeight="1">
       <c r="A1" s="17"/>
       <c r="B1" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="3"/>
@@ -2205,32 +2248,32 @@
       <c r="G1" s="15"/>
       <c r="I1" s="31"/>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O1" s="34"/>
       <c r="P1" s="31"/>
       <c r="Q1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W1" s="64"/>
       <c r="X1" s="31"/>
       <c r="Y1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC1" s="35"/>
       <c r="AD1" s="31"/>
       <c r="AE1" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AJ1" s="29"/>
       <c r="AK1" s="31"/>
       <c r="AL1" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AR1" s="28"/>
       <c r="AS1" s="31"/>
       <c r="AT1" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AY1" s="66"/>
       <c r="AZ1" s="31"/>
@@ -2240,141 +2283,141 @@
       <c r="BF1" s="65"/>
       <c r="BG1" s="31"/>
     </row>
-    <row r="2" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:83" ht="25.5" customHeight="1">
       <c r="B2" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="69"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="15"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:83" ht="25.5" customHeight="1">
       <c r="B3" s="26"/>
-      <c r="D3" s="69">
+      <c r="D3" s="71">
         <v>45572</v>
       </c>
-      <c r="E3" s="69"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="15"/>
     </row>
-    <row r="4" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:83" ht="25.5" customHeight="1">
       <c r="A4" s="17"/>
       <c r="D4"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="70">
+      <c r="F4" s="75"/>
+      <c r="G4" s="72">
         <f>G5</f>
         <v>45572</v>
       </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="70">
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="72">
         <f>N5</f>
         <v>45579</v>
       </c>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="70">
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="72">
         <f>U5</f>
         <v>45586</v>
       </c>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="70">
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="72">
         <f>AB5</f>
         <v>45593</v>
       </c>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="70">
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="73"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="72">
         <f>AI5</f>
         <v>45600</v>
       </c>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="71"/>
-      <c r="AN4" s="71"/>
-      <c r="AO4" s="72"/>
-      <c r="AP4" s="70">
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="73"/>
+      <c r="AN4" s="73"/>
+      <c r="AO4" s="74"/>
+      <c r="AP4" s="72">
         <f>AP5</f>
         <v>45607</v>
       </c>
-      <c r="AQ4" s="71"/>
-      <c r="AR4" s="71"/>
-      <c r="AS4" s="71"/>
-      <c r="AT4" s="71"/>
-      <c r="AU4" s="71"/>
-      <c r="AV4" s="72"/>
-      <c r="AW4" s="70">
+      <c r="AQ4" s="73"/>
+      <c r="AR4" s="73"/>
+      <c r="AS4" s="73"/>
+      <c r="AT4" s="73"/>
+      <c r="AU4" s="73"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="72">
         <f>AW5</f>
         <v>45614</v>
       </c>
-      <c r="AX4" s="71"/>
-      <c r="AY4" s="71"/>
-      <c r="AZ4" s="71"/>
-      <c r="BA4" s="71"/>
-      <c r="BB4" s="71"/>
-      <c r="BC4" s="72"/>
-      <c r="BD4" s="70">
+      <c r="AX4" s="73"/>
+      <c r="AY4" s="73"/>
+      <c r="AZ4" s="73"/>
+      <c r="BA4" s="73"/>
+      <c r="BB4" s="73"/>
+      <c r="BC4" s="74"/>
+      <c r="BD4" s="72">
         <f>BD5</f>
         <v>45621</v>
       </c>
-      <c r="BE4" s="71"/>
-      <c r="BF4" s="71"/>
-      <c r="BG4" s="71"/>
-      <c r="BH4" s="71"/>
-      <c r="BI4" s="71"/>
-      <c r="BJ4" s="72"/>
-      <c r="BK4" s="70">
+      <c r="BE4" s="73"/>
+      <c r="BF4" s="73"/>
+      <c r="BG4" s="73"/>
+      <c r="BH4" s="73"/>
+      <c r="BI4" s="73"/>
+      <c r="BJ4" s="74"/>
+      <c r="BK4" s="72">
         <f>BK5</f>
         <v>45628</v>
       </c>
-      <c r="BL4" s="71"/>
-      <c r="BM4" s="71"/>
-      <c r="BN4" s="71"/>
-      <c r="BO4" s="71"/>
-      <c r="BP4" s="71"/>
-      <c r="BQ4" s="72"/>
-      <c r="BR4" s="70">
+      <c r="BL4" s="73"/>
+      <c r="BM4" s="73"/>
+      <c r="BN4" s="73"/>
+      <c r="BO4" s="73"/>
+      <c r="BP4" s="73"/>
+      <c r="BQ4" s="74"/>
+      <c r="BR4" s="72">
         <f>BR5</f>
         <v>45635</v>
       </c>
-      <c r="BS4" s="71"/>
-      <c r="BT4" s="71"/>
-      <c r="BU4" s="71"/>
-      <c r="BV4" s="71"/>
-      <c r="BW4" s="71"/>
-      <c r="BX4" s="72"/>
-      <c r="BY4" s="70">
+      <c r="BS4" s="73"/>
+      <c r="BT4" s="73"/>
+      <c r="BU4" s="73"/>
+      <c r="BV4" s="73"/>
+      <c r="BW4" s="73"/>
+      <c r="BX4" s="74"/>
+      <c r="BY4" s="72">
         <f>BY5</f>
         <v>45642</v>
       </c>
-      <c r="BZ4" s="71"/>
-      <c r="CA4" s="71"/>
-      <c r="CB4" s="71"/>
-      <c r="CC4" s="71"/>
-      <c r="CD4" s="71"/>
-      <c r="CE4" s="72"/>
+      <c r="BZ4" s="73"/>
+      <c r="CA4" s="73"/>
+      <c r="CB4" s="73"/>
+      <c r="CC4" s="73"/>
+      <c r="CD4" s="73"/>
+      <c r="CE4" s="74"/>
     </row>
-    <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1">
       <c r="A5" s="17"/>
       <c r="B5" s="24" t="s">
         <v>1</v>
@@ -2388,7 +2431,7 @@
       <c r="E5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="74"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="6">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45572</v>
@@ -2698,7 +2741,7 @@
         <v>45648</v>
       </c>
     </row>
-    <row r="6" spans="1:83" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:83" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="C6" s="20"/>
       <c r="D6"/>
       <c r="F6" s="21"/>
@@ -2780,7 +2823,7 @@
       <c r="CD6" s="14"/>
       <c r="CE6" s="14"/>
     </row>
-    <row r="7" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="17"/>
       <c r="B7" s="36" t="s">
         <v>5</v>
@@ -2867,24 +2910,24 @@
       <c r="CD7" s="27"/>
       <c r="CE7" s="27"/>
     </row>
-    <row r="8" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="17"/>
-      <c r="B8" s="39" t="s">
-        <v>11</v>
+      <c r="B8" s="77" t="s">
+        <v>70</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D8" s="41">
         <v>45572</v>
       </c>
       <c r="E8" s="41">
-        <f>D8+1</f>
+        <f t="shared" ref="E8:E13" si="23">D8+1</f>
         <v>45573</v>
       </c>
       <c r="F8" s="22"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
@@ -2961,28 +3004,28 @@
       <c r="CD8" s="27"/>
       <c r="CE8" s="27"/>
     </row>
-    <row r="9" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A9" s="17"/>
-      <c r="B9" s="39" t="s">
-        <v>12</v>
+      <c r="B9" s="77" t="s">
+        <v>68</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="41">
-        <v>45575</v>
+        <v>45572</v>
       </c>
       <c r="E9" s="41">
-        <f>D9+2</f>
-        <v>45577</v>
+        <f t="shared" si="23"/>
+        <v>45573</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="27"/>
       <c r="M9" s="27"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
@@ -3055,118 +3098,125 @@
       <c r="CD9" s="27"/>
       <c r="CE9" s="27"/>
     </row>
-    <row r="10" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A10" s="17"/>
-      <c r="B10" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="11"/>
+      <c r="B10" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="41">
+        <v>45572</v>
+      </c>
+      <c r="E10" s="41">
+        <f t="shared" si="23"/>
+        <v>45573</v>
+      </c>
       <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="22"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="22"/>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="22"/>
-      <c r="AL10" s="22"/>
-      <c r="AM10" s="22"/>
-      <c r="AN10" s="22"/>
-      <c r="AO10" s="22"/>
-      <c r="AP10" s="22"/>
-      <c r="AQ10" s="22"/>
-      <c r="AR10" s="22"/>
-      <c r="AS10" s="22"/>
-      <c r="AT10" s="22"/>
-      <c r="AU10" s="22"/>
-      <c r="AV10" s="22"/>
-      <c r="AW10" s="22"/>
-      <c r="AX10" s="22"/>
-      <c r="AY10" s="22"/>
-      <c r="AZ10" s="22"/>
-      <c r="BA10" s="22"/>
-      <c r="BB10" s="22"/>
-      <c r="BC10" s="22"/>
-      <c r="BD10" s="22"/>
-      <c r="BE10" s="22"/>
-      <c r="BF10" s="22"/>
-      <c r="BG10" s="22"/>
-      <c r="BH10" s="22"/>
-      <c r="BI10" s="22"/>
-      <c r="BJ10" s="22"/>
-      <c r="BK10" s="22"/>
-      <c r="BL10" s="22"/>
-      <c r="BM10" s="22"/>
-      <c r="BN10" s="22"/>
-      <c r="BO10" s="22"/>
-      <c r="BP10" s="22"/>
-      <c r="BQ10" s="22"/>
-      <c r="BR10" s="22"/>
-      <c r="BS10" s="22"/>
-      <c r="BT10" s="22"/>
-      <c r="BU10" s="22"/>
-      <c r="BV10" s="22"/>
-      <c r="BW10" s="22"/>
-      <c r="BX10" s="22"/>
-      <c r="BY10" s="22"/>
-      <c r="BZ10" s="22"/>
-      <c r="CA10" s="22"/>
-      <c r="CB10" s="22"/>
-      <c r="CC10" s="22"/>
-      <c r="CD10" s="22"/>
-      <c r="CE10" s="22"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="27"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="27"/>
+      <c r="AV10" s="27"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="14"/>
+      <c r="AY10" s="14"/>
+      <c r="AZ10" s="14"/>
+      <c r="BA10" s="14"/>
+      <c r="BB10" s="27"/>
+      <c r="BC10" s="27"/>
+      <c r="BD10" s="14"/>
+      <c r="BE10" s="14"/>
+      <c r="BF10" s="14"/>
+      <c r="BG10" s="14"/>
+      <c r="BH10" s="14"/>
+      <c r="BI10" s="27"/>
+      <c r="BJ10" s="27"/>
+      <c r="BK10" s="14"/>
+      <c r="BL10" s="14"/>
+      <c r="BM10" s="14"/>
+      <c r="BN10" s="14"/>
+      <c r="BO10" s="14"/>
+      <c r="BP10" s="27"/>
+      <c r="BQ10" s="27"/>
+      <c r="BR10" s="14"/>
+      <c r="BS10" s="14"/>
+      <c r="BT10" s="14"/>
+      <c r="BU10" s="14"/>
+      <c r="BV10" s="14"/>
+      <c r="BW10" s="27"/>
+      <c r="BX10" s="27"/>
+      <c r="BY10" s="14"/>
+      <c r="BZ10" s="14"/>
+      <c r="CA10" s="14"/>
+      <c r="CB10" s="14"/>
+      <c r="CC10" s="14"/>
+      <c r="CD10" s="27"/>
+      <c r="CE10" s="27"/>
     </row>
-    <row r="11" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A11" s="17"/>
-      <c r="B11" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="47">
-        <v>45578</v>
-      </c>
-      <c r="E11" s="47">
-        <f>D11+2</f>
-        <v>45580</v>
+      <c r="B11" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="41">
+        <v>45572</v>
+      </c>
+      <c r="E11" s="41">
+        <f t="shared" si="23"/>
+        <v>45573</v>
       </c>
       <c r="F11" s="22"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="27"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
@@ -3236,32 +3286,32 @@
       <c r="CD11" s="27"/>
       <c r="CE11" s="27"/>
     </row>
-    <row r="12" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="17"/>
-      <c r="B12" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="47">
-        <v>45578</v>
-      </c>
-      <c r="E12" s="47">
-        <f>D12+3</f>
-        <v>45581</v>
+      <c r="B12" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="41">
+        <v>45572</v>
+      </c>
+      <c r="E12" s="41">
+        <f t="shared" si="23"/>
+        <v>45573</v>
       </c>
       <c r="F12" s="22"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="27"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
       <c r="S12" s="27"/>
@@ -3330,24 +3380,24 @@
       <c r="CD12" s="27"/>
       <c r="CE12" s="27"/>
     </row>
-    <row r="13" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A13" s="17"/>
-      <c r="B13" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="47">
-        <v>45581</v>
-      </c>
-      <c r="E13" s="47">
-        <f>D13+2</f>
-        <v>45583</v>
+      <c r="B13" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="41">
+        <v>45572</v>
+      </c>
+      <c r="E13" s="41">
+        <f t="shared" si="23"/>
+        <v>45573</v>
       </c>
       <c r="F13" s="22"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
@@ -3424,35 +3474,35 @@
       <c r="CD13" s="27"/>
       <c r="CE13" s="27"/>
     </row>
-    <row r="14" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="17"/>
-      <c r="B14" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="47">
-        <v>45581</v>
-      </c>
-      <c r="E14" s="47">
-        <f>D14+3</f>
-        <v>45584</v>
+      <c r="B14" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="41">
+        <v>45575</v>
+      </c>
+      <c r="E14" s="41">
+        <f>D14+2</f>
+        <v>45577</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="27"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
       <c r="M14" s="27"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="27"/>
       <c r="T14" s="27"/>
       <c r="U14" s="14"/>
       <c r="V14" s="14"/>
@@ -3518,114 +3568,107 @@
       <c r="CD14" s="27"/>
       <c r="CE14" s="27"/>
     </row>
-    <row r="15" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A15" s="17"/>
-      <c r="B15" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="47">
-        <v>45584</v>
-      </c>
-      <c r="E15" s="47">
-        <f>D15+2</f>
-        <v>45586</v>
-      </c>
+      <c r="B15" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="14"/>
-      <c r="AK15" s="14"/>
-      <c r="AL15" s="14"/>
-      <c r="AM15" s="14"/>
-      <c r="AN15" s="27"/>
-      <c r="AO15" s="27"/>
-      <c r="AP15" s="14"/>
-      <c r="AQ15" s="14"/>
-      <c r="AR15" s="14"/>
-      <c r="AS15" s="14"/>
-      <c r="AT15" s="14"/>
-      <c r="AU15" s="27"/>
-      <c r="AV15" s="27"/>
-      <c r="AW15" s="14"/>
-      <c r="AX15" s="14"/>
-      <c r="AY15" s="14"/>
-      <c r="AZ15" s="14"/>
-      <c r="BA15" s="14"/>
-      <c r="BB15" s="27"/>
-      <c r="BC15" s="27"/>
-      <c r="BD15" s="14"/>
-      <c r="BE15" s="14"/>
-      <c r="BF15" s="14"/>
-      <c r="BG15" s="14"/>
-      <c r="BH15" s="14"/>
-      <c r="BI15" s="27"/>
-      <c r="BJ15" s="27"/>
-      <c r="BK15" s="14"/>
-      <c r="BL15" s="14"/>
-      <c r="BM15" s="14"/>
-      <c r="BN15" s="14"/>
-      <c r="BO15" s="14"/>
-      <c r="BP15" s="27"/>
-      <c r="BQ15" s="27"/>
-      <c r="BR15" s="14"/>
-      <c r="BS15" s="14"/>
-      <c r="BT15" s="14"/>
-      <c r="BU15" s="14"/>
-      <c r="BV15" s="14"/>
-      <c r="BW15" s="27"/>
-      <c r="BX15" s="27"/>
-      <c r="BY15" s="14"/>
-      <c r="BZ15" s="14"/>
-      <c r="CA15" s="14"/>
-      <c r="CB15" s="14"/>
-      <c r="CC15" s="14"/>
-      <c r="CD15" s="27"/>
-      <c r="CE15" s="27"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="22"/>
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="22"/>
+      <c r="AO15" s="22"/>
+      <c r="AP15" s="22"/>
+      <c r="AQ15" s="22"/>
+      <c r="AR15" s="22"/>
+      <c r="AS15" s="22"/>
+      <c r="AT15" s="22"/>
+      <c r="AU15" s="22"/>
+      <c r="AV15" s="22"/>
+      <c r="AW15" s="22"/>
+      <c r="AX15" s="22"/>
+      <c r="AY15" s="22"/>
+      <c r="AZ15" s="22"/>
+      <c r="BA15" s="22"/>
+      <c r="BB15" s="22"/>
+      <c r="BC15" s="22"/>
+      <c r="BD15" s="22"/>
+      <c r="BE15" s="22"/>
+      <c r="BF15" s="22"/>
+      <c r="BG15" s="22"/>
+      <c r="BH15" s="22"/>
+      <c r="BI15" s="22"/>
+      <c r="BJ15" s="22"/>
+      <c r="BK15" s="22"/>
+      <c r="BL15" s="22"/>
+      <c r="BM15" s="22"/>
+      <c r="BN15" s="22"/>
+      <c r="BO15" s="22"/>
+      <c r="BP15" s="22"/>
+      <c r="BQ15" s="22"/>
+      <c r="BR15" s="22"/>
+      <c r="BS15" s="22"/>
+      <c r="BT15" s="22"/>
+      <c r="BU15" s="22"/>
+      <c r="BV15" s="22"/>
+      <c r="BW15" s="22"/>
+      <c r="BX15" s="22"/>
+      <c r="BY15" s="22"/>
+      <c r="BZ15" s="22"/>
+      <c r="CA15" s="22"/>
+      <c r="CB15" s="22"/>
+      <c r="CC15" s="22"/>
+      <c r="CD15" s="22"/>
+      <c r="CE15" s="22"/>
     </row>
-    <row r="16" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A16" s="17"/>
       <c r="B16" s="45" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D16" s="47">
-        <v>45580</v>
+        <v>45578</v>
       </c>
       <c r="E16" s="47">
         <f>D16+2</f>
-        <v>45582</v>
+        <v>45580</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="14"/>
@@ -3634,11 +3677,11 @@
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
       <c r="S16" s="27"/>
       <c r="T16" s="27"/>
@@ -3706,20 +3749,20 @@
       <c r="CD16" s="27"/>
       <c r="CE16" s="27"/>
     </row>
-    <row r="17" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="17"/>
       <c r="B17" s="45" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" s="47">
-        <v>45586</v>
+        <v>45578</v>
       </c>
       <c r="E17" s="47">
-        <f>D17</f>
-        <v>45586</v>
+        <f>D17+3</f>
+        <v>45581</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="14"/>
@@ -3728,15 +3771,15 @@
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
       <c r="S17" s="27"/>
       <c r="T17" s="27"/>
-      <c r="U17" s="34"/>
+      <c r="U17" s="14"/>
       <c r="V17" s="14"/>
       <c r="W17" s="14"/>
       <c r="X17" s="14"/>
@@ -3800,109 +3843,114 @@
       <c r="CD17" s="27"/>
       <c r="CE17" s="27"/>
     </row>
-    <row r="18" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A18" s="17"/>
-      <c r="B18" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="12"/>
+      <c r="B18" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="47">
+        <v>45581</v>
+      </c>
+      <c r="E18" s="47">
+        <f>D18+2</f>
+        <v>45583</v>
+      </c>
       <c r="F18" s="22"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="30"/>
-      <c r="AJ18" s="30"/>
-      <c r="AK18" s="30"/>
-      <c r="AL18" s="30"/>
-      <c r="AM18" s="30"/>
-      <c r="AN18" s="30"/>
-      <c r="AO18" s="30"/>
-      <c r="AP18" s="30"/>
-      <c r="AQ18" s="30"/>
-      <c r="AR18" s="30"/>
-      <c r="AS18" s="30"/>
-      <c r="AT18" s="30"/>
-      <c r="AU18" s="30"/>
-      <c r="AV18" s="30"/>
-      <c r="AW18" s="30"/>
-      <c r="AX18" s="30"/>
-      <c r="AY18" s="30"/>
-      <c r="AZ18" s="30"/>
-      <c r="BA18" s="30"/>
-      <c r="BB18" s="30"/>
-      <c r="BC18" s="30"/>
-      <c r="BD18" s="30"/>
-      <c r="BE18" s="30"/>
-      <c r="BF18" s="30"/>
-      <c r="BG18" s="30"/>
-      <c r="BH18" s="30"/>
-      <c r="BI18" s="30"/>
-      <c r="BJ18" s="30"/>
-      <c r="BK18" s="30"/>
-      <c r="BL18" s="30"/>
-      <c r="BM18" s="30"/>
-      <c r="BN18" s="30"/>
-      <c r="BO18" s="30"/>
-      <c r="BP18" s="30"/>
-      <c r="BQ18" s="30"/>
-      <c r="BR18" s="30"/>
-      <c r="BS18" s="30"/>
-      <c r="BT18" s="30"/>
-      <c r="BU18" s="30"/>
-      <c r="BV18" s="30"/>
-      <c r="BW18" s="30"/>
-      <c r="BX18" s="30"/>
-      <c r="BY18" s="30"/>
-      <c r="BZ18" s="30"/>
-      <c r="CA18" s="30"/>
-      <c r="CB18" s="30"/>
-      <c r="CC18" s="30"/>
-      <c r="CD18" s="30"/>
-      <c r="CE18" s="30"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="27"/>
+      <c r="AO18" s="27"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="14"/>
+      <c r="AR18" s="14"/>
+      <c r="AS18" s="14"/>
+      <c r="AT18" s="14"/>
+      <c r="AU18" s="27"/>
+      <c r="AV18" s="27"/>
+      <c r="AW18" s="14"/>
+      <c r="AX18" s="14"/>
+      <c r="AY18" s="14"/>
+      <c r="AZ18" s="14"/>
+      <c r="BA18" s="14"/>
+      <c r="BB18" s="27"/>
+      <c r="BC18" s="27"/>
+      <c r="BD18" s="14"/>
+      <c r="BE18" s="14"/>
+      <c r="BF18" s="14"/>
+      <c r="BG18" s="14"/>
+      <c r="BH18" s="14"/>
+      <c r="BI18" s="27"/>
+      <c r="BJ18" s="27"/>
+      <c r="BK18" s="14"/>
+      <c r="BL18" s="14"/>
+      <c r="BM18" s="14"/>
+      <c r="BN18" s="14"/>
+      <c r="BO18" s="14"/>
+      <c r="BP18" s="27"/>
+      <c r="BQ18" s="27"/>
+      <c r="BR18" s="14"/>
+      <c r="BS18" s="14"/>
+      <c r="BT18" s="14"/>
+      <c r="BU18" s="14"/>
+      <c r="BV18" s="14"/>
+      <c r="BW18" s="27"/>
+      <c r="BX18" s="27"/>
+      <c r="BY18" s="14"/>
+      <c r="BZ18" s="14"/>
+      <c r="CA18" s="14"/>
+      <c r="CB18" s="14"/>
+      <c r="CC18" s="14"/>
+      <c r="CD18" s="27"/>
+      <c r="CE18" s="27"/>
     </row>
-    <row r="19" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
-        <v>1</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="53">
-        <v>45588</v>
-      </c>
-      <c r="E19" s="53">
-        <f>D19+4</f>
-        <v>45592</v>
+    <row r="19" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A19" s="17"/>
+      <c r="B19" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="47">
+        <v>45581</v>
+      </c>
+      <c r="E19" s="47">
+        <f>D19+3</f>
+        <v>45584</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="14"/>
@@ -3914,18 +3962,18 @@
       <c r="M19" s="27"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="27"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
       <c r="T19" s="27"/>
       <c r="U19" s="14"/>
       <c r="V19" s="14"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
       <c r="AB19" s="14"/>
       <c r="AC19" s="14"/>
       <c r="AD19" s="14"/>
@@ -3983,20 +4031,20 @@
       <c r="CD19" s="27"/>
       <c r="CE19" s="27"/>
     </row>
-    <row r="20" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A20" s="17"/>
-      <c r="B20" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="53">
-        <v>45585</v>
-      </c>
-      <c r="E20" s="53">
-        <f>D20+3</f>
-        <v>45588</v>
+      <c r="B20" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="47">
+        <v>45584</v>
+      </c>
+      <c r="E20" s="47">
+        <f>D20+2</f>
+        <v>45586</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="14"/>
@@ -4011,11 +4059,11 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
-      <c r="S20" s="27"/>
+      <c r="S20" s="28"/>
       <c r="T20" s="28"/>
       <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
       <c r="Z20" s="27"/>
@@ -4077,20 +4125,20 @@
       <c r="CD20" s="27"/>
       <c r="CE20" s="27"/>
     </row>
-    <row r="21" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A21" s="17"/>
-      <c r="B21" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="53">
-        <v>45584</v>
-      </c>
-      <c r="E21" s="53">
+      <c r="B21" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="47">
+        <v>45580</v>
+      </c>
+      <c r="E21" s="47">
         <f>D21+2</f>
-        <v>45586</v>
+        <v>45582</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="14"/>
@@ -4101,13 +4149,13 @@
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
       <c r="R21" s="14"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="64"/>
-      <c r="U21" s="64"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="14"/>
       <c r="V21" s="14"/>
       <c r="W21" s="14"/>
       <c r="X21" s="14"/>
@@ -4171,20 +4219,20 @@
       <c r="CD21" s="27"/>
       <c r="CE21" s="27"/>
     </row>
-    <row r="22" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A22" s="17"/>
-      <c r="B22" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="53">
-        <v>45593</v>
-      </c>
-      <c r="E22" s="53">
-        <f>D22+6</f>
-        <v>45599</v>
+      <c r="B22" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="47">
+        <v>45586</v>
+      </c>
+      <c r="E22" s="47">
+        <f>D22</f>
+        <v>45586</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="14"/>
@@ -4201,21 +4249,21 @@
       <c r="R22" s="14"/>
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
-      <c r="U22" s="14"/>
+      <c r="U22" s="34"/>
       <c r="V22" s="14"/>
       <c r="W22" s="14"/>
       <c r="X22" s="14"/>
       <c r="Y22" s="14"/>
       <c r="Z22" s="27"/>
       <c r="AA22" s="27"/>
-      <c r="AB22" s="66"/>
-      <c r="AC22" s="66"/>
-      <c r="AD22" s="66"/>
-      <c r="AE22" s="66"/>
-      <c r="AF22" s="66"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="66"/>
-      <c r="AI22" s="75"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="14"/>
       <c r="AJ22" s="14"/>
       <c r="AK22" s="14"/>
       <c r="AL22" s="14"/>
@@ -4265,114 +4313,109 @@
       <c r="CD22" s="27"/>
       <c r="CE22" s="27"/>
     </row>
-    <row r="23" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="17"/>
-      <c r="B23" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="53">
+      <c r="B23" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="49"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="30"/>
+      <c r="AK23" s="30"/>
+      <c r="AL23" s="30"/>
+      <c r="AM23" s="30"/>
+      <c r="AN23" s="30"/>
+      <c r="AO23" s="30"/>
+      <c r="AP23" s="30"/>
+      <c r="AQ23" s="30"/>
+      <c r="AR23" s="30"/>
+      <c r="AS23" s="30"/>
+      <c r="AT23" s="30"/>
+      <c r="AU23" s="30"/>
+      <c r="AV23" s="30"/>
+      <c r="AW23" s="30"/>
+      <c r="AX23" s="30"/>
+      <c r="AY23" s="30"/>
+      <c r="AZ23" s="30"/>
+      <c r="BA23" s="30"/>
+      <c r="BB23" s="30"/>
+      <c r="BC23" s="30"/>
+      <c r="BD23" s="30"/>
+      <c r="BE23" s="30"/>
+      <c r="BF23" s="30"/>
+      <c r="BG23" s="30"/>
+      <c r="BH23" s="30"/>
+      <c r="BI23" s="30"/>
+      <c r="BJ23" s="30"/>
+      <c r="BK23" s="30"/>
+      <c r="BL23" s="30"/>
+      <c r="BM23" s="30"/>
+      <c r="BN23" s="30"/>
+      <c r="BO23" s="30"/>
+      <c r="BP23" s="30"/>
+      <c r="BQ23" s="30"/>
+      <c r="BR23" s="30"/>
+      <c r="BS23" s="30"/>
+      <c r="BT23" s="30"/>
+      <c r="BU23" s="30"/>
+      <c r="BV23" s="30"/>
+      <c r="BW23" s="30"/>
+      <c r="BX23" s="30"/>
+      <c r="BY23" s="30"/>
+      <c r="BZ23" s="30"/>
+      <c r="CA23" s="30"/>
+      <c r="CB23" s="30"/>
+      <c r="CC23" s="30"/>
+      <c r="CD23" s="30"/>
+      <c r="CE23" s="30"/>
+    </row>
+    <row r="24" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A24" s="17">
+        <v>1</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="53">
         <v>45588</v>
       </c>
-      <c r="E23" s="53">
-        <f>D23+3</f>
-        <v>45591</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="27"/>
-      <c r="AH23" s="27"/>
-      <c r="AI23" s="14"/>
-      <c r="AJ23" s="14"/>
-      <c r="AK23" s="14"/>
-      <c r="AL23" s="14"/>
-      <c r="AM23" s="14"/>
-      <c r="AN23" s="27"/>
-      <c r="AO23" s="27"/>
-      <c r="AP23" s="14"/>
-      <c r="AQ23" s="14"/>
-      <c r="AR23" s="14"/>
-      <c r="AS23" s="14"/>
-      <c r="AT23" s="14"/>
-      <c r="AU23" s="27"/>
-      <c r="AV23" s="27"/>
-      <c r="AW23" s="14"/>
-      <c r="AX23" s="14"/>
-      <c r="AY23" s="14"/>
-      <c r="AZ23" s="14"/>
-      <c r="BA23" s="14"/>
-      <c r="BB23" s="27"/>
-      <c r="BC23" s="27"/>
-      <c r="BD23" s="14"/>
-      <c r="BE23" s="14"/>
-      <c r="BF23" s="14"/>
-      <c r="BG23" s="14"/>
-      <c r="BH23" s="14"/>
-      <c r="BI23" s="27"/>
-      <c r="BJ23" s="27"/>
-      <c r="BK23" s="14"/>
-      <c r="BL23" s="14"/>
-      <c r="BM23" s="14"/>
-      <c r="BN23" s="14"/>
-      <c r="BO23" s="14"/>
-      <c r="BP23" s="27"/>
-      <c r="BQ23" s="27"/>
-      <c r="BR23" s="14"/>
-      <c r="BS23" s="14"/>
-      <c r="BT23" s="14"/>
-      <c r="BU23" s="14"/>
-      <c r="BV23" s="14"/>
-      <c r="BW23" s="27"/>
-      <c r="BX23" s="27"/>
-      <c r="BY23" s="14"/>
-      <c r="BZ23" s="14"/>
-      <c r="CA23" s="14"/>
-      <c r="CB23" s="14"/>
-      <c r="CC23" s="14"/>
-      <c r="CD23" s="27"/>
-      <c r="CE23" s="27"/>
-    </row>
-    <row r="24" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="53">
-        <v>45590</v>
-      </c>
       <c r="E24" s="53">
-        <f>D24+3</f>
-        <v>45593</v>
+        <f>D24+4</f>
+        <v>45592</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="14"/>
@@ -4391,12 +4434,12 @@
       <c r="T24" s="27"/>
       <c r="U24" s="14"/>
       <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="14"/>
       <c r="AC24" s="14"/>
       <c r="AD24" s="14"/>
       <c r="AE24" s="14"/>
@@ -4453,20 +4496,20 @@
       <c r="CD24" s="27"/>
       <c r="CE24" s="27"/>
     </row>
-    <row r="25" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A25" s="17"/>
-      <c r="B25" s="54" t="s">
-        <v>21</v>
+      <c r="B25" s="51" t="s">
+        <v>36</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D25" s="53">
-        <v>45593</v>
+        <v>45585</v>
       </c>
       <c r="E25" s="53">
         <f>D25+3</f>
-        <v>45596</v>
+        <v>45588</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="14"/>
@@ -4482,18 +4525,18 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
       <c r="Z25" s="27"/>
       <c r="AA25" s="27"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="34"/>
-      <c r="AD25" s="34"/>
-      <c r="AE25" s="34"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
       <c r="AF25" s="14"/>
       <c r="AG25" s="27"/>
       <c r="AH25" s="27"/>
@@ -4547,20 +4590,20 @@
       <c r="CD25" s="27"/>
       <c r="CE25" s="27"/>
     </row>
-    <row r="26" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A26" s="17"/>
-      <c r="B26" s="54" t="s">
-        <v>22</v>
+      <c r="B26" s="67" t="s">
+        <v>26</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="53">
-        <v>45591</v>
+        <v>45584</v>
       </c>
       <c r="E26" s="53">
         <f>D26+2</f>
-        <v>45593</v>
+        <v>45586</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="14"/>
@@ -4575,16 +4618,16 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="14"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
       <c r="V26" s="14"/>
       <c r="W26" s="14"/>
       <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
-      <c r="Z26" s="64"/>
-      <c r="AA26" s="64"/>
-      <c r="AB26" s="64"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="14"/>
       <c r="AC26" s="14"/>
       <c r="AD26" s="14"/>
       <c r="AE26" s="14"/>
@@ -4641,10 +4684,10 @@
       <c r="CD26" s="27"/>
       <c r="CE26" s="27"/>
     </row>
-    <row r="27" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A27" s="17"/>
-      <c r="B27" s="54" t="s">
-        <v>23</v>
+      <c r="B27" s="51" t="s">
+        <v>19</v>
       </c>
       <c r="C27" s="52" t="s">
         <v>34</v>
@@ -4653,8 +4696,8 @@
         <v>45593</v>
       </c>
       <c r="E27" s="53">
-        <f>D27+4</f>
-        <v>45597</v>
+        <f>D27+6</f>
+        <v>45599</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="14"/>
@@ -4678,14 +4721,14 @@
       <c r="Y27" s="14"/>
       <c r="Z27" s="27"/>
       <c r="AA27" s="27"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="28"/>
-      <c r="AG27" s="27"/>
-      <c r="AH27" s="27"/>
-      <c r="AI27" s="14"/>
+      <c r="AB27" s="66"/>
+      <c r="AC27" s="66"/>
+      <c r="AD27" s="66"/>
+      <c r="AE27" s="66"/>
+      <c r="AF27" s="66"/>
+      <c r="AG27" s="66"/>
+      <c r="AH27" s="66"/>
+      <c r="AI27" s="69"/>
       <c r="AJ27" s="14"/>
       <c r="AK27" s="14"/>
       <c r="AL27" s="14"/>
@@ -4735,20 +4778,20 @@
       <c r="CD27" s="27"/>
       <c r="CE27" s="27"/>
     </row>
-    <row r="28" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A28" s="17"/>
-      <c r="B28" s="68" t="s">
-        <v>40</v>
+      <c r="B28" s="51" t="s">
+        <v>37</v>
       </c>
       <c r="C28" s="52" t="s">
         <v>32</v>
       </c>
       <c r="D28" s="53">
-        <v>45598</v>
+        <v>45588</v>
       </c>
       <c r="E28" s="53">
         <f>D28+3</f>
-        <v>45601</v>
+        <v>45591</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="14"/>
@@ -4767,20 +4810,20 @@
       <c r="T28" s="27"/>
       <c r="U28" s="14"/>
       <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="27"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
       <c r="AA28" s="27"/>
       <c r="AB28" s="14"/>
       <c r="AC28" s="14"/>
       <c r="AD28" s="14"/>
       <c r="AE28" s="14"/>
       <c r="AF28" s="14"/>
-      <c r="AG28" s="35"/>
-      <c r="AH28" s="35"/>
-      <c r="AI28" s="35"/>
-      <c r="AJ28" s="35"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="14"/>
+      <c r="AJ28" s="14"/>
       <c r="AK28" s="14"/>
       <c r="AL28" s="14"/>
       <c r="AM28" s="14"/>
@@ -4829,20 +4872,20 @@
       <c r="CD28" s="27"/>
       <c r="CE28" s="27"/>
     </row>
-    <row r="29" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A29" s="17"/>
-      <c r="B29" s="68" t="s">
-        <v>41</v>
+      <c r="B29" s="51" t="s">
+        <v>38</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D29" s="53">
         <v>45590</v>
       </c>
       <c r="E29" s="53">
-        <f>D29+4</f>
-        <v>45594</v>
+        <f>D29+3</f>
+        <v>45593</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="14"/>
@@ -4863,11 +4906,11 @@
       <c r="V29" s="14"/>
       <c r="W29" s="14"/>
       <c r="X29" s="14"/>
-      <c r="Y29" s="66"/>
-      <c r="Z29" s="66"/>
-      <c r="AA29" s="66"/>
-      <c r="AB29" s="66"/>
-      <c r="AC29" s="66"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="14"/>
       <c r="AD29" s="14"/>
       <c r="AE29" s="14"/>
       <c r="AF29" s="14"/>
@@ -4923,20 +4966,20 @@
       <c r="CD29" s="27"/>
       <c r="CE29" s="27"/>
     </row>
-    <row r="30" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A30" s="17"/>
-      <c r="B30" s="68" t="s">
-        <v>42</v>
+      <c r="B30" s="54" t="s">
+        <v>20</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D30" s="53">
-        <v>45591</v>
+        <v>45593</v>
       </c>
       <c r="E30" s="53">
         <f>D30+3</f>
-        <v>45594</v>
+        <v>45596</v>
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="14"/>
@@ -4958,12 +5001,12 @@
       <c r="W30" s="14"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="14"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="34"/>
+      <c r="AD30" s="34"/>
+      <c r="AE30" s="34"/>
       <c r="AF30" s="14"/>
       <c r="AG30" s="27"/>
       <c r="AH30" s="27"/>
@@ -5017,20 +5060,20 @@
       <c r="CD30" s="27"/>
       <c r="CE30" s="27"/>
     </row>
-    <row r="31" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="68" t="s">
-        <v>43</v>
+      <c r="B31" s="54" t="s">
+        <v>21</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D31" s="53">
-        <v>45596</v>
+        <v>45591</v>
       </c>
       <c r="E31" s="53">
-        <f>D31+3</f>
-        <v>45599</v>
+        <f>D31+2</f>
+        <v>45593</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="14"/>
@@ -5052,16 +5095,16 @@
       <c r="W31" s="14"/>
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="14"/>
+      <c r="Z31" s="64"/>
+      <c r="AA31" s="64"/>
+      <c r="AB31" s="64"/>
       <c r="AC31" s="14"/>
       <c r="AD31" s="14"/>
-      <c r="AE31" s="35"/>
-      <c r="AF31" s="35"/>
-      <c r="AG31" s="35"/>
-      <c r="AH31" s="35"/>
-      <c r="AI31" s="35"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="27"/>
+      <c r="AH31" s="27"/>
+      <c r="AI31" s="14"/>
       <c r="AJ31" s="14"/>
       <c r="AK31" s="14"/>
       <c r="AL31" s="14"/>
@@ -5111,20 +5154,20 @@
       <c r="CD31" s="27"/>
       <c r="CE31" s="27"/>
     </row>
-    <row r="32" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A32" s="17"/>
-      <c r="B32" s="68" t="s">
-        <v>44</v>
+      <c r="B32" s="54" t="s">
+        <v>22</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="D32" s="53">
+        <v>45593</v>
+      </c>
+      <c r="E32" s="53">
+        <f>D32+4</f>
         <v>45597</v>
-      </c>
-      <c r="E32" s="53">
-        <f>D32+3</f>
-        <v>45600</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="14"/>
@@ -5148,14 +5191,14 @@
       <c r="Y32" s="14"/>
       <c r="Z32" s="27"/>
       <c r="AA32" s="27"/>
-      <c r="AB32" s="14"/>
-      <c r="AC32" s="14"/>
-      <c r="AD32" s="14"/>
-      <c r="AE32" s="14"/>
-      <c r="AF32" s="64"/>
-      <c r="AG32" s="64"/>
-      <c r="AH32" s="64"/>
-      <c r="AI32" s="64"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
+      <c r="AG32" s="27"/>
+      <c r="AH32" s="27"/>
+      <c r="AI32" s="14"/>
       <c r="AJ32" s="14"/>
       <c r="AK32" s="14"/>
       <c r="AL32" s="14"/>
@@ -5205,19 +5248,19 @@
       <c r="CD32" s="27"/>
       <c r="CE32" s="27"/>
     </row>
-    <row r="33" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A33" s="17"/>
       <c r="B33" s="68" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D33" s="53">
-        <v>45599</v>
+        <v>45598</v>
       </c>
       <c r="E33" s="53">
-        <f>D33+2</f>
+        <f>D33+3</f>
         <v>45601</v>
       </c>
       <c r="F33" s="22"/>
@@ -5247,10 +5290,10 @@
       <c r="AD33" s="14"/>
       <c r="AE33" s="14"/>
       <c r="AF33" s="14"/>
-      <c r="AG33" s="27"/>
-      <c r="AH33" s="64"/>
-      <c r="AI33" s="64"/>
-      <c r="AJ33" s="64"/>
+      <c r="AG33" s="35"/>
+      <c r="AH33" s="35"/>
+      <c r="AI33" s="35"/>
+      <c r="AJ33" s="35"/>
       <c r="AK33" s="14"/>
       <c r="AL33" s="14"/>
       <c r="AM33" s="14"/>
@@ -5299,20 +5342,20 @@
       <c r="CD33" s="27"/>
       <c r="CE33" s="27"/>
     </row>
-    <row r="34" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A34" s="17"/>
       <c r="B34" s="68" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C34" s="52" t="s">
         <v>34</v>
       </c>
       <c r="D34" s="53">
-        <v>45598</v>
+        <v>45590</v>
       </c>
       <c r="E34" s="53">
         <f>D34+4</f>
-        <v>45602</v>
+        <v>45594</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="14"/>
@@ -5333,19 +5376,19 @@
       <c r="V34" s="14"/>
       <c r="W34" s="14"/>
       <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="27"/>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="14"/>
-      <c r="AC34" s="14"/>
+      <c r="Y34" s="66"/>
+      <c r="Z34" s="66"/>
+      <c r="AA34" s="66"/>
+      <c r="AB34" s="66"/>
+      <c r="AC34" s="66"/>
       <c r="AD34" s="14"/>
       <c r="AE34" s="14"/>
       <c r="AF34" s="14"/>
-      <c r="AG34" s="28"/>
-      <c r="AH34" s="28"/>
-      <c r="AI34" s="28"/>
-      <c r="AJ34" s="28"/>
-      <c r="AK34" s="28"/>
+      <c r="AG34" s="27"/>
+      <c r="AH34" s="27"/>
+      <c r="AI34" s="14"/>
+      <c r="AJ34" s="14"/>
+      <c r="AK34" s="14"/>
       <c r="AL34" s="14"/>
       <c r="AM34" s="14"/>
       <c r="AN34" s="27"/>
@@ -5393,20 +5436,20 @@
       <c r="CD34" s="27"/>
       <c r="CE34" s="27"/>
     </row>
-    <row r="35" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A35" s="17"/>
       <c r="B35" s="68" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D35" s="53">
-        <v>45598</v>
+        <v>45591</v>
       </c>
       <c r="E35" s="53">
         <f>D35+3</f>
-        <v>45601</v>
+        <v>45594</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="14"/>
@@ -5428,17 +5471,17 @@
       <c r="W35" s="14"/>
       <c r="X35" s="14"/>
       <c r="Y35" s="14"/>
-      <c r="Z35" s="27"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="14"/>
-      <c r="AC35" s="14"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29"/>
       <c r="AD35" s="14"/>
       <c r="AE35" s="14"/>
       <c r="AF35" s="14"/>
-      <c r="AG35" s="66"/>
-      <c r="AH35" s="66"/>
-      <c r="AI35" s="66"/>
-      <c r="AJ35" s="66"/>
+      <c r="AG35" s="27"/>
+      <c r="AH35" s="27"/>
+      <c r="AI35" s="14"/>
+      <c r="AJ35" s="14"/>
       <c r="AK35" s="14"/>
       <c r="AL35" s="14"/>
       <c r="AM35" s="14"/>
@@ -5487,20 +5530,20 @@
       <c r="CD35" s="27"/>
       <c r="CE35" s="27"/>
     </row>
-    <row r="36" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A36" s="17"/>
       <c r="B36" s="68" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D36" s="53">
-        <v>45601</v>
+        <v>45596</v>
       </c>
       <c r="E36" s="53">
-        <f>D36+4</f>
-        <v>45605</v>
+        <f>D36+3</f>
+        <v>45599</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="14"/>
@@ -5527,16 +5570,16 @@
       <c r="AB36" s="14"/>
       <c r="AC36" s="14"/>
       <c r="AD36" s="14"/>
-      <c r="AE36" s="14"/>
-      <c r="AF36" s="14"/>
-      <c r="AG36" s="27"/>
-      <c r="AH36" s="27"/>
-      <c r="AI36" s="14"/>
-      <c r="AJ36" s="29"/>
-      <c r="AK36" s="29"/>
-      <c r="AL36" s="29"/>
-      <c r="AM36" s="29"/>
-      <c r="AN36" s="29"/>
+      <c r="AE36" s="35"/>
+      <c r="AF36" s="35"/>
+      <c r="AG36" s="35"/>
+      <c r="AH36" s="35"/>
+      <c r="AI36" s="35"/>
+      <c r="AJ36" s="14"/>
+      <c r="AK36" s="14"/>
+      <c r="AL36" s="14"/>
+      <c r="AM36" s="14"/>
+      <c r="AN36" s="27"/>
       <c r="AO36" s="27"/>
       <c r="AP36" s="14"/>
       <c r="AQ36" s="14"/>
@@ -5581,20 +5624,20 @@
       <c r="CD36" s="27"/>
       <c r="CE36" s="27"/>
     </row>
-    <row r="37" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="17"/>
       <c r="B37" s="68" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C37" s="52" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="53">
-        <v>45605</v>
+        <v>45597</v>
       </c>
       <c r="E37" s="53">
-        <f t="shared" ref="E37:E42" si="23">D37+1</f>
-        <v>45606</v>
+        <f>D37+3</f>
+        <v>45600</v>
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="14"/>
@@ -5622,16 +5665,16 @@
       <c r="AC37" s="14"/>
       <c r="AD37" s="14"/>
       <c r="AE37" s="14"/>
-      <c r="AF37" s="14"/>
-      <c r="AG37" s="27"/>
-      <c r="AH37" s="27"/>
-      <c r="AI37" s="14"/>
+      <c r="AF37" s="64"/>
+      <c r="AG37" s="64"/>
+      <c r="AH37" s="64"/>
+      <c r="AI37" s="64"/>
       <c r="AJ37" s="14"/>
       <c r="AK37" s="14"/>
       <c r="AL37" s="14"/>
       <c r="AM37" s="14"/>
-      <c r="AN37" s="34"/>
-      <c r="AO37" s="34"/>
+      <c r="AN37" s="27"/>
+      <c r="AO37" s="27"/>
       <c r="AP37" s="14"/>
       <c r="AQ37" s="14"/>
       <c r="AR37" s="14"/>
@@ -5675,20 +5718,20 @@
       <c r="CD37" s="27"/>
       <c r="CE37" s="27"/>
     </row>
-    <row r="38" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A38" s="17"/>
       <c r="B38" s="68" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D38" s="53">
-        <v>45605</v>
+        <v>45599</v>
       </c>
       <c r="E38" s="53">
-        <f t="shared" si="23"/>
-        <v>45606</v>
+        <f>D38+2</f>
+        <v>45601</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="14"/>
@@ -5718,14 +5761,14 @@
       <c r="AE38" s="14"/>
       <c r="AF38" s="14"/>
       <c r="AG38" s="27"/>
-      <c r="AH38" s="27"/>
-      <c r="AI38" s="14"/>
-      <c r="AJ38" s="14"/>
+      <c r="AH38" s="64"/>
+      <c r="AI38" s="64"/>
+      <c r="AJ38" s="64"/>
       <c r="AK38" s="14"/>
       <c r="AL38" s="14"/>
       <c r="AM38" s="14"/>
-      <c r="AN38" s="28"/>
-      <c r="AO38" s="28"/>
+      <c r="AN38" s="27"/>
+      <c r="AO38" s="27"/>
       <c r="AP38" s="14"/>
       <c r="AQ38" s="14"/>
       <c r="AR38" s="14"/>
@@ -5769,20 +5812,20 @@
       <c r="CD38" s="27"/>
       <c r="CE38" s="27"/>
     </row>
-    <row r="39" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A39" s="17"/>
       <c r="B39" s="68" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="D39" s="53">
-        <v>45605</v>
+        <v>45598</v>
       </c>
       <c r="E39" s="53">
-        <f t="shared" si="23"/>
-        <v>45606</v>
+        <f>D39+4</f>
+        <v>45602</v>
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="14"/>
@@ -5811,15 +5854,15 @@
       <c r="AD39" s="14"/>
       <c r="AE39" s="14"/>
       <c r="AF39" s="14"/>
-      <c r="AG39" s="27"/>
-      <c r="AH39" s="27"/>
-      <c r="AI39" s="14"/>
-      <c r="AJ39" s="14"/>
-      <c r="AK39" s="14"/>
+      <c r="AG39" s="28"/>
+      <c r="AH39" s="28"/>
+      <c r="AI39" s="28"/>
+      <c r="AJ39" s="28"/>
+      <c r="AK39" s="28"/>
       <c r="AL39" s="14"/>
       <c r="AM39" s="14"/>
-      <c r="AN39" s="64"/>
-      <c r="AO39" s="64"/>
+      <c r="AN39" s="27"/>
+      <c r="AO39" s="27"/>
       <c r="AP39" s="14"/>
       <c r="AQ39" s="14"/>
       <c r="AR39" s="14"/>
@@ -5863,20 +5906,20 @@
       <c r="CD39" s="27"/>
       <c r="CE39" s="27"/>
     </row>
-    <row r="40" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A40" s="17"/>
       <c r="B40" s="68" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C40" s="52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D40" s="53">
-        <v>45605</v>
+        <v>45598</v>
       </c>
       <c r="E40" s="53">
-        <f t="shared" si="23"/>
-        <v>45606</v>
+        <f>D40+3</f>
+        <v>45601</v>
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="14"/>
@@ -5905,15 +5948,15 @@
       <c r="AD40" s="14"/>
       <c r="AE40" s="14"/>
       <c r="AF40" s="14"/>
-      <c r="AG40" s="27"/>
-      <c r="AH40" s="27"/>
-      <c r="AI40" s="14"/>
-      <c r="AJ40" s="14"/>
+      <c r="AG40" s="66"/>
+      <c r="AH40" s="66"/>
+      <c r="AI40" s="66"/>
+      <c r="AJ40" s="66"/>
       <c r="AK40" s="14"/>
       <c r="AL40" s="14"/>
       <c r="AM40" s="14"/>
-      <c r="AN40" s="35"/>
-      <c r="AO40" s="35"/>
+      <c r="AN40" s="27"/>
+      <c r="AO40" s="27"/>
       <c r="AP40" s="14"/>
       <c r="AQ40" s="14"/>
       <c r="AR40" s="14"/>
@@ -5957,20 +6000,20 @@
       <c r="CD40" s="27"/>
       <c r="CE40" s="27"/>
     </row>
-    <row r="41" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A41" s="17"/>
       <c r="B41" s="68" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" s="53">
+        <v>45601</v>
+      </c>
+      <c r="E41" s="53">
+        <f>D41+4</f>
         <v>45605</v>
-      </c>
-      <c r="E41" s="53">
-        <f t="shared" si="23"/>
-        <v>45606</v>
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="14"/>
@@ -6002,12 +6045,12 @@
       <c r="AG41" s="27"/>
       <c r="AH41" s="27"/>
       <c r="AI41" s="14"/>
-      <c r="AJ41" s="14"/>
-      <c r="AK41" s="14"/>
-      <c r="AL41" s="14"/>
-      <c r="AM41" s="14"/>
+      <c r="AJ41" s="29"/>
+      <c r="AK41" s="29"/>
+      <c r="AL41" s="29"/>
+      <c r="AM41" s="29"/>
       <c r="AN41" s="29"/>
-      <c r="AO41" s="29"/>
+      <c r="AO41" s="27"/>
       <c r="AP41" s="14"/>
       <c r="AQ41" s="14"/>
       <c r="AR41" s="14"/>
@@ -6051,19 +6094,19 @@
       <c r="CD41" s="27"/>
       <c r="CE41" s="27"/>
     </row>
-    <row r="42" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A42" s="17"/>
       <c r="B42" s="68" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C42" s="52" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D42" s="53">
         <v>45605</v>
       </c>
       <c r="E42" s="53">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="E42:E47" si="24">D42+1</f>
         <v>45606</v>
       </c>
       <c r="F42" s="22"/>
@@ -6100,8 +6143,8 @@
       <c r="AK42" s="14"/>
       <c r="AL42" s="14"/>
       <c r="AM42" s="14"/>
-      <c r="AN42" s="66"/>
-      <c r="AO42" s="66"/>
+      <c r="AN42" s="34"/>
+      <c r="AO42" s="34"/>
       <c r="AP42" s="14"/>
       <c r="AQ42" s="14"/>
       <c r="AR42" s="14"/>
@@ -6145,20 +6188,20 @@
       <c r="CD42" s="27"/>
       <c r="CE42" s="27"/>
     </row>
-    <row r="43" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A43" s="17"/>
       <c r="B43" s="68" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D43" s="53">
+        <v>45605</v>
+      </c>
+      <c r="E43" s="53">
+        <f t="shared" si="24"/>
         <v>45606</v>
-      </c>
-      <c r="E43" s="53">
-        <f>D43+2</f>
-        <v>45608</v>
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="14"/>
@@ -6194,10 +6237,10 @@
       <c r="AK43" s="14"/>
       <c r="AL43" s="14"/>
       <c r="AM43" s="14"/>
-      <c r="AN43" s="27"/>
-      <c r="AO43" s="66"/>
-      <c r="AP43" s="66"/>
-      <c r="AQ43" s="66"/>
+      <c r="AN43" s="28"/>
+      <c r="AO43" s="28"/>
+      <c r="AP43" s="14"/>
+      <c r="AQ43" s="14"/>
       <c r="AR43" s="14"/>
       <c r="AS43" s="14"/>
       <c r="AT43" s="14"/>
@@ -6239,107 +6282,114 @@
       <c r="CD43" s="27"/>
       <c r="CE43" s="27"/>
     </row>
-    <row r="44" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A44" s="17"/>
-      <c r="B44" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="13"/>
+      <c r="B44" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="53">
+        <v>45605</v>
+      </c>
+      <c r="E44" s="53">
+        <f t="shared" si="24"/>
+        <v>45606</v>
+      </c>
       <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="22"/>
-      <c r="U44" s="22"/>
-      <c r="V44" s="22"/>
-      <c r="W44" s="22"/>
-      <c r="X44" s="22"/>
-      <c r="Y44" s="22"/>
-      <c r="Z44" s="22"/>
-      <c r="AA44" s="22"/>
-      <c r="AB44" s="22"/>
-      <c r="AC44" s="22"/>
-      <c r="AD44" s="22"/>
-      <c r="AE44" s="22"/>
-      <c r="AF44" s="22"/>
-      <c r="AG44" s="22"/>
-      <c r="AH44" s="22"/>
-      <c r="AI44" s="22"/>
-      <c r="AJ44" s="22"/>
-      <c r="AK44" s="22"/>
-      <c r="AL44" s="22"/>
-      <c r="AM44" s="22"/>
-      <c r="AN44" s="22"/>
-      <c r="AO44" s="22"/>
-      <c r="AP44" s="22"/>
-      <c r="AQ44" s="22"/>
-      <c r="AR44" s="22"/>
-      <c r="AS44" s="22"/>
-      <c r="AT44" s="22"/>
-      <c r="AU44" s="22"/>
-      <c r="AV44" s="22"/>
-      <c r="AW44" s="22"/>
-      <c r="AX44" s="22"/>
-      <c r="AY44" s="22"/>
-      <c r="AZ44" s="22"/>
-      <c r="BA44" s="22"/>
-      <c r="BB44" s="22"/>
-      <c r="BC44" s="22"/>
-      <c r="BD44" s="22"/>
-      <c r="BE44" s="22"/>
-      <c r="BF44" s="22"/>
-      <c r="BG44" s="22"/>
-      <c r="BH44" s="22"/>
-      <c r="BI44" s="22"/>
-      <c r="BJ44" s="22"/>
-      <c r="BK44" s="22"/>
-      <c r="BL44" s="22"/>
-      <c r="BM44" s="22"/>
-      <c r="BN44" s="22"/>
-      <c r="BO44" s="22"/>
-      <c r="BP44" s="22"/>
-      <c r="BQ44" s="22"/>
-      <c r="BR44" s="22"/>
-      <c r="BS44" s="22"/>
-      <c r="BT44" s="22"/>
-      <c r="BU44" s="22"/>
-      <c r="BV44" s="22"/>
-      <c r="BW44" s="22"/>
-      <c r="BX44" s="22"/>
-      <c r="BY44" s="22"/>
-      <c r="BZ44" s="22"/>
-      <c r="CA44" s="22"/>
-      <c r="CB44" s="22"/>
-      <c r="CC44" s="22"/>
-      <c r="CD44" s="22"/>
-      <c r="CE44" s="22"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="14"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="14"/>
+      <c r="AC44" s="14"/>
+      <c r="AD44" s="14"/>
+      <c r="AE44" s="14"/>
+      <c r="AF44" s="14"/>
+      <c r="AG44" s="27"/>
+      <c r="AH44" s="27"/>
+      <c r="AI44" s="14"/>
+      <c r="AJ44" s="14"/>
+      <c r="AK44" s="14"/>
+      <c r="AL44" s="14"/>
+      <c r="AM44" s="14"/>
+      <c r="AN44" s="64"/>
+      <c r="AO44" s="64"/>
+      <c r="AP44" s="14"/>
+      <c r="AQ44" s="14"/>
+      <c r="AR44" s="14"/>
+      <c r="AS44" s="14"/>
+      <c r="AT44" s="14"/>
+      <c r="AU44" s="27"/>
+      <c r="AV44" s="27"/>
+      <c r="AW44" s="14"/>
+      <c r="AX44" s="14"/>
+      <c r="AY44" s="14"/>
+      <c r="AZ44" s="14"/>
+      <c r="BA44" s="14"/>
+      <c r="BB44" s="27"/>
+      <c r="BC44" s="27"/>
+      <c r="BD44" s="14"/>
+      <c r="BE44" s="14"/>
+      <c r="BF44" s="14"/>
+      <c r="BG44" s="14"/>
+      <c r="BH44" s="14"/>
+      <c r="BI44" s="27"/>
+      <c r="BJ44" s="27"/>
+      <c r="BK44" s="14"/>
+      <c r="BL44" s="14"/>
+      <c r="BM44" s="14"/>
+      <c r="BN44" s="14"/>
+      <c r="BO44" s="14"/>
+      <c r="BP44" s="27"/>
+      <c r="BQ44" s="27"/>
+      <c r="BR44" s="14"/>
+      <c r="BS44" s="14"/>
+      <c r="BT44" s="14"/>
+      <c r="BU44" s="14"/>
+      <c r="BV44" s="14"/>
+      <c r="BW44" s="27"/>
+      <c r="BX44" s="27"/>
+      <c r="BY44" s="14"/>
+      <c r="BZ44" s="14"/>
+      <c r="CA44" s="14"/>
+      <c r="CB44" s="14"/>
+      <c r="CC44" s="14"/>
+      <c r="CD44" s="27"/>
+      <c r="CE44" s="27"/>
     </row>
-    <row r="45" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A45" s="17"/>
-      <c r="B45" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="60">
-        <v>45611</v>
-      </c>
-      <c r="E45" s="60">
-        <f>D45+4</f>
-        <v>45615</v>
+      <c r="B45" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="53">
+        <v>45605</v>
+      </c>
+      <c r="E45" s="53">
+        <f t="shared" si="24"/>
+        <v>45606</v>
       </c>
       <c r="F45" s="22"/>
       <c r="G45" s="14"/>
@@ -6375,17 +6425,17 @@
       <c r="AK45" s="14"/>
       <c r="AL45" s="14"/>
       <c r="AM45" s="14"/>
-      <c r="AN45" s="27"/>
-      <c r="AO45" s="27"/>
+      <c r="AN45" s="35"/>
+      <c r="AO45" s="35"/>
       <c r="AP45" s="14"/>
       <c r="AQ45" s="14"/>
       <c r="AR45" s="14"/>
       <c r="AS45" s="14"/>
-      <c r="AT45" s="34"/>
-      <c r="AU45" s="34"/>
-      <c r="AV45" s="34"/>
-      <c r="AW45" s="34"/>
-      <c r="AX45" s="34"/>
+      <c r="AT45" s="14"/>
+      <c r="AU45" s="27"/>
+      <c r="AV45" s="27"/>
+      <c r="AW45" s="14"/>
+      <c r="AX45" s="14"/>
       <c r="AY45" s="14"/>
       <c r="AZ45" s="14"/>
       <c r="BA45" s="14"/>
@@ -6412,7 +6462,7 @@
       <c r="BV45" s="14"/>
       <c r="BW45" s="27"/>
       <c r="BX45" s="27"/>
-      <c r="BY45" s="27"/>
+      <c r="BY45" s="14"/>
       <c r="BZ45" s="14"/>
       <c r="CA45" s="14"/>
       <c r="CB45" s="14"/>
@@ -6420,20 +6470,20 @@
       <c r="CD45" s="27"/>
       <c r="CE45" s="27"/>
     </row>
-    <row r="46" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A46" s="17"/>
-      <c r="B46" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" s="60">
-        <v>45611</v>
-      </c>
-      <c r="E46" s="60">
-        <f t="shared" ref="E46:E47" si="24">D46+4</f>
-        <v>45615</v>
+      <c r="B46" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="53">
+        <v>45605</v>
+      </c>
+      <c r="E46" s="53">
+        <f t="shared" si="24"/>
+        <v>45606</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="14"/>
@@ -6469,17 +6519,17 @@
       <c r="AK46" s="14"/>
       <c r="AL46" s="14"/>
       <c r="AM46" s="14"/>
-      <c r="AN46" s="27"/>
-      <c r="AO46" s="27"/>
+      <c r="AN46" s="29"/>
+      <c r="AO46" s="29"/>
       <c r="AP46" s="14"/>
       <c r="AQ46" s="14"/>
       <c r="AR46" s="14"/>
       <c r="AS46" s="14"/>
-      <c r="AT46" s="28"/>
-      <c r="AU46" s="28"/>
-      <c r="AV46" s="28"/>
-      <c r="AW46" s="28"/>
-      <c r="AX46" s="28"/>
+      <c r="AT46" s="14"/>
+      <c r="AU46" s="27"/>
+      <c r="AV46" s="27"/>
+      <c r="AW46" s="14"/>
+      <c r="AX46" s="14"/>
       <c r="AY46" s="14"/>
       <c r="AZ46" s="14"/>
       <c r="BA46" s="14"/>
@@ -6506,7 +6556,7 @@
       <c r="BV46" s="14"/>
       <c r="BW46" s="27"/>
       <c r="BX46" s="27"/>
-      <c r="BY46" s="27"/>
+      <c r="BY46" s="14"/>
       <c r="BZ46" s="14"/>
       <c r="CA46" s="14"/>
       <c r="CB46" s="14"/>
@@ -6514,20 +6564,20 @@
       <c r="CD46" s="27"/>
       <c r="CE46" s="27"/>
     </row>
-    <row r="47" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A47" s="17"/>
-      <c r="B47" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="60">
-        <v>45611</v>
-      </c>
-      <c r="E47" s="60">
+      <c r="B47" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="53">
+        <v>45605</v>
+      </c>
+      <c r="E47" s="53">
         <f t="shared" si="24"/>
-        <v>45615</v>
+        <v>45606</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="14"/>
@@ -6563,17 +6613,17 @@
       <c r="AK47" s="14"/>
       <c r="AL47" s="14"/>
       <c r="AM47" s="14"/>
-      <c r="AN47" s="27"/>
-      <c r="AO47" s="27"/>
+      <c r="AN47" s="66"/>
+      <c r="AO47" s="66"/>
       <c r="AP47" s="14"/>
       <c r="AQ47" s="14"/>
       <c r="AR47" s="14"/>
       <c r="AS47" s="14"/>
       <c r="AT47" s="14"/>
-      <c r="AU47" s="64"/>
-      <c r="AV47" s="64"/>
-      <c r="AW47" s="64"/>
-      <c r="AX47" s="64"/>
+      <c r="AU47" s="27"/>
+      <c r="AV47" s="27"/>
+      <c r="AW47" s="14"/>
+      <c r="AX47" s="14"/>
       <c r="AY47" s="14"/>
       <c r="AZ47" s="14"/>
       <c r="BA47" s="14"/>
@@ -6600,7 +6650,7 @@
       <c r="BV47" s="14"/>
       <c r="BW47" s="27"/>
       <c r="BX47" s="27"/>
-      <c r="BY47" s="27"/>
+      <c r="BY47" s="14"/>
       <c r="BZ47" s="14"/>
       <c r="CA47" s="14"/>
       <c r="CB47" s="14"/>
@@ -6608,19 +6658,20 @@
       <c r="CD47" s="27"/>
       <c r="CE47" s="27"/>
     </row>
-    <row r="48" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A48" s="17"/>
-      <c r="B48" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48" s="60">
-        <v>45618</v>
-      </c>
-      <c r="E48" s="60">
-        <v>45618</v>
+      <c r="B48" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="53">
+        <v>45606</v>
+      </c>
+      <c r="E48" s="53">
+        <f>D48+2</f>
+        <v>45608</v>
       </c>
       <c r="F48" s="22"/>
       <c r="G48" s="14"/>
@@ -6657,9 +6708,9 @@
       <c r="AL48" s="14"/>
       <c r="AM48" s="14"/>
       <c r="AN48" s="27"/>
-      <c r="AO48" s="27"/>
-      <c r="AP48" s="14"/>
-      <c r="AQ48" s="14"/>
+      <c r="AO48" s="66"/>
+      <c r="AP48" s="66"/>
+      <c r="AQ48" s="66"/>
       <c r="AR48" s="14"/>
       <c r="AS48" s="14"/>
       <c r="AT48" s="14"/>
@@ -6669,7 +6720,7 @@
       <c r="AX48" s="14"/>
       <c r="AY48" s="14"/>
       <c r="AZ48" s="14"/>
-      <c r="BA48" s="66"/>
+      <c r="BA48" s="14"/>
       <c r="BB48" s="27"/>
       <c r="BC48" s="27"/>
       <c r="BD48" s="14"/>
@@ -6693,7 +6744,7 @@
       <c r="BV48" s="14"/>
       <c r="BW48" s="27"/>
       <c r="BX48" s="27"/>
-      <c r="BY48" s="27"/>
+      <c r="BY48" s="14"/>
       <c r="BZ48" s="14"/>
       <c r="CA48" s="14"/>
       <c r="CB48" s="14"/>
@@ -6701,112 +6752,107 @@
       <c r="CD48" s="27"/>
       <c r="CE48" s="27"/>
     </row>
-    <row r="49" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A49" s="17"/>
-      <c r="B49" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="60">
-        <v>45618</v>
-      </c>
-      <c r="E49" s="60">
-        <v>45618</v>
-      </c>
+      <c r="B49" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="56"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="13"/>
       <c r="F49" s="22"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="27"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="14"/>
-      <c r="X49" s="14"/>
-      <c r="Y49" s="14"/>
-      <c r="Z49" s="27"/>
-      <c r="AA49" s="27"/>
-      <c r="AB49" s="14"/>
-      <c r="AC49" s="14"/>
-      <c r="AD49" s="14"/>
-      <c r="AE49" s="14"/>
-      <c r="AF49" s="14"/>
-      <c r="AG49" s="27"/>
-      <c r="AH49" s="27"/>
-      <c r="AI49" s="14"/>
-      <c r="AJ49" s="14"/>
-      <c r="AK49" s="14"/>
-      <c r="AL49" s="14"/>
-      <c r="AM49" s="14"/>
-      <c r="AN49" s="27"/>
-      <c r="AO49" s="27"/>
-      <c r="AP49" s="14"/>
-      <c r="AQ49" s="14"/>
-      <c r="AR49" s="14"/>
-      <c r="AS49" s="14"/>
-      <c r="AT49" s="14"/>
-      <c r="AU49" s="27"/>
-      <c r="AV49" s="27"/>
-      <c r="AW49" s="14"/>
-      <c r="AX49" s="14"/>
-      <c r="AY49" s="14"/>
-      <c r="AZ49" s="14"/>
-      <c r="BA49" s="29"/>
-      <c r="BB49" s="27"/>
-      <c r="BC49" s="27"/>
-      <c r="BD49" s="14"/>
-      <c r="BE49" s="14"/>
-      <c r="BF49" s="14"/>
-      <c r="BG49" s="14"/>
-      <c r="BH49" s="14"/>
-      <c r="BI49" s="27"/>
-      <c r="BJ49" s="27"/>
-      <c r="BK49" s="14"/>
-      <c r="BL49" s="14"/>
-      <c r="BM49" s="14"/>
-      <c r="BN49" s="14"/>
-      <c r="BO49" s="14"/>
-      <c r="BP49" s="27"/>
-      <c r="BQ49" s="27"/>
-      <c r="BR49" s="14"/>
-      <c r="BS49" s="14"/>
-      <c r="BT49" s="14"/>
-      <c r="BU49" s="14"/>
-      <c r="BV49" s="14"/>
-      <c r="BW49" s="27"/>
-      <c r="BX49" s="27"/>
-      <c r="BY49" s="27"/>
-      <c r="BZ49" s="14"/>
-      <c r="CA49" s="14"/>
-      <c r="CB49" s="14"/>
-      <c r="CC49" s="14"/>
-      <c r="CD49" s="27"/>
-      <c r="CE49" s="27"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="22"/>
+      <c r="AD49" s="22"/>
+      <c r="AE49" s="22"/>
+      <c r="AF49" s="22"/>
+      <c r="AG49" s="22"/>
+      <c r="AH49" s="22"/>
+      <c r="AI49" s="22"/>
+      <c r="AJ49" s="22"/>
+      <c r="AK49" s="22"/>
+      <c r="AL49" s="22"/>
+      <c r="AM49" s="22"/>
+      <c r="AN49" s="22"/>
+      <c r="AO49" s="22"/>
+      <c r="AP49" s="22"/>
+      <c r="AQ49" s="22"/>
+      <c r="AR49" s="22"/>
+      <c r="AS49" s="22"/>
+      <c r="AT49" s="22"/>
+      <c r="AU49" s="22"/>
+      <c r="AV49" s="22"/>
+      <c r="AW49" s="22"/>
+      <c r="AX49" s="22"/>
+      <c r="AY49" s="22"/>
+      <c r="AZ49" s="22"/>
+      <c r="BA49" s="22"/>
+      <c r="BB49" s="22"/>
+      <c r="BC49" s="22"/>
+      <c r="BD49" s="22"/>
+      <c r="BE49" s="22"/>
+      <c r="BF49" s="22"/>
+      <c r="BG49" s="22"/>
+      <c r="BH49" s="22"/>
+      <c r="BI49" s="22"/>
+      <c r="BJ49" s="22"/>
+      <c r="BK49" s="22"/>
+      <c r="BL49" s="22"/>
+      <c r="BM49" s="22"/>
+      <c r="BN49" s="22"/>
+      <c r="BO49" s="22"/>
+      <c r="BP49" s="22"/>
+      <c r="BQ49" s="22"/>
+      <c r="BR49" s="22"/>
+      <c r="BS49" s="22"/>
+      <c r="BT49" s="22"/>
+      <c r="BU49" s="22"/>
+      <c r="BV49" s="22"/>
+      <c r="BW49" s="22"/>
+      <c r="BX49" s="22"/>
+      <c r="BY49" s="22"/>
+      <c r="BZ49" s="22"/>
+      <c r="CA49" s="22"/>
+      <c r="CB49" s="22"/>
+      <c r="CC49" s="22"/>
+      <c r="CD49" s="22"/>
+      <c r="CE49" s="22"/>
     </row>
-    <row r="50" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A50" s="17"/>
       <c r="B50" s="58" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C50" s="59" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D50" s="60">
-        <v>45619</v>
+        <v>45611</v>
       </c>
       <c r="E50" s="60">
-        <v>45619</v>
+        <f>D50+4</f>
+        <v>45615</v>
       </c>
       <c r="F50" s="22"/>
       <c r="G50" s="14"/>
@@ -6848,15 +6894,15 @@
       <c r="AQ50" s="14"/>
       <c r="AR50" s="14"/>
       <c r="AS50" s="14"/>
-      <c r="AT50" s="14"/>
-      <c r="AU50" s="27"/>
-      <c r="AV50" s="27"/>
-      <c r="AW50" s="14"/>
-      <c r="AX50" s="14"/>
+      <c r="AT50" s="34"/>
+      <c r="AU50" s="34"/>
+      <c r="AV50" s="34"/>
+      <c r="AW50" s="34"/>
+      <c r="AX50" s="34"/>
       <c r="AY50" s="14"/>
       <c r="AZ50" s="14"/>
       <c r="BA50" s="14"/>
-      <c r="BB50" s="35"/>
+      <c r="BB50" s="27"/>
       <c r="BC50" s="27"/>
       <c r="BD50" s="14"/>
       <c r="BE50" s="14"/>
@@ -6887,19 +6933,20 @@
       <c r="CD50" s="27"/>
       <c r="CE50" s="27"/>
     </row>
-    <row r="51" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A51" s="17"/>
       <c r="B51" s="58" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C51" s="59" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D51" s="60">
-        <v>45621</v>
+        <v>45611</v>
       </c>
       <c r="E51" s="60">
-        <v>45621</v>
+        <f t="shared" ref="E51:E52" si="25">D51+4</f>
+        <v>45615</v>
       </c>
       <c r="F51" s="22"/>
       <c r="G51" s="14"/>
@@ -6941,18 +6988,18 @@
       <c r="AQ51" s="14"/>
       <c r="AR51" s="14"/>
       <c r="AS51" s="14"/>
-      <c r="AT51" s="14"/>
-      <c r="AU51" s="27"/>
-      <c r="AV51" s="27"/>
-      <c r="AW51" s="14"/>
-      <c r="AX51" s="14"/>
+      <c r="AT51" s="28"/>
+      <c r="AU51" s="28"/>
+      <c r="AV51" s="28"/>
+      <c r="AW51" s="28"/>
+      <c r="AX51" s="28"/>
       <c r="AY51" s="14"/>
       <c r="AZ51" s="14"/>
       <c r="BA51" s="14"/>
       <c r="BB51" s="27"/>
       <c r="BC51" s="27"/>
-      <c r="BD51" s="66"/>
-      <c r="BE51" s="76"/>
+      <c r="BD51" s="14"/>
+      <c r="BE51" s="14"/>
       <c r="BF51" s="14"/>
       <c r="BG51" s="14"/>
       <c r="BH51" s="14"/>
@@ -6980,19 +7027,20 @@
       <c r="CD51" s="27"/>
       <c r="CE51" s="27"/>
     </row>
-    <row r="52" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A52" s="17"/>
       <c r="B52" s="58" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C52" s="59" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D52" s="60">
-        <v>45620</v>
+        <v>45611</v>
       </c>
       <c r="E52" s="60">
-        <v>45620</v>
+        <f t="shared" si="25"/>
+        <v>45615</v>
       </c>
       <c r="F52" s="22"/>
       <c r="G52" s="14"/>
@@ -7035,15 +7083,15 @@
       <c r="AR52" s="14"/>
       <c r="AS52" s="14"/>
       <c r="AT52" s="14"/>
-      <c r="AU52" s="27"/>
-      <c r="AV52" s="27"/>
-      <c r="AW52" s="14"/>
-      <c r="AX52" s="14"/>
+      <c r="AU52" s="64"/>
+      <c r="AV52" s="64"/>
+      <c r="AW52" s="64"/>
+      <c r="AX52" s="64"/>
       <c r="AY52" s="14"/>
       <c r="AZ52" s="14"/>
       <c r="BA52" s="14"/>
       <c r="BB52" s="27"/>
-      <c r="BC52" s="29"/>
+      <c r="BC52" s="27"/>
       <c r="BD52" s="14"/>
       <c r="BE52" s="14"/>
       <c r="BF52" s="14"/>
@@ -7073,19 +7121,19 @@
       <c r="CD52" s="27"/>
       <c r="CE52" s="27"/>
     </row>
-    <row r="53" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A53" s="17"/>
       <c r="B53" s="58" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C53" s="59" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D53" s="60">
-        <v>45620</v>
+        <v>45618</v>
       </c>
       <c r="E53" s="60">
-        <v>45620</v>
+        <v>45618</v>
       </c>
       <c r="F53" s="22"/>
       <c r="G53" s="14"/>
@@ -7134,9 +7182,9 @@
       <c r="AX53" s="14"/>
       <c r="AY53" s="14"/>
       <c r="AZ53" s="14"/>
-      <c r="BA53" s="14"/>
+      <c r="BA53" s="66"/>
       <c r="BB53" s="27"/>
-      <c r="BC53" s="35"/>
+      <c r="BC53" s="27"/>
       <c r="BD53" s="14"/>
       <c r="BE53" s="14"/>
       <c r="BF53" s="14"/>
@@ -7166,20 +7214,19 @@
       <c r="CD53" s="27"/>
       <c r="CE53" s="27"/>
     </row>
-    <row r="54" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A54" s="17"/>
       <c r="B54" s="58" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C54" s="59" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D54" s="60">
-        <v>45621</v>
+        <v>45618</v>
       </c>
       <c r="E54" s="60">
-        <f>D54+1</f>
-        <v>45622</v>
+        <v>45618</v>
       </c>
       <c r="F54" s="22"/>
       <c r="G54" s="14"/>
@@ -7228,11 +7275,11 @@
       <c r="AX54" s="14"/>
       <c r="AY54" s="14"/>
       <c r="AZ54" s="14"/>
-      <c r="BA54" s="14"/>
+      <c r="BA54" s="29"/>
       <c r="BB54" s="27"/>
       <c r="BC54" s="27"/>
-      <c r="BD54" s="34"/>
-      <c r="BE54" s="34"/>
+      <c r="BD54" s="14"/>
+      <c r="BE54" s="14"/>
       <c r="BF54" s="14"/>
       <c r="BG54" s="14"/>
       <c r="BH54" s="14"/>
@@ -7260,19 +7307,19 @@
       <c r="CD54" s="27"/>
       <c r="CE54" s="27"/>
     </row>
-    <row r="55" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A55" s="17"/>
       <c r="B55" s="58" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C55" s="59" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="D55" s="60">
-        <v>45623</v>
+        <v>45619</v>
       </c>
       <c r="E55" s="60">
-        <v>45623</v>
+        <v>45619</v>
       </c>
       <c r="F55" s="22"/>
       <c r="G55" s="14"/>
@@ -7322,11 +7369,11 @@
       <c r="AY55" s="14"/>
       <c r="AZ55" s="14"/>
       <c r="BA55" s="14"/>
-      <c r="BB55" s="27"/>
+      <c r="BB55" s="35"/>
       <c r="BC55" s="27"/>
       <c r="BD55" s="14"/>
       <c r="BE55" s="14"/>
-      <c r="BF55" s="34"/>
+      <c r="BF55" s="14"/>
       <c r="BG55" s="14"/>
       <c r="BH55" s="14"/>
       <c r="BI55" s="27"/>
@@ -7353,184 +7400,650 @@
       <c r="CD55" s="27"/>
       <c r="CE55" s="27"/>
     </row>
-    <row r="56" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A56" s="17"/>
-      <c r="B56" s="61" t="s">
+      <c r="B56" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="60">
+        <v>45621</v>
+      </c>
+      <c r="E56" s="60">
+        <v>45621</v>
+      </c>
+      <c r="F56" s="22"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="27"/>
+      <c r="T56" s="27"/>
+      <c r="U56" s="14"/>
+      <c r="V56" s="14"/>
+      <c r="W56" s="14"/>
+      <c r="X56" s="14"/>
+      <c r="Y56" s="14"/>
+      <c r="Z56" s="27"/>
+      <c r="AA56" s="27"/>
+      <c r="AB56" s="14"/>
+      <c r="AC56" s="14"/>
+      <c r="AD56" s="14"/>
+      <c r="AE56" s="14"/>
+      <c r="AF56" s="14"/>
+      <c r="AG56" s="27"/>
+      <c r="AH56" s="27"/>
+      <c r="AI56" s="14"/>
+      <c r="AJ56" s="14"/>
+      <c r="AK56" s="14"/>
+      <c r="AL56" s="14"/>
+      <c r="AM56" s="14"/>
+      <c r="AN56" s="27"/>
+      <c r="AO56" s="27"/>
+      <c r="AP56" s="14"/>
+      <c r="AQ56" s="14"/>
+      <c r="AR56" s="14"/>
+      <c r="AS56" s="14"/>
+      <c r="AT56" s="14"/>
+      <c r="AU56" s="27"/>
+      <c r="AV56" s="27"/>
+      <c r="AW56" s="14"/>
+      <c r="AX56" s="14"/>
+      <c r="AY56" s="14"/>
+      <c r="AZ56" s="14"/>
+      <c r="BA56" s="14"/>
+      <c r="BB56" s="27"/>
+      <c r="BC56" s="27"/>
+      <c r="BD56" s="66"/>
+      <c r="BE56" s="70"/>
+      <c r="BF56" s="14"/>
+      <c r="BG56" s="14"/>
+      <c r="BH56" s="14"/>
+      <c r="BI56" s="27"/>
+      <c r="BJ56" s="27"/>
+      <c r="BK56" s="14"/>
+      <c r="BL56" s="14"/>
+      <c r="BM56" s="14"/>
+      <c r="BN56" s="14"/>
+      <c r="BO56" s="14"/>
+      <c r="BP56" s="27"/>
+      <c r="BQ56" s="27"/>
+      <c r="BR56" s="14"/>
+      <c r="BS56" s="14"/>
+      <c r="BT56" s="14"/>
+      <c r="BU56" s="14"/>
+      <c r="BV56" s="14"/>
+      <c r="BW56" s="27"/>
+      <c r="BX56" s="27"/>
+      <c r="BY56" s="27"/>
+      <c r="BZ56" s="14"/>
+      <c r="CA56" s="14"/>
+      <c r="CB56" s="14"/>
+      <c r="CC56" s="14"/>
+      <c r="CD56" s="27"/>
+      <c r="CE56" s="27"/>
+    </row>
+    <row r="57" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A57" s="17"/>
+      <c r="B57" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="60">
+        <v>45620</v>
+      </c>
+      <c r="E57" s="60">
+        <v>45620</v>
+      </c>
+      <c r="F57" s="22"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="27"/>
+      <c r="T57" s="27"/>
+      <c r="U57" s="14"/>
+      <c r="V57" s="14"/>
+      <c r="W57" s="14"/>
+      <c r="X57" s="14"/>
+      <c r="Y57" s="14"/>
+      <c r="Z57" s="27"/>
+      <c r="AA57" s="27"/>
+      <c r="AB57" s="14"/>
+      <c r="AC57" s="14"/>
+      <c r="AD57" s="14"/>
+      <c r="AE57" s="14"/>
+      <c r="AF57" s="14"/>
+      <c r="AG57" s="27"/>
+      <c r="AH57" s="27"/>
+      <c r="AI57" s="14"/>
+      <c r="AJ57" s="14"/>
+      <c r="AK57" s="14"/>
+      <c r="AL57" s="14"/>
+      <c r="AM57" s="14"/>
+      <c r="AN57" s="27"/>
+      <c r="AO57" s="27"/>
+      <c r="AP57" s="14"/>
+      <c r="AQ57" s="14"/>
+      <c r="AR57" s="14"/>
+      <c r="AS57" s="14"/>
+      <c r="AT57" s="14"/>
+      <c r="AU57" s="27"/>
+      <c r="AV57" s="27"/>
+      <c r="AW57" s="14"/>
+      <c r="AX57" s="14"/>
+      <c r="AY57" s="14"/>
+      <c r="AZ57" s="14"/>
+      <c r="BA57" s="14"/>
+      <c r="BB57" s="27"/>
+      <c r="BC57" s="29"/>
+      <c r="BD57" s="14"/>
+      <c r="BE57" s="14"/>
+      <c r="BF57" s="14"/>
+      <c r="BG57" s="14"/>
+      <c r="BH57" s="14"/>
+      <c r="BI57" s="27"/>
+      <c r="BJ57" s="27"/>
+      <c r="BK57" s="14"/>
+      <c r="BL57" s="14"/>
+      <c r="BM57" s="14"/>
+      <c r="BN57" s="14"/>
+      <c r="BO57" s="14"/>
+      <c r="BP57" s="27"/>
+      <c r="BQ57" s="27"/>
+      <c r="BR57" s="14"/>
+      <c r="BS57" s="14"/>
+      <c r="BT57" s="14"/>
+      <c r="BU57" s="14"/>
+      <c r="BV57" s="14"/>
+      <c r="BW57" s="27"/>
+      <c r="BX57" s="27"/>
+      <c r="BY57" s="27"/>
+      <c r="BZ57" s="14"/>
+      <c r="CA57" s="14"/>
+      <c r="CB57" s="14"/>
+      <c r="CC57" s="14"/>
+      <c r="CD57" s="27"/>
+      <c r="CE57" s="27"/>
+    </row>
+    <row r="58" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A58" s="17"/>
+      <c r="B58" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="60">
+        <v>45620</v>
+      </c>
+      <c r="E58" s="60">
+        <v>45620</v>
+      </c>
+      <c r="F58" s="22"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="27"/>
+      <c r="T58" s="27"/>
+      <c r="U58" s="14"/>
+      <c r="V58" s="14"/>
+      <c r="W58" s="14"/>
+      <c r="X58" s="14"/>
+      <c r="Y58" s="14"/>
+      <c r="Z58" s="27"/>
+      <c r="AA58" s="27"/>
+      <c r="AB58" s="14"/>
+      <c r="AC58" s="14"/>
+      <c r="AD58" s="14"/>
+      <c r="AE58" s="14"/>
+      <c r="AF58" s="14"/>
+      <c r="AG58" s="27"/>
+      <c r="AH58" s="27"/>
+      <c r="AI58" s="14"/>
+      <c r="AJ58" s="14"/>
+      <c r="AK58" s="14"/>
+      <c r="AL58" s="14"/>
+      <c r="AM58" s="14"/>
+      <c r="AN58" s="27"/>
+      <c r="AO58" s="27"/>
+      <c r="AP58" s="14"/>
+      <c r="AQ58" s="14"/>
+      <c r="AR58" s="14"/>
+      <c r="AS58" s="14"/>
+      <c r="AT58" s="14"/>
+      <c r="AU58" s="27"/>
+      <c r="AV58" s="27"/>
+      <c r="AW58" s="14"/>
+      <c r="AX58" s="14"/>
+      <c r="AY58" s="14"/>
+      <c r="AZ58" s="14"/>
+      <c r="BA58" s="14"/>
+      <c r="BB58" s="27"/>
+      <c r="BC58" s="35"/>
+      <c r="BD58" s="14"/>
+      <c r="BE58" s="14"/>
+      <c r="BF58" s="14"/>
+      <c r="BG58" s="14"/>
+      <c r="BH58" s="14"/>
+      <c r="BI58" s="27"/>
+      <c r="BJ58" s="27"/>
+      <c r="BK58" s="14"/>
+      <c r="BL58" s="14"/>
+      <c r="BM58" s="14"/>
+      <c r="BN58" s="14"/>
+      <c r="BO58" s="14"/>
+      <c r="BP58" s="27"/>
+      <c r="BQ58" s="27"/>
+      <c r="BR58" s="14"/>
+      <c r="BS58" s="14"/>
+      <c r="BT58" s="14"/>
+      <c r="BU58" s="14"/>
+      <c r="BV58" s="14"/>
+      <c r="BW58" s="27"/>
+      <c r="BX58" s="27"/>
+      <c r="BY58" s="27"/>
+      <c r="BZ58" s="14"/>
+      <c r="CA58" s="14"/>
+      <c r="CB58" s="14"/>
+      <c r="CC58" s="14"/>
+      <c r="CD58" s="27"/>
+      <c r="CE58" s="27"/>
+    </row>
+    <row r="59" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A59" s="17"/>
+      <c r="B59" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="60">
+        <v>45621</v>
+      </c>
+      <c r="E59" s="60">
+        <f>D59+1</f>
+        <v>45622</v>
+      </c>
+      <c r="F59" s="22"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="14"/>
+      <c r="S59" s="27"/>
+      <c r="T59" s="27"/>
+      <c r="U59" s="14"/>
+      <c r="V59" s="14"/>
+      <c r="W59" s="14"/>
+      <c r="X59" s="14"/>
+      <c r="Y59" s="14"/>
+      <c r="Z59" s="27"/>
+      <c r="AA59" s="27"/>
+      <c r="AB59" s="14"/>
+      <c r="AC59" s="14"/>
+      <c r="AD59" s="14"/>
+      <c r="AE59" s="14"/>
+      <c r="AF59" s="14"/>
+      <c r="AG59" s="27"/>
+      <c r="AH59" s="27"/>
+      <c r="AI59" s="14"/>
+      <c r="AJ59" s="14"/>
+      <c r="AK59" s="14"/>
+      <c r="AL59" s="14"/>
+      <c r="AM59" s="14"/>
+      <c r="AN59" s="27"/>
+      <c r="AO59" s="27"/>
+      <c r="AP59" s="14"/>
+      <c r="AQ59" s="14"/>
+      <c r="AR59" s="14"/>
+      <c r="AS59" s="14"/>
+      <c r="AT59" s="14"/>
+      <c r="AU59" s="27"/>
+      <c r="AV59" s="27"/>
+      <c r="AW59" s="14"/>
+      <c r="AX59" s="14"/>
+      <c r="AY59" s="14"/>
+      <c r="AZ59" s="14"/>
+      <c r="BA59" s="14"/>
+      <c r="BB59" s="27"/>
+      <c r="BC59" s="27"/>
+      <c r="BD59" s="34"/>
+      <c r="BE59" s="34"/>
+      <c r="BF59" s="14"/>
+      <c r="BG59" s="14"/>
+      <c r="BH59" s="14"/>
+      <c r="BI59" s="27"/>
+      <c r="BJ59" s="27"/>
+      <c r="BK59" s="14"/>
+      <c r="BL59" s="14"/>
+      <c r="BM59" s="14"/>
+      <c r="BN59" s="14"/>
+      <c r="BO59" s="14"/>
+      <c r="BP59" s="27"/>
+      <c r="BQ59" s="27"/>
+      <c r="BR59" s="14"/>
+      <c r="BS59" s="14"/>
+      <c r="BT59" s="14"/>
+      <c r="BU59" s="14"/>
+      <c r="BV59" s="14"/>
+      <c r="BW59" s="27"/>
+      <c r="BX59" s="27"/>
+      <c r="BY59" s="27"/>
+      <c r="BZ59" s="14"/>
+      <c r="CA59" s="14"/>
+      <c r="CB59" s="14"/>
+      <c r="CC59" s="14"/>
+      <c r="CD59" s="27"/>
+      <c r="CE59" s="27"/>
+    </row>
+    <row r="60" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A60" s="17"/>
+      <c r="B60" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="60">
+        <v>45623</v>
+      </c>
+      <c r="E60" s="60">
+        <v>45623</v>
+      </c>
+      <c r="F60" s="22"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="14"/>
+      <c r="S60" s="27"/>
+      <c r="T60" s="27"/>
+      <c r="U60" s="14"/>
+      <c r="V60" s="14"/>
+      <c r="W60" s="14"/>
+      <c r="X60" s="14"/>
+      <c r="Y60" s="14"/>
+      <c r="Z60" s="27"/>
+      <c r="AA60" s="27"/>
+      <c r="AB60" s="14"/>
+      <c r="AC60" s="14"/>
+      <c r="AD60" s="14"/>
+      <c r="AE60" s="14"/>
+      <c r="AF60" s="14"/>
+      <c r="AG60" s="27"/>
+      <c r="AH60" s="27"/>
+      <c r="AI60" s="14"/>
+      <c r="AJ60" s="14"/>
+      <c r="AK60" s="14"/>
+      <c r="AL60" s="14"/>
+      <c r="AM60" s="14"/>
+      <c r="AN60" s="27"/>
+      <c r="AO60" s="27"/>
+      <c r="AP60" s="14"/>
+      <c r="AQ60" s="14"/>
+      <c r="AR60" s="14"/>
+      <c r="AS60" s="14"/>
+      <c r="AT60" s="14"/>
+      <c r="AU60" s="27"/>
+      <c r="AV60" s="27"/>
+      <c r="AW60" s="14"/>
+      <c r="AX60" s="14"/>
+      <c r="AY60" s="14"/>
+      <c r="AZ60" s="14"/>
+      <c r="BA60" s="14"/>
+      <c r="BB60" s="27"/>
+      <c r="BC60" s="27"/>
+      <c r="BD60" s="14"/>
+      <c r="BE60" s="14"/>
+      <c r="BF60" s="34"/>
+      <c r="BG60" s="14"/>
+      <c r="BH60" s="14"/>
+      <c r="BI60" s="27"/>
+      <c r="BJ60" s="27"/>
+      <c r="BK60" s="14"/>
+      <c r="BL60" s="14"/>
+      <c r="BM60" s="14"/>
+      <c r="BN60" s="14"/>
+      <c r="BO60" s="14"/>
+      <c r="BP60" s="27"/>
+      <c r="BQ60" s="27"/>
+      <c r="BR60" s="14"/>
+      <c r="BS60" s="14"/>
+      <c r="BT60" s="14"/>
+      <c r="BU60" s="14"/>
+      <c r="BV60" s="14"/>
+      <c r="BW60" s="27"/>
+      <c r="BX60" s="27"/>
+      <c r="BY60" s="27"/>
+      <c r="BZ60" s="14"/>
+      <c r="CA60" s="14"/>
+      <c r="CB60" s="14"/>
+      <c r="CC60" s="14"/>
+      <c r="CD60" s="27"/>
+      <c r="CE60" s="27"/>
+    </row>
+    <row r="61" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A61" s="17"/>
+      <c r="B61" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="62"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22"/>
-      <c r="T56" s="22"/>
-      <c r="U56" s="22"/>
-      <c r="V56" s="22"/>
-      <c r="W56" s="22"/>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="22"/>
-      <c r="Z56" s="22"/>
-      <c r="AA56" s="22"/>
-      <c r="AB56" s="22"/>
-      <c r="AC56" s="22"/>
-      <c r="AD56" s="22"/>
-      <c r="AE56" s="22"/>
-      <c r="AF56" s="22"/>
-      <c r="AG56" s="22"/>
-      <c r="AH56" s="22"/>
-      <c r="AI56" s="22"/>
-      <c r="AJ56" s="22"/>
-      <c r="AK56" s="22"/>
-      <c r="AL56" s="22"/>
-      <c r="AM56" s="22"/>
-      <c r="AN56" s="22"/>
-      <c r="AO56" s="22"/>
-      <c r="AP56" s="22"/>
-      <c r="AQ56" s="22"/>
-      <c r="AR56" s="22"/>
-      <c r="AS56" s="22"/>
-      <c r="AT56" s="22"/>
-      <c r="AU56" s="22"/>
-      <c r="AV56" s="22"/>
-      <c r="AW56" s="22"/>
-      <c r="AX56" s="22"/>
-      <c r="AY56" s="22"/>
-      <c r="AZ56" s="22"/>
-      <c r="BA56" s="22"/>
-      <c r="BB56" s="22"/>
-      <c r="BC56" s="22"/>
-      <c r="BD56" s="22"/>
-      <c r="BE56" s="22"/>
-      <c r="BF56" s="22"/>
-      <c r="BG56" s="22"/>
-      <c r="BH56" s="22"/>
-      <c r="BI56" s="22"/>
-      <c r="BJ56" s="22"/>
-      <c r="BK56" s="22"/>
-      <c r="BL56" s="22"/>
-      <c r="BM56" s="22"/>
-      <c r="BN56" s="22"/>
-      <c r="BO56" s="22"/>
-      <c r="BP56" s="22"/>
-      <c r="BQ56" s="22"/>
-      <c r="BR56" s="22"/>
-      <c r="BS56" s="22"/>
-      <c r="BT56" s="22"/>
-      <c r="BU56" s="22"/>
-      <c r="BV56" s="22"/>
-      <c r="BW56" s="22"/>
-      <c r="BX56" s="22"/>
-      <c r="BY56" s="22"/>
-      <c r="BZ56" s="22"/>
-      <c r="CA56" s="22"/>
-      <c r="CB56" s="22"/>
-      <c r="CC56" s="22"/>
-      <c r="CD56" s="22"/>
-      <c r="CE56" s="22"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="22"/>
+      <c r="Q61" s="22"/>
+      <c r="R61" s="22"/>
+      <c r="S61" s="22"/>
+      <c r="T61" s="22"/>
+      <c r="U61" s="22"/>
+      <c r="V61" s="22"/>
+      <c r="W61" s="22"/>
+      <c r="X61" s="22"/>
+      <c r="Y61" s="22"/>
+      <c r="Z61" s="22"/>
+      <c r="AA61" s="22"/>
+      <c r="AB61" s="22"/>
+      <c r="AC61" s="22"/>
+      <c r="AD61" s="22"/>
+      <c r="AE61" s="22"/>
+      <c r="AF61" s="22"/>
+      <c r="AG61" s="22"/>
+      <c r="AH61" s="22"/>
+      <c r="AI61" s="22"/>
+      <c r="AJ61" s="22"/>
+      <c r="AK61" s="22"/>
+      <c r="AL61" s="22"/>
+      <c r="AM61" s="22"/>
+      <c r="AN61" s="22"/>
+      <c r="AO61" s="22"/>
+      <c r="AP61" s="22"/>
+      <c r="AQ61" s="22"/>
+      <c r="AR61" s="22"/>
+      <c r="AS61" s="22"/>
+      <c r="AT61" s="22"/>
+      <c r="AU61" s="22"/>
+      <c r="AV61" s="22"/>
+      <c r="AW61" s="22"/>
+      <c r="AX61" s="22"/>
+      <c r="AY61" s="22"/>
+      <c r="AZ61" s="22"/>
+      <c r="BA61" s="22"/>
+      <c r="BB61" s="22"/>
+      <c r="BC61" s="22"/>
+      <c r="BD61" s="22"/>
+      <c r="BE61" s="22"/>
+      <c r="BF61" s="22"/>
+      <c r="BG61" s="22"/>
+      <c r="BH61" s="22"/>
+      <c r="BI61" s="22"/>
+      <c r="BJ61" s="22"/>
+      <c r="BK61" s="22"/>
+      <c r="BL61" s="22"/>
+      <c r="BM61" s="22"/>
+      <c r="BN61" s="22"/>
+      <c r="BO61" s="22"/>
+      <c r="BP61" s="22"/>
+      <c r="BQ61" s="22"/>
+      <c r="BR61" s="22"/>
+      <c r="BS61" s="22"/>
+      <c r="BT61" s="22"/>
+      <c r="BU61" s="22"/>
+      <c r="BV61" s="22"/>
+      <c r="BW61" s="22"/>
+      <c r="BX61" s="22"/>
+      <c r="BY61" s="22"/>
+      <c r="BZ61" s="22"/>
+      <c r="CA61" s="22"/>
+      <c r="CB61" s="22"/>
+      <c r="CC61" s="22"/>
+      <c r="CD61" s="22"/>
+      <c r="CE61" s="22"/>
     </row>
-    <row r="57" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="17"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57" s="4"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
-      <c r="M57"/>
-      <c r="N57"/>
-      <c r="O57"/>
-      <c r="P57"/>
-      <c r="Q57"/>
-      <c r="R57"/>
-      <c r="S57"/>
-      <c r="T57"/>
-      <c r="U57"/>
-      <c r="V57"/>
-      <c r="W57"/>
-      <c r="X57"/>
-      <c r="Y57"/>
-      <c r="Z57"/>
-      <c r="AA57"/>
-      <c r="AB57"/>
-      <c r="AC57"/>
-      <c r="AD57"/>
-      <c r="AE57"/>
-      <c r="AF57"/>
-      <c r="AG57"/>
-      <c r="AH57"/>
-      <c r="AI57"/>
-      <c r="AJ57"/>
-      <c r="AK57"/>
-      <c r="AL57"/>
-      <c r="AM57"/>
-      <c r="AN57"/>
-      <c r="AO57"/>
-      <c r="AP57"/>
-      <c r="AQ57"/>
-      <c r="AR57"/>
-      <c r="AS57"/>
-      <c r="AT57"/>
-      <c r="AU57"/>
-      <c r="AV57"/>
-      <c r="AW57"/>
-      <c r="AX57"/>
-      <c r="AY57"/>
-      <c r="AZ57"/>
-      <c r="BA57"/>
-      <c r="BB57"/>
-      <c r="BC57"/>
-      <c r="BD57"/>
-      <c r="BE57"/>
-      <c r="BF57"/>
-      <c r="BG57"/>
-      <c r="BH57"/>
-      <c r="BI57"/>
-      <c r="BJ57"/>
-      <c r="BK57"/>
-      <c r="BL57"/>
-      <c r="BM57"/>
-      <c r="BN57"/>
-      <c r="BO57"/>
-      <c r="BP57"/>
-      <c r="BQ57"/>
-      <c r="BR57"/>
-      <c r="BS57"/>
-      <c r="BT57"/>
-      <c r="BU57"/>
-      <c r="BV57"/>
-      <c r="BW57"/>
-      <c r="BX57"/>
-      <c r="BY57"/>
-      <c r="BZ57"/>
-      <c r="CA57"/>
-      <c r="CB57"/>
-      <c r="CC57"/>
-      <c r="CD57"/>
-      <c r="CE57"/>
+    <row r="62" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A62" s="17"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62" s="4"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+      <c r="AE62"/>
+      <c r="AF62"/>
+      <c r="AG62"/>
+      <c r="AH62"/>
+      <c r="AI62"/>
+      <c r="AJ62"/>
+      <c r="AK62"/>
+      <c r="AL62"/>
+      <c r="AM62"/>
+      <c r="AN62"/>
+      <c r="AO62"/>
+      <c r="AP62"/>
+      <c r="AQ62"/>
+      <c r="AR62"/>
+      <c r="AS62"/>
+      <c r="AT62"/>
+      <c r="AU62"/>
+      <c r="AV62"/>
+      <c r="AW62"/>
+      <c r="AX62"/>
+      <c r="AY62"/>
+      <c r="AZ62"/>
+      <c r="BA62"/>
+      <c r="BB62"/>
+      <c r="BC62"/>
+      <c r="BD62"/>
+      <c r="BE62"/>
+      <c r="BF62"/>
+      <c r="BG62"/>
+      <c r="BH62"/>
+      <c r="BI62"/>
+      <c r="BJ62"/>
+      <c r="BK62"/>
+      <c r="BL62"/>
+      <c r="BM62"/>
+      <c r="BN62"/>
+      <c r="BO62"/>
+      <c r="BP62"/>
+      <c r="BQ62"/>
+      <c r="BR62"/>
+      <c r="BS62"/>
+      <c r="BT62"/>
+      <c r="BU62"/>
+      <c r="BV62"/>
+      <c r="BW62"/>
+      <c r="BX62"/>
+      <c r="BY62"/>
+      <c r="BZ62"/>
+      <c r="CA62"/>
+      <c r="CB62"/>
+      <c r="CC62"/>
+      <c r="CD62"/>
+      <c r="CE62"/>
     </row>
-    <row r="59" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="8"/>
-      <c r="E59" s="18"/>
+    <row r="64" spans="1:83" ht="30" customHeight="1">
+      <c r="C64" s="8"/>
+      <c r="E64" s="18"/>
     </row>
-    <row r="60" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="9"/>
+    <row r="65" spans="3:3" ht="30" customHeight="1">
+      <c r="C65" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -7549,331 +8062,342 @@
     <mergeCell ref="AB4:AH4"/>
     <mergeCell ref="F4:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="G7:R8 G9:I9 M9:R9">
-    <cfRule type="expression" dxfId="74" priority="158" stopIfTrue="1">
+  <conditionalFormatting sqref="G9:H9">
+    <cfRule type="expression" dxfId="75" priority="1" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="159">
+    <cfRule type="expression" dxfId="74" priority="2">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10:R10 AN31:AT35 AW43:BA44 U45:AM56 BY45:CC56 U55:AT56 BD56:BX56 G17:R56 G16:N16 R16 AN47:AT56 AN44:AT44 AY45:BA47 G15:R15 G14:O14 G13:R13 Q12:R12 AO36:AT36 AW50:BA56 AW48:AZ49 AN45:AS46 G11:L12 P11:R11 AP37:AT42 AN43 AR43:AT43">
-    <cfRule type="expression" dxfId="72" priority="165">
+  <conditionalFormatting sqref="G7:R7 I8:R8 G9:R9 I10:R13 G14:I14 M14:R14">
+    <cfRule type="expression" dxfId="73" priority="161">
+      <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="160" stopIfTrue="1">
+      <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:R15 P16:R16 G16:L17 Q17:R17 G18:R18 G19:O19 G20:R20 G21:N21 R21 G22:R61 AN36:AT40 AO41:AT41 AP42:AT47 AN48 AR48:AT48 AW48:BA49 AN49:AT49 AN50:AS51 AY50:BA52 U50:AM61 BY50:CC61 AN52:AT61 AW53:AZ54 AW55:BA61 U60:AT61 BD61:BX61">
+    <cfRule type="expression" dxfId="71" priority="167">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:T8 G10:T10 G9:I9 M9:T9 G17:T19 G16:N16 R16:T16 G22:T56 G21:R21 G15:R15 G14:O14 T14 G13:T13 Q12:T12 G20:S20 G11:L12 P11:T11">
-    <cfRule type="expression" dxfId="71" priority="157">
+  <conditionalFormatting sqref="G9:T9 G7:T7 I8:T8 I10:T13 G14:I14 M14:T14 G15:T15 P16:T16 G16:L17 Q17:T17 G18:T18 G19:O19 T19 G20:R20 G21:N21 G22:T24 G25:S25 G26:R26 G27:T61">
+    <cfRule type="expression" dxfId="70" priority="159">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:BW6 BY6:CD6 AG7:AH21 S7:T13 CD7:CE56 BV51:BX51 BU52:BX53 BF54:BR54 BT54:BX54 BD56:BT56 BV55:BX56 AP27:AR27 AW24:BA26 AW29:BA30 BD45:BJ47 BP45:BX47 BD55:BE55 BG55:BT55 S22:T56 AG36:AH44 AG33 S16:T19 T14 AG29:AH30 BD52:BS53 S20 AG23:AH27 BF51:BT51">
-    <cfRule type="expression" dxfId="70" priority="302">
+  <conditionalFormatting sqref="G5:BW6 BY6:CD6 S7:T18 AG7:AH26 CD7:CE61 T19 S21:T24 S25 S27:T61 AG28:AH32 AG34:AH35 AG38 AG41:AH49 BF56:BT56 BV56:BX56 BD57:BS58 BU57:BX58 BF59:BR59 BT59:BX59 BD60:BE60 BG60:BT60 BV60:BX61 BD61:BT61 AP32:AR32 AW29:BA31 AW34:BA35 BD50:BJ52 BP50:BX52">
+    <cfRule type="expression" dxfId="69" priority="304">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:BW6 BY6:CD6 CD7:CE56 BD56:BT56 BV55:BX56 S7:T13 AG7:AH21 AP22:AT25 BV51:BX51 BU52:BX53 BF54:BR54 BT54:BX54 BD55:BE55 BG55:BT55 S22:T56 AG36:AH44 AG33 S16:T19 T14 AG29:AH30 BD52:BS53 S20 AG23:AH27 BF51:BT51">
-    <cfRule type="expression" dxfId="69" priority="297" stopIfTrue="1">
+  <conditionalFormatting sqref="G6:BW6 BY6:CD6 CD7:CE61 BD60:BE60 BV60:BX61 BD61:BT61 S7:T18 T19 S21:T24 S25 S27:T61 AG7:AH26 AG28:AH32 AG38 AG41:AH49 AP27:AT30 BG60:BT60 BF56:BT56 BV56:BX56 BD57:BS58 BU57:BX58 BF59:BR59 BT59:BX59 AG34:AH35">
+    <cfRule type="expression" dxfId="68" priority="299" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U7:Y14 U18:Y18 V17:Y17 X20:Y20 U19:V19 U22:Y22 V21:Y21 U25:Y28 U24:X24 U23:V23 U16:Y16 V15:Y15 U30:Y43 U29:X29">
-    <cfRule type="expression" dxfId="68" priority="155" stopIfTrue="1">
+  <conditionalFormatting sqref="U7:Y19 V20:Y20 U21:Y21 V22:Y22 U23:Y23 U24:V24 X25:Y25 V26:Y26 U27:Y27 U28:V28 U29:X29 U30:Y33 U34:X34 U35:Y48">
+    <cfRule type="expression" dxfId="67" priority="158">
+      <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="157" stopIfTrue="1">
       <formula>AND(task_end&gt;=U$5,task_start&lt;V$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="156">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U49:AA49">
+    <cfRule type="expression" dxfId="65" priority="236" stopIfTrue="1">
+      <formula>AND(task_end&gt;=U$5,task_start&lt;V$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="237">
       <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U44:AA44">
-    <cfRule type="expression" dxfId="66" priority="234" stopIfTrue="1">
-      <formula>AND(task_end&gt;=U$5,task_start&lt;V$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="235">
-      <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
+  <conditionalFormatting sqref="U7:AH19 V20:AH20 R21:AH21 V22:AH22 U23:AH23 U24:V24 X25:AH25 V26:AH26 U27:AA27 U28:V28 AA28:AH28 U29:X29 AC29:AH29 U30:AA30 AF30:AH30 U31:Y31 AC31:AH31 U32:AA32 AG32:AH32 U33:AF33 U34:X34 U35:Y35 U36:AD36 U37:AE37 U38:AG38 U39:AF40 U41:AH49">
+    <cfRule type="expression" dxfId="63" priority="150">
+      <formula>AND(task_start&lt;=R$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=R$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U7:AH14 U18:AH18 V17:AH17 X20:AH20 U19:V19 AB19:AH19 U27:AA27 U25:AA25 AF25:AH25 U22:AA22 V21:AH21 U26:Y26 AC26:AH26 U36:AH44 U32:AE32 U33:AG33 U24:X24 AC24:AH24 U29:X29 U28:AF28 U31:AD31 U23:V23 AA23:AH23 U30:Y30 U16:AH16 V15:AH15 AG27:AH27 AD29:AH30 U34:AF35">
-    <cfRule type="expression" dxfId="64" priority="148">
+  <conditionalFormatting sqref="Z7:AA20">
+    <cfRule type="expression" dxfId="62" priority="212" stopIfTrue="1">
+      <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="213">
+      <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z21:AA21">
+    <cfRule type="expression" dxfId="60" priority="152">
+      <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="151" stopIfTrue="1">
+      <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z22:AA23 Z25:AA27 Z30:AA30 Z32:AA33 Z36:AA48">
+    <cfRule type="expression" dxfId="58" priority="179">
+      <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="178" stopIfTrue="1">
+      <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB7:AF26 AA28:AF28 AC29:AF29 AF30 AC31:AF31 AB33:AF33 AB36:AD36 AB37:AE37 AB38:AF49 AD34:AF35">
+    <cfRule type="expression" dxfId="56" priority="154" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AA$5,task_start&lt;AB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB7:AF26 AA28:AF28 AC29:AF29 AF30 AC31:AF31 AB33:AF33 AD34:AF35 AB36:AD36 AB37:AE37 AB38:AF49">
+    <cfRule type="expression" dxfId="55" priority="155">
+      <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB24:AO24">
+    <cfRule type="expression" dxfId="54" priority="12">
+      <formula>AND(task_start&lt;=AB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI7:AM24">
+    <cfRule type="expression" dxfId="53" priority="243">
+      <formula>AND(TODAY()&gt;=AI$5,TODAY()&lt;AJ$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="242" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AI$5,task_start&lt;AJ$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="241">
+      <formula>AND(task_start&lt;=AI$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AI$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI25:AM25">
+    <cfRule type="expression" dxfId="50" priority="4">
+      <formula>AND(TODAY()&gt;=AI$5,TODAY()&lt;AJ$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="5" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AI$5,task_start&lt;AJ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI25:AM26 AJ27:AM27 AI28:AM32 AK33:AM33 AD34:AM35 AJ36:AM37 AK38:AM38 AL39:AM39 AK40:AM40 AI41 AI42:AM49">
+    <cfRule type="expression" dxfId="48" priority="3">
+      <formula>AND(task_start&lt;=AD$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AD$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI26:AM26 AJ27:AM27 AI28:AM32 AK33:AM33 AI34:AM35 AJ36:AM37 AK38:AM38 AL39:AM39 AK40:AM40 AI41 AI42:AM49">
+    <cfRule type="expression" dxfId="47" priority="149">
+      <formula>AND(TODAY()&gt;=AI$5,TODAY()&lt;AJ$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="148" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AI$5,task_start&lt;AJ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI24:AO24">
+    <cfRule type="expression" dxfId="45" priority="14">
+      <formula>AND(TODAY()&gt;=AI$5,TODAY()&lt;AJ$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="13" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AI$5,task_start&lt;AJ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN25:AO35">
+    <cfRule type="expression" dxfId="43" priority="11">
+      <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="10" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AN$5,task_start&lt;AO$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="9">
+      <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN7:AT23">
+    <cfRule type="expression" dxfId="40" priority="206" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AN$5,task_start&lt;AO$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="207">
+      <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="205">
+      <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN36:AT40 AO41:AT41 AP42:AT47 AN48 AR48:AT48 AN49:AT49 AN50:AS51 U50:AM61 BY50:CC61 AN52:AT61 U60:AT61 BD61:BX61 G15:R15 P16:R16 G16:L17 Q17:R17 G18:R18 G19:O19 G20:R20 G21:N21 G22:R61 R21 AW48:BA49 AY50:BA52 AW53:AZ54 AW55:BA61">
+    <cfRule type="expression" dxfId="37" priority="166" stopIfTrue="1">
+      <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN36:AT40 AO41:AT41 AP42:AT47 AN48 AR48:AT48 AN49:AT49 AN50:AS51 U50:AM61 BY50:CC61 AN52:AT61 U60:AT61 BD61:BX61">
+    <cfRule type="expression" dxfId="36" priority="165">
       <formula>AND(task_start&lt;=U$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=U$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z7:AA15">
-    <cfRule type="expression" dxfId="63" priority="210" stopIfTrue="1">
-      <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="211">
-      <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z16:AA16">
-    <cfRule type="expression" dxfId="61" priority="149" stopIfTrue="1">
-      <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="150">
-      <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z17:AA18 Z20:AA22 Z27:AA28 Z25:AA25 AA23 Z31:AA43">
-    <cfRule type="expression" dxfId="59" priority="176" stopIfTrue="1">
-      <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="177">
-      <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB7:AF21 AB28:AF28 AF25 AC26:AF26 AB33:AF44 AB32:AE32 AC24:AF24 AB31:AD31 AB23:AF23 AD29:AF30">
-    <cfRule type="expression" dxfId="57" priority="152" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AB$5,task_start&lt;AC$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="153">
-      <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;AC$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI7:AM19">
-    <cfRule type="expression" dxfId="55" priority="239">
-      <formula>AND(task_start&lt;=AI$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AI$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="240" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AI$5,task_start&lt;AJ$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="241">
-      <formula>AND(TODAY()&gt;=AI$5,TODAY()&lt;AJ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI20:AM20">
-    <cfRule type="expression" dxfId="52" priority="2">
-      <formula>AND(TODAY()&gt;=AI$5,TODAY()&lt;AJ$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="3" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AI$5,task_start&lt;AJ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI20:AM21 AK35:AM35 AK33:AM33 AI29:AM30 AK28:AM28 AI37:AM44 AI36 AL34:AM34 AI23:AM27 AJ22:AM22 AJ31:AM32">
-    <cfRule type="expression" dxfId="50" priority="1">
-      <formula>AND(task_start&lt;=AI$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AI$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI21:AM21 AK35:AM35 AK33:AM33 AI29:AM30 AK28:AM28 AI37:AM44 AI36 AL34:AM34 AI23:AM27 AJ22:AM22 AJ31:AM32">
-    <cfRule type="expression" dxfId="49" priority="146" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AI$5,task_start&lt;AJ$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="147">
-      <formula>AND(TODAY()&gt;=AI$5,TODAY()&lt;AJ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI19:AO19">
-    <cfRule type="expression" dxfId="47" priority="10">
-      <formula>AND(task_start&lt;=AI$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AI$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="11" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AI$5,task_start&lt;AJ$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="12">
-      <formula>AND(TODAY()&gt;=AI$5,TODAY()&lt;AJ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN20:AO30">
-    <cfRule type="expression" dxfId="44" priority="7">
-      <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="8" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AN$5,task_start&lt;AO$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="9">
-      <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN7:AT18">
-    <cfRule type="expression" dxfId="41" priority="203">
-      <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="204" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AN$5,task_start&lt;AO$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="205">
-      <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN31:AT35 U45:AM56 BY45:CC56 U55:AT56 BD56:BX56 G10:R10 AW43:BA44 G17:R56 G16:N16 R16 AN47:AT56 AN44:AT44 AY45:BA47 G15:R15 G14:O14 G13:R13 Q12:R12 AO36:AT36 AW50:BA56 AW48:AZ49 AN45:AS46 G11:L12 P11:R11 AP37:AT42 AN43 AR43:AT43">
-    <cfRule type="expression" dxfId="38" priority="164" stopIfTrue="1">
-      <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN31:AT35 U45:AM56 BY45:CC56 U55:AT56 BD56:BX56 AN47:AT56 AN44:AT44 AO36:AT36 AN45:AS46 AP37:AT42 AN43 AR43:AT43">
-    <cfRule type="expression" dxfId="37" priority="163">
-      <formula>AND(task_start&lt;=U$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=U$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP19:AT21">
-    <cfRule type="expression" dxfId="36" priority="140" stopIfTrue="1">
+  <conditionalFormatting sqref="AP24:AT26">
+    <cfRule type="expression" dxfId="35" priority="142" stopIfTrue="1">
       <formula>AND(task_end&gt;=AP$5,task_start&lt;AQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP19:AT25">
-    <cfRule type="expression" dxfId="35" priority="141">
+  <conditionalFormatting sqref="AP24:AT30">
+    <cfRule type="expression" dxfId="34" priority="143">
       <formula>AND(TODAY()&gt;=AP$5,TODAY()&lt;AQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP19:AT30">
-    <cfRule type="expression" dxfId="34" priority="129">
+  <conditionalFormatting sqref="AP24:AT35">
+    <cfRule type="expression" dxfId="33" priority="131">
       <formula>AND(task_start&lt;=AP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AP$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP26:AT30">
-    <cfRule type="expression" dxfId="33" priority="130">
+  <conditionalFormatting sqref="AP31:AT35">
+    <cfRule type="expression" dxfId="32" priority="132">
       <formula>AND(TODAY()&gt;=AP$5,TODAY()&lt;AQ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="135" stopIfTrue="1">
       <formula>AND(task_end&gt;=AP$5,task_start&lt;AQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU22:AV44 AU48:AV56">
-    <cfRule type="expression" dxfId="31" priority="17" stopIfTrue="1">
+  <conditionalFormatting sqref="AU27:AV49 AU53:AV61">
+    <cfRule type="expression" dxfId="30" priority="19" stopIfTrue="1">
       <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="18">
+    <cfRule type="expression" dxfId="29" priority="20">
       <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU7:BC21">
-    <cfRule type="expression" dxfId="29" priority="198" stopIfTrue="1">
+  <conditionalFormatting sqref="AU7:BC26">
+    <cfRule type="expression" dxfId="28" priority="200" stopIfTrue="1">
       <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="199">
+    <cfRule type="expression" dxfId="27" priority="201">
       <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU7:BC44 AY45:BC47 AU51:BC51 AU50:BA50 BC50 AU54:BC56 AU48:AZ49 AU52:BB53 BB48:BC49">
-    <cfRule type="expression" dxfId="27" priority="13">
+  <conditionalFormatting sqref="AU7:CC49 AY50:BC52 AU53:AZ54 BB53:BC54 AU55:BA55 BC55 AU56:BC56 AU57:BB58 AU59:BC61">
+    <cfRule type="expression" dxfId="26" priority="15">
       <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW22:BA23">
-    <cfRule type="expression" dxfId="26" priority="125">
+  <conditionalFormatting sqref="AW27:BA28">
+    <cfRule type="expression" dxfId="25" priority="127">
       <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW22:BA31">
-    <cfRule type="expression" dxfId="25" priority="128" stopIfTrue="1">
+  <conditionalFormatting sqref="AW27:BA36">
+    <cfRule type="expression" dxfId="24" priority="130" stopIfTrue="1">
       <formula>AND(task_end&gt;=AW$5,task_start&lt;AX$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW27:BA28">
-    <cfRule type="expression" dxfId="24" priority="121">
+  <conditionalFormatting sqref="AW32:BA33">
+    <cfRule type="expression" dxfId="23" priority="123">
       <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW31:BA42">
-    <cfRule type="expression" dxfId="23" priority="95">
+  <conditionalFormatting sqref="AW36:BA47">
+    <cfRule type="expression" dxfId="22" priority="97">
       <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW32:BA42">
-    <cfRule type="expression" dxfId="22" priority="96" stopIfTrue="1">
+  <conditionalFormatting sqref="AW37:BA47">
+    <cfRule type="expression" dxfId="21" priority="98" stopIfTrue="1">
       <formula>AND(task_end&gt;=AW$5,task_start&lt;AX$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB22:BC49 BB51:BC51 BC50 BB54:BC56 BB52:BB53">
-    <cfRule type="expression" dxfId="21" priority="14" stopIfTrue="1">
+  <conditionalFormatting sqref="BB27:BC54 BC55 BB56:BC56 BB57:BB58 BB59:BC61">
+    <cfRule type="expression" dxfId="20" priority="17">
+      <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="16" stopIfTrue="1">
       <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="15">
-      <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD50:BX52">
+    <cfRule type="expression" dxfId="18" priority="89" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BD$5,task_start&lt;BE$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD56:BT56 BV55:BX56 G6:CE6 CD7:CE56 BD55:BE55 BG55:BT55">
-    <cfRule type="expression" dxfId="19" priority="296">
+  <conditionalFormatting sqref="BD50:BX55 BF56:BX56 BD57:BX58 BF59:BX59">
+    <cfRule type="expression" dxfId="17" priority="63">
+      <formula>AND(task_start&lt;=BD$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BD$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD53:BX55">
+    <cfRule type="expression" dxfId="16" priority="83">
+      <formula>AND(TODAY()&gt;=BD$5,TODAY()&lt;BE$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="82" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BD$5,task_start&lt;BE$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD7:CC49">
+    <cfRule type="expression" dxfId="14" priority="230" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BD$5,task_start&lt;BE$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="231">
+      <formula>AND(TODAY()&gt;=BD$5,TODAY()&lt;BE$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG60:BU60">
+    <cfRule type="expression" dxfId="12" priority="78">
+      <formula>AND(task_start&lt;=BG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BG$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK50:BO52">
+    <cfRule type="expression" dxfId="11" priority="88">
+      <formula>AND(TODAY()&gt;=BK$5,TODAY()&lt;BL$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS59">
+    <cfRule type="expression" dxfId="10" priority="76" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BS$5,task_start&lt;BT$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="77">
+      <formula>AND(TODAY()&gt;=BS$5,TODAY()&lt;BT$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BT57:BT58">
+    <cfRule type="expression" dxfId="8" priority="68">
+      <formula>AND(TODAY()&gt;=BT$5,TODAY()&lt;BU$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="67" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BT$5,task_start&lt;BU$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU56">
+    <cfRule type="expression" dxfId="6" priority="65">
+      <formula>AND(TODAY()&gt;=BU$5,TODAY()&lt;BV$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="64" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BU$5,task_start&lt;BV$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU60">
+    <cfRule type="expression" dxfId="4" priority="80">
+      <formula>AND(TODAY()&gt;=BU$5,TODAY()&lt;BV$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="79" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BU$5,task_start&lt;BV$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BV60:BX61 BD61:BT61 G6:CE6 CD7:CE61 BD60:BE60">
+    <cfRule type="expression" dxfId="2" priority="298">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD45:BX47">
-    <cfRule type="expression" dxfId="18" priority="87" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BD$5,task_start&lt;BE$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF54:BX54 BD45:BX50 BD52:BX53 BF51:BX51">
-    <cfRule type="expression" dxfId="17" priority="61">
-      <formula>AND(task_start&lt;=BD$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BD$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD48:BX50">
-    <cfRule type="expression" dxfId="16" priority="80" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BD$5,task_start&lt;BE$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="81">
-      <formula>AND(TODAY()&gt;=BD$5,TODAY()&lt;BE$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD7:CC44">
-    <cfRule type="expression" dxfId="14" priority="227">
-      <formula>AND(task_start&lt;=BD$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BD$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="228" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BD$5,task_start&lt;BE$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="229">
-      <formula>AND(TODAY()&gt;=BD$5,TODAY()&lt;BE$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK45:BO47">
-    <cfRule type="expression" dxfId="11" priority="86">
-      <formula>AND(TODAY()&gt;=BK$5,TODAY()&lt;BL$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BS54">
-    <cfRule type="expression" dxfId="10" priority="74" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BS$5,task_start&lt;BT$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="75">
-      <formula>AND(TODAY()&gt;=BS$5,TODAY()&lt;BT$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT52:BT53">
-    <cfRule type="expression" dxfId="8" priority="65" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BT$5,task_start&lt;BU$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="66">
-      <formula>AND(TODAY()&gt;=BT$5,TODAY()&lt;BU$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BU51">
-    <cfRule type="expression" dxfId="6" priority="62" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BU$5,task_start&lt;BV$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="63">
-      <formula>AND(TODAY()&gt;=BU$5,TODAY()&lt;BV$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BU55">
-    <cfRule type="expression" dxfId="4" priority="76">
-      <formula>AND(task_start&lt;=BU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BU$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="77" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BU$5,task_start&lt;BV$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="78">
-      <formula>AND(TODAY()&gt;=BU$5,TODAY()&lt;BV$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="BX6 CE6">
-    <cfRule type="expression" dxfId="1" priority="308" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="310" stopIfTrue="1">
       <formula>AND(task_end&gt;=BX$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY5:CE5 BX5:BX6 CE6">
-    <cfRule type="expression" dxfId="0" priority="304">
+    <cfRule type="expression" dxfId="0" priority="306">
       <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="41" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="38" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="E21" formula="1"/>
+    <ignoredError sqref="E26 E17 E19 E33 E40" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>